--- a/kingcar.xlsx
+++ b/kingcar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8DE5BB-BB21-4E26-981D-7728EE381FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B8935C-59B0-4454-AC11-97F1E1967D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1251,7 +1251,13 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;S/&quot;\ * #,##0_-;\-&quot;S/&quot;\ * #,##0_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1261,12 +1267,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-&quot;S/&quot;\ * #,##0_-;\-&quot;S/&quot;\ * #,##0_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1331,16 +1331,16 @@
     <sortCondition ref="E1:E123"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK"/>
     <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $"/>
     <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA"/>
-    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="2">
       <calculatedColumnFormula>+Tabla1[[#This Row],[CODIGO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="0"/>
     <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN"/>
     <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL"/>
   </tableColumns>
@@ -1637,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1695,7 +1695,7 @@
         <v>173</v>
       </c>
       <c r="C2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
@@ -1726,7 +1726,7 @@
         <v>174</v>
       </c>
       <c r="C3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
@@ -1757,7 +1757,7 @@
         <v>175</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
@@ -1788,7 +1788,7 @@
         <v>176</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
@@ -1819,7 +1819,7 @@
         <v>202</v>
       </c>
       <c r="C6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
@@ -1848,7 +1848,7 @@
         <v>219</v>
       </c>
       <c r="C7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
@@ -1879,7 +1879,7 @@
         <v>237</v>
       </c>
       <c r="C8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
@@ -1910,7 +1910,7 @@
         <v>237</v>
       </c>
       <c r="C9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
@@ -1941,7 +1941,7 @@
         <v>238</v>
       </c>
       <c r="C10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
@@ -1972,7 +1972,7 @@
         <v>239</v>
       </c>
       <c r="C11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
@@ -2003,7 +2003,7 @@
         <v>240</v>
       </c>
       <c r="C12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
@@ -2034,7 +2034,7 @@
         <v>222</v>
       </c>
       <c r="C13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
@@ -2063,7 +2063,7 @@
         <v>224</v>
       </c>
       <c r="C14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
@@ -2094,7 +2094,7 @@
         <v>226</v>
       </c>
       <c r="C15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
@@ -2123,7 +2123,7 @@
         <v>161</v>
       </c>
       <c r="C16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
@@ -2154,7 +2154,7 @@
         <v>162</v>
       </c>
       <c r="C17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
@@ -2185,7 +2185,7 @@
         <v>163</v>
       </c>
       <c r="C18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
@@ -2216,7 +2216,7 @@
         <v>164</v>
       </c>
       <c r="C19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
@@ -2247,7 +2247,7 @@
         <v>209</v>
       </c>
       <c r="C20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
@@ -2278,7 +2278,7 @@
         <v>210</v>
       </c>
       <c r="C21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
@@ -2309,7 +2309,7 @@
         <v>211</v>
       </c>
       <c r="C22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
@@ -2340,7 +2340,7 @@
         <v>183</v>
       </c>
       <c r="C23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
@@ -2371,7 +2371,7 @@
         <v>184</v>
       </c>
       <c r="C24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
@@ -2402,7 +2402,7 @@
         <v>185</v>
       </c>
       <c r="C25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
@@ -2433,7 +2433,7 @@
         <v>186</v>
       </c>
       <c r="C26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
@@ -2464,7 +2464,7 @@
         <v>190</v>
       </c>
       <c r="C27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
@@ -2495,7 +2495,7 @@
         <v>191</v>
       </c>
       <c r="C28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
@@ -2526,7 +2526,7 @@
         <v>192</v>
       </c>
       <c r="C29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
@@ -2557,7 +2557,7 @@
         <v>193</v>
       </c>
       <c r="C30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
@@ -2588,7 +2588,7 @@
         <v>166</v>
       </c>
       <c r="C31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
@@ -2619,7 +2619,7 @@
         <v>167</v>
       </c>
       <c r="C32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
@@ -2650,7 +2650,7 @@
         <v>168</v>
       </c>
       <c r="C33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
@@ -2681,7 +2681,7 @@
         <v>217</v>
       </c>
       <c r="C34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
@@ -2710,7 +2710,7 @@
         <v>232</v>
       </c>
       <c r="C35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
@@ -2741,7 +2741,7 @@
         <v>233</v>
       </c>
       <c r="C36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
@@ -2772,7 +2772,7 @@
         <v>234</v>
       </c>
       <c r="C37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
@@ -2803,7 +2803,7 @@
         <v>235</v>
       </c>
       <c r="C38" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
@@ -2834,7 +2834,7 @@
         <v>230</v>
       </c>
       <c r="C39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
@@ -2865,7 +2865,7 @@
         <v>171</v>
       </c>
       <c r="C40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
@@ -2896,7 +2896,7 @@
         <v>204</v>
       </c>
       <c r="C41" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
@@ -2927,7 +2927,7 @@
         <v>205</v>
       </c>
       <c r="C42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
@@ -2958,7 +2958,7 @@
         <v>206</v>
       </c>
       <c r="C43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
@@ -2989,7 +2989,7 @@
         <v>207</v>
       </c>
       <c r="C44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
@@ -3020,7 +3020,7 @@
         <v>157</v>
       </c>
       <c r="C45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
@@ -3051,7 +3051,7 @@
         <v>195</v>
       </c>
       <c r="C46" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
@@ -3082,7 +3082,7 @@
         <v>196</v>
       </c>
       <c r="C47" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
@@ -3113,7 +3113,7 @@
         <v>197</v>
       </c>
       <c r="C48" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
@@ -3144,7 +3144,7 @@
         <v>198</v>
       </c>
       <c r="C49" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
@@ -3175,7 +3175,7 @@
         <v>228</v>
       </c>
       <c r="C50" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
@@ -3330,7 +3330,7 @@
         <v>251</v>
       </c>
       <c r="C55" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
@@ -3359,7 +3359,7 @@
         <v>247</v>
       </c>
       <c r="C56" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
@@ -3388,7 +3388,7 @@
         <v>243</v>
       </c>
       <c r="C57" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
@@ -3419,7 +3419,7 @@
         <v>245</v>
       </c>
       <c r="C58" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
@@ -3450,7 +3450,7 @@
         <v>249</v>
       </c>
       <c r="C59" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
@@ -3479,7 +3479,7 @@
         <v>200</v>
       </c>
       <c r="C60" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
@@ -3510,7 +3510,7 @@
         <v>178</v>
       </c>
       <c r="C61" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
@@ -3541,7 +3541,7 @@
         <v>179</v>
       </c>
       <c r="C62" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3" t="s">
@@ -3572,7 +3572,7 @@
         <v>180</v>
       </c>
       <c r="C63" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
@@ -3603,7 +3603,7 @@
         <v>181</v>
       </c>
       <c r="C64" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
@@ -3634,7 +3634,7 @@
         <v>159</v>
       </c>
       <c r="C65" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
@@ -3665,7 +3665,7 @@
         <v>213</v>
       </c>
       <c r="C66" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
@@ -3694,7 +3694,7 @@
         <v>215</v>
       </c>
       <c r="C67" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
@@ -3725,7 +3725,7 @@
         <v>188</v>
       </c>
       <c r="C68" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
@@ -3756,7 +3756,7 @@
         <v>342</v>
       </c>
       <c r="C69" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3" t="s">
@@ -3787,7 +3787,7 @@
         <v>344</v>
       </c>
       <c r="C70" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3" t="s">
@@ -3818,7 +3818,7 @@
         <v>341</v>
       </c>
       <c r="C71" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
@@ -3849,7 +3849,7 @@
         <v>343</v>
       </c>
       <c r="C72" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3" t="s">
@@ -3880,7 +3880,7 @@
         <v>339</v>
       </c>
       <c r="C73" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
@@ -3911,7 +3911,7 @@
         <v>340</v>
       </c>
       <c r="C74" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3" t="s">
@@ -4110,7 +4110,7 @@
         <v>252</v>
       </c>
       <c r="C81" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3" t="s">
@@ -4141,7 +4141,7 @@
         <v>282</v>
       </c>
       <c r="C82" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3" t="s">
@@ -4172,7 +4172,7 @@
         <v>283</v>
       </c>
       <c r="C83" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3" t="s">
@@ -4203,7 +4203,7 @@
         <v>284</v>
       </c>
       <c r="C84" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3" t="s">
@@ -4234,7 +4234,7 @@
         <v>285</v>
       </c>
       <c r="C85" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3" t="s">
@@ -4265,7 +4265,7 @@
         <v>287</v>
       </c>
       <c r="C86" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3" t="s">
@@ -4294,7 +4294,7 @@
         <v>257</v>
       </c>
       <c r="C87" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3" t="s">
@@ -4325,7 +4325,7 @@
         <v>295</v>
       </c>
       <c r="C88" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3" t="s">
@@ -4356,7 +4356,7 @@
         <v>296</v>
       </c>
       <c r="C89" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3" t="s">
@@ -4387,7 +4387,7 @@
         <v>259</v>
       </c>
       <c r="C90" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3" t="s">
@@ -4416,7 +4416,7 @@
         <v>298</v>
       </c>
       <c r="C91" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3" t="s">
@@ -4447,7 +4447,7 @@
         <v>302</v>
       </c>
       <c r="C92" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3" t="s">
@@ -4478,7 +4478,7 @@
         <v>277</v>
       </c>
       <c r="C93" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3" t="s">
@@ -4509,7 +4509,7 @@
         <v>278</v>
       </c>
       <c r="C94" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3" t="s">
@@ -4540,7 +4540,7 @@
         <v>279</v>
       </c>
       <c r="C95" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3" t="s">
@@ -4571,7 +4571,7 @@
         <v>280</v>
       </c>
       <c r="C96" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3" t="s">
@@ -4602,7 +4602,7 @@
         <v>268</v>
       </c>
       <c r="C97" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3" t="s">
@@ -4633,7 +4633,7 @@
         <v>269</v>
       </c>
       <c r="C98" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3" t="s">
@@ -4664,7 +4664,7 @@
         <v>270</v>
       </c>
       <c r="C99" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3" t="s">
@@ -4695,7 +4695,7 @@
         <v>271</v>
       </c>
       <c r="C100" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3" t="s">
@@ -4726,7 +4726,7 @@
         <v>275</v>
       </c>
       <c r="C101" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3" t="s">
@@ -4755,7 +4755,7 @@
         <v>273</v>
       </c>
       <c r="C102" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3" t="s">
@@ -4784,7 +4784,7 @@
         <v>290</v>
       </c>
       <c r="C103" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3" t="s">
@@ -4815,7 +4815,7 @@
         <v>291</v>
       </c>
       <c r="C104" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3" t="s">
@@ -4846,7 +4846,7 @@
         <v>291</v>
       </c>
       <c r="C105" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3" t="s">
@@ -4877,7 +4877,7 @@
         <v>292</v>
       </c>
       <c r="C106" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3" t="s">
@@ -4908,7 +4908,7 @@
         <v>293</v>
       </c>
       <c r="C107" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3" t="s">
@@ -4939,7 +4939,7 @@
         <v>293</v>
       </c>
       <c r="C108" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3" t="s">
@@ -4970,7 +4970,7 @@
         <v>261</v>
       </c>
       <c r="C109" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3" t="s">
@@ -5001,7 +5001,7 @@
         <v>262</v>
       </c>
       <c r="C110" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3" t="s">
@@ -5032,7 +5032,7 @@
         <v>263</v>
       </c>
       <c r="C111" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3" t="s">
@@ -5063,7 +5063,7 @@
         <v>264</v>
       </c>
       <c r="C112" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3" t="s">
@@ -5094,7 +5094,7 @@
         <v>254</v>
       </c>
       <c r="C113" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3" t="s">
@@ -5125,7 +5125,7 @@
         <v>255</v>
       </c>
       <c r="C114" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3" t="s">
@@ -5156,7 +5156,7 @@
         <v>266</v>
       </c>
       <c r="C115" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3" t="s">
@@ -5185,7 +5185,7 @@
         <v>306</v>
       </c>
       <c r="C116" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3" t="s">
@@ -5212,7 +5212,7 @@
         <v>304</v>
       </c>
       <c r="C117" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3" t="s">
@@ -5301,7 +5301,7 @@
         <v>307</v>
       </c>
       <c r="C120" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3" t="s">
@@ -5328,7 +5328,7 @@
         <v>308</v>
       </c>
       <c r="C121" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3" t="s">
@@ -5355,7 +5355,7 @@
         <v>309</v>
       </c>
       <c r="C122" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3" t="s">
@@ -5382,7 +5382,7 @@
         <v>310</v>
       </c>
       <c r="C123" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3" t="s">

--- a/kingcar.xlsx
+++ b/kingcar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B8935C-59B0-4454-AC11-97F1E1967D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72311665-716A-4E38-B539-B806CEEE4CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="377">
   <si>
     <t>CODIGO</t>
   </si>
@@ -209,9 +209,6 @@
     <t>https://www.kinsmart.com/upload/products/original/361167896361.KT5317-website.jpg</t>
   </si>
   <si>
-    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_5672_2_ob4ii2.mp4</t>
-  </si>
-  <si>
     <t>https://www.kinsmart.com/upload/products/original/750351418737.KT5390-website.jpg</t>
   </si>
   <si>
@@ -239,9 +236,6 @@
     <t>https://www.kinsmart.com/upload/products/original/469534383796.KT5039-website.jpg</t>
   </si>
   <si>
-    <t>https://video.aliexpress-media.com/play/u/ae_sg_item/2210947737601/p/1/e/6/t/10301/5000119272165.mp4</t>
-  </si>
-  <si>
     <t>https://www.kinsmart.com/upload/products/original/624429093154.KT5442-website.jpg</t>
   </si>
   <si>
@@ -359,9 +353,6 @@
     <t>https://www.kinsmart.com/upload/products/original/180125764526.KT5411-website.jpg</t>
   </si>
   <si>
-    <t>https://v.etsystatic.com/video/upload/s--iG-6pHSi--/ac_none,c_crop,du_15,h_720,q_auto:good,w_1080,x_149,y_0/IMG_2716_ywafrg</t>
-  </si>
-  <si>
     <t>https://www.kinsmart.com/upload/products/original/341148072172.KT5057-website.jpg</t>
   </si>
   <si>
@@ -446,9 +437,6 @@
     <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_3268_xp2q0g.mp4</t>
   </si>
   <si>
-    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_2611y_dmxgsg.mp4</t>
-  </si>
-  <si>
     <t>https://www.kinsmart.com/upload/products/original/300698661497.KT5313-website.jpg</t>
   </si>
   <si>
@@ -485,9 +473,6 @@
     <t>https://www.kinsmart.com/upload/products/original/217309791160.KT5330F-website.jpg</t>
   </si>
   <si>
-    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_3161_pbgb6c.mp4</t>
-  </si>
-  <si>
     <t>https://www.kinsmart.com/upload/products/original/959919960072.KT5402-website.jpg</t>
   </si>
   <si>
@@ -506,9 +491,6 @@
     <t>KT5402</t>
   </si>
   <si>
-    <t>1949 Ford Woody Wagon VERDE</t>
-  </si>
-  <si>
     <t>KT5330F</t>
   </si>
   <si>
@@ -539,18 +521,12 @@
     <t>1956 Ford F-100 Pickup BLANCO</t>
   </si>
   <si>
-    <t>1956 Ford F-100 Pickup NEGRO</t>
-  </si>
-  <si>
     <t>1956 Ford F-100 Pickup ROJO</t>
   </si>
   <si>
     <t>KT5313</t>
   </si>
   <si>
-    <t>1957 Chevrolet Bel Air AMARILLO</t>
-  </si>
-  <si>
     <t>KT5316</t>
   </si>
   <si>
@@ -635,15 +611,9 @@
     <t>KT5057</t>
   </si>
   <si>
-    <t>1967 Volkswagen Classical Beetle AZUL</t>
-  </si>
-  <si>
     <t>KT5411</t>
   </si>
   <si>
-    <t>1995 McLaren F1 GTR</t>
-  </si>
-  <si>
     <t>KT5337</t>
   </si>
   <si>
@@ -674,15 +644,9 @@
     <t>KT5361F</t>
   </si>
   <si>
-    <t>2012 Lotus Exige S w/ printing</t>
-  </si>
-  <si>
     <t>KT5366</t>
   </si>
   <si>
-    <t>2013 Alfa Romeo 4C</t>
-  </si>
-  <si>
     <t>KT5391F</t>
   </si>
   <si>
@@ -701,9 +665,6 @@
     <t>KT5438B</t>
   </si>
   <si>
-    <t>2022 Ford Bronco (Hard Top)</t>
-  </si>
-  <si>
     <t>KT5438P</t>
   </si>
   <si>
@@ -770,18 +731,9 @@
     <t>KT5442</t>
   </si>
   <si>
-    <t>Bugatti Divo AZUL</t>
-  </si>
-  <si>
     <t>KT5039</t>
   </si>
   <si>
-    <t>Dodge Viper GTSR</t>
-  </si>
-  <si>
-    <t>KT6008</t>
-  </si>
-  <si>
     <t>F150 Raptor NEGRO</t>
   </si>
   <si>
@@ -806,9 +758,6 @@
     <t>KT5390</t>
   </si>
   <si>
-    <t>Lamborghini Miura SV AMARILLO</t>
-  </si>
-  <si>
     <t>KT5317</t>
   </si>
   <si>
@@ -860,9 +809,6 @@
     <t>KT5393</t>
   </si>
   <si>
-    <t>McLaren P1</t>
-  </si>
-  <si>
     <t>KT5349</t>
   </si>
   <si>
@@ -896,9 +842,6 @@
     <t>KT5059FB</t>
   </si>
   <si>
-    <t>Mini Cooper S w/ flag printing</t>
-  </si>
-  <si>
     <t>Moto 1976 VESPA 200 ROJO</t>
   </si>
   <si>
@@ -965,9 +908,6 @@
     <t>Volkswagen Classical Beetle ROJO</t>
   </si>
   <si>
-    <t>Volkswagen Classical Beetle ROSA</t>
-  </si>
-  <si>
     <t>1/34 Metal fundido a presión de 5'', puertas que se abren, acción de retroceso</t>
   </si>
   <si>
@@ -1116,16 +1056,125 @@
   </si>
   <si>
     <t>OEM</t>
+  </si>
+  <si>
+    <t>1955 Chevy Steopside Pick-up w/ printing BLANCO</t>
+  </si>
+  <si>
+    <t>1955 Chevy Steopside Pick-up w/ printing NARANJA</t>
+  </si>
+  <si>
+    <t>Mini Cooper S w/ flag printing ROJO</t>
+  </si>
+  <si>
+    <t>Mini Cooper S w/ flag printing AMARILLO</t>
+  </si>
+  <si>
+    <t>1966 Ford GT40 MKII (Heritage Edition) NEGRO</t>
+  </si>
+  <si>
+    <t>https://www.kinsmart.com/upload/products/original/164245524939.KT5355-website.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamborghini Aventador LP 700-4 NARANJA </t>
+  </si>
+  <si>
+    <t>Lamborghini Aventador LP 700-4 AMARILLO</t>
+  </si>
+  <si>
+    <t>Lamborghini Aventador LP 700-4 GRIS</t>
+  </si>
+  <si>
+    <t>KT5355</t>
+  </si>
+  <si>
+    <t>Lamborghini Miura SV NARANJA</t>
+  </si>
+  <si>
+    <t>Lamborghini Miura SV ROJO</t>
+  </si>
+  <si>
+    <t>Bugatti Divo ROJO</t>
+  </si>
+  <si>
+    <t>2012 Lotus Exige S w/ printing AMARILLO</t>
+  </si>
+  <si>
+    <t>1995 McLaren F1 GTR BLANCO</t>
+  </si>
+  <si>
+    <t>McLaren P1 AMARILLO</t>
+  </si>
+  <si>
+    <t>McLaren P1 BLANCO</t>
+  </si>
+  <si>
+    <t>2013 Alfa Romeo 4C GRIS</t>
+  </si>
+  <si>
+    <t>1949 Ford Woody Wagon NEGRO</t>
+  </si>
+  <si>
+    <t>1957 Chevrolet Bel Air ROJO</t>
+  </si>
+  <si>
+    <t>Lamborghini Countach LPI 800-4 AZUL</t>
+  </si>
+  <si>
+    <t>Volkswagen Classical Beetle ROSADO</t>
+  </si>
+  <si>
+    <t>Dodge Viper GTSR ROJO</t>
+  </si>
+  <si>
+    <t>1967 Volkswagen Classical Beetle ROJO</t>
+  </si>
+  <si>
+    <t>1967 Volkswagen Classical Beetle NEGRO</t>
+  </si>
+  <si>
+    <t>1932 Ford 3-Window Coupe ROJO</t>
+  </si>
+  <si>
+    <t>1932 Ford 3-Window Coupe GUINDO</t>
+  </si>
+  <si>
+    <t>Fiat 500e NEGRO</t>
+  </si>
+  <si>
+    <t>2018 Jeep Wrangler (Hard Top) AMARILLO</t>
+  </si>
+  <si>
+    <t>2018 Jeep Wrangler (Hard Top) ROJO</t>
+  </si>
+  <si>
+    <t>2022 Ford Bronco (Hard Top) ROJO</t>
+  </si>
+  <si>
+    <t>2022 Ford Bronco (Hard Top) NEGRO</t>
+  </si>
+  <si>
+    <t>2022 Ford Bronco (Hard Top) AMARILLO</t>
+  </si>
+  <si>
+    <t>2022 Ford Bronco (Hard Top) AZUL</t>
+  </si>
+  <si>
+    <t>Jeep Wrangler Rubicon 1941 NEGRO</t>
+  </si>
+  <si>
+    <t>Jeep Wrangler Rubicon 1941 CELESTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-&quot;S/&quot;\ * #,##0_-;\-&quot;S/&quot;\ * #,##0_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1169,6 +1218,18 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1209,7 +1270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1245,25 +1306,168 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC0066"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-&quot;S/&quot;\ * #,##0_-;\-&quot;S/&quot;\ * #,##0_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="000"/>
     </dxf>
     <dxf>
       <font>
         <b val="0"/>
       </font>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1313,6 +1517,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC0066"/>
+      <color rgb="FFFF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1325,23 +1535,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J123" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
-  <autoFilter ref="A1:J123" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J123">
-    <sortCondition ref="E1:E123"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J146" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21">
+  <autoFilter ref="A1:J146" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J146">
+    <sortCondition ref="E1:E146"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK"/>
-    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $"/>
-    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA"/>
-    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="14">
       <calculatedColumnFormula>+Tabla1[[#This Row],[CODIGO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN"/>
+    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="19"/>
     <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1635,10 +1845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J123"/>
+  <dimension ref="A1:J183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C123"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,3719 +1899,4381 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F2" s="3" t="str">
+        <v>165</v>
+      </c>
+      <c r="C2" s="16">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F2" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5316</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>311</v>
+      <c r="G2" s="14" t="s">
+        <v>291</v>
       </c>
       <c r="H2" s="4">
         <v>0</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F3" s="3" t="str">
+        <v>166</v>
+      </c>
+      <c r="C3" s="16">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F3" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5316</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>311</v>
+      <c r="G3" s="14" t="s">
+        <v>291</v>
       </c>
       <c r="H3" s="4">
         <v>0</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>133</v>
+      <c r="I3" s="13" t="s">
+        <v>130</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F4" s="3" t="str">
+        <v>167</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F4" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5316</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>311</v>
+      <c r="G4" s="14" t="s">
+        <v>291</v>
       </c>
       <c r="H4" s="4">
         <v>0</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>133</v>
+      <c r="I4" s="13" t="s">
+        <v>130</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F5" s="3" t="str">
+        <v>168</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F5" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5316</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>311</v>
+      <c r="G5" s="14" t="s">
+        <v>291</v>
       </c>
       <c r="H5" s="4">
         <v>0</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>133</v>
+      <c r="I5" s="13" t="s">
+        <v>130</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F6" s="3" t="str">
+        <v>355</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F6" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5411</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>311</v>
+      <c r="G6" s="14" t="s">
+        <v>291</v>
       </c>
       <c r="H6" s="4">
         <v>0</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>107</v>
+      <c r="I6" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F7" s="3" t="str">
+        <v>207</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F7" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5412B</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>311</v>
+      <c r="G7" s="14" t="s">
+        <v>291</v>
       </c>
       <c r="H7" s="4">
         <v>0</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>92</v>
+      <c r="I7" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F8" s="3" t="str">
+        <v>224</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F8" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5419</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>311</v>
+      <c r="G8" s="14" t="s">
+        <v>291</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>73</v>
+      <c r="I8" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F9" s="3" t="str">
+        <v>224</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F9" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5419</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>311</v>
+      <c r="G9" s="14" t="s">
+        <v>291</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>76</v>
+      <c r="I9" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F10" s="3" t="str">
+        <v>225</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F10" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5419</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>311</v>
+      <c r="G10" s="14" t="s">
+        <v>291</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>76</v>
+      <c r="I10" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F11" s="3" t="str">
+        <v>226</v>
+      </c>
+      <c r="C11" s="16">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F11" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5419</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>311</v>
+      <c r="G11" s="14" t="s">
+        <v>291</v>
       </c>
       <c r="H11" s="4">
         <v>0</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>73</v>
+      <c r="I11" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F12" s="3" t="str">
+        <v>227</v>
+      </c>
+      <c r="C12" s="16">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F12" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5419</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>311</v>
+      <c r="G12" s="14" t="s">
+        <v>291</v>
       </c>
       <c r="H12" s="4">
         <v>0</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>73</v>
+      <c r="I12" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F13" s="3" t="str">
+        <v>371</v>
+      </c>
+      <c r="C13" s="16">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F13" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5438B</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>311</v>
+      <c r="G13" s="14" t="s">
+        <v>291</v>
       </c>
       <c r="H13" s="4">
         <v>0</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>91</v>
+      <c r="I13" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F14" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5438P</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>311</v>
+        <v>372</v>
+      </c>
+      <c r="C14" s="16">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F14" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5438B</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>291</v>
       </c>
       <c r="H14" s="4">
         <v>0</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="13" t="s">
         <v>89</v>
       </c>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F15" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5445B</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>311</v>
+        <v>373</v>
+      </c>
+      <c r="C15" s="16">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F15" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5438B</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>291</v>
       </c>
       <c r="H15" s="4">
         <v>0</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>88</v>
+      <c r="I15" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F16" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5319</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>314</v>
+        <v>374</v>
+      </c>
+      <c r="C16" s="16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F16" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5438B</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>291</v>
       </c>
       <c r="H16" s="4">
         <v>0</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>147</v>
-      </c>
+      <c r="I16" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F17" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5319</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>314</v>
+        <v>211</v>
+      </c>
+      <c r="C17" s="16">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F17" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5438P</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>291</v>
       </c>
       <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>145</v>
+        <v>46</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F18" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5319</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>314</v>
+        <v>213</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F18" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5445B</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>291</v>
       </c>
       <c r="H18" s="4">
         <v>0</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>146</v>
-      </c>
+      <c r="I18" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F19" s="3" t="str">
+        <v>155</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F19" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5319</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>314</v>
+      <c r="G19" s="14" t="s">
+        <v>294</v>
       </c>
       <c r="H19" s="4">
         <v>0</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>145</v>
+      <c r="I19" s="13" t="s">
+        <v>141</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F20" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5352</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>314</v>
+        <v>156</v>
+      </c>
+      <c r="C20" s="16">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F20" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5319</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>294</v>
       </c>
       <c r="H20" s="4">
         <v>0</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>99</v>
+      <c r="I20" s="13" t="s">
+        <v>141</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F21" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5352</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>314</v>
+        <v>157</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F21" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5319</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>294</v>
       </c>
       <c r="H21" s="4">
         <v>0</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>99</v>
+      <c r="I21" s="13" t="s">
+        <v>141</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F22" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5352</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>314</v>
+        <v>158</v>
+      </c>
+      <c r="C22" s="16">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F22" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5319</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>294</v>
       </c>
       <c r="H22" s="4">
         <v>0</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>99</v>
+      <c r="I22" s="13" t="s">
+        <v>141</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F23" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5358</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>314</v>
+        <v>199</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F23" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5352</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>294</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>123</v>
+      <c r="I23" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F24" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5358</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>314</v>
+        <v>200</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F24" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5352</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>294</v>
       </c>
       <c r="H24" s="4">
         <v>0</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>123</v>
+      <c r="I24" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F25" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5358</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>314</v>
+        <v>201</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F25" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5352</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>294</v>
       </c>
       <c r="H25" s="4">
         <v>0</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>123</v>
+      <c r="I25" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F26" s="3" t="str">
+        <v>175</v>
+      </c>
+      <c r="C26" s="16">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F26" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5358</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>314</v>
+      <c r="G26" s="14" t="s">
+        <v>294</v>
       </c>
       <c r="H26" s="4">
         <v>0</v>
       </c>
-      <c r="I26" s="5" t="s">
-        <v>123</v>
+      <c r="I26" s="13" t="s">
+        <v>120</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F27" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5341</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>316</v>
+        <v>176</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F27" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5358</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>294</v>
       </c>
       <c r="H27" s="4">
         <v>0</v>
       </c>
-      <c r="I27" s="5" t="s">
-        <v>116</v>
+      <c r="I27" s="13" t="s">
+        <v>120</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F28" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5341</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>316</v>
+        <v>177</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F28" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5358</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>294</v>
       </c>
       <c r="H28" s="4">
         <v>0</v>
       </c>
-      <c r="I28" s="5" t="s">
-        <v>116</v>
+      <c r="I28" s="13" t="s">
+        <v>120</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F29" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5341</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>316</v>
+        <v>178</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F29" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5358</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>294</v>
       </c>
       <c r="H29" s="4">
         <v>0</v>
       </c>
-      <c r="I29" s="5" t="s">
-        <v>116</v>
+      <c r="I29" s="13" t="s">
+        <v>120</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F30" s="3" t="str">
+        <v>182</v>
+      </c>
+      <c r="C30" s="16">
+        <v>2</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F30" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5341</v>
       </c>
-      <c r="G30" s="8" t="s">
-        <v>316</v>
+      <c r="G30" s="14" t="s">
+        <v>296</v>
       </c>
       <c r="H30" s="4">
         <v>0</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="J30" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F31" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5385</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>315</v>
+        <v>183</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F31" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5341</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>296</v>
       </c>
       <c r="H31" s="4">
         <v>0</v>
       </c>
-      <c r="I31" s="5" t="s">
-        <v>140</v>
+      <c r="I31" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F32" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5385</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>315</v>
+        <v>184</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F32" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5341</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>296</v>
       </c>
       <c r="H32" s="4">
         <v>0</v>
       </c>
-      <c r="I32" s="5" t="s">
-        <v>140</v>
+      <c r="I32" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="C33" s="3">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F33" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5385</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>315</v>
+        <v>185</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F33" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5341</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>296</v>
       </c>
       <c r="H33" s="4">
         <v>0</v>
       </c>
-      <c r="I33" s="5" t="s">
-        <v>140</v>
+      <c r="I33" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="C34" s="3">
-        <v>1</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F34" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5391F</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>315</v>
+        <v>160</v>
+      </c>
+      <c r="C34" s="16">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F34" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5385</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>295</v>
       </c>
       <c r="H34" s="4">
         <v>0</v>
       </c>
-      <c r="I34" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="J34" s="3"/>
+      <c r="I34" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>231</v>
+        <v>159</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="C35" s="3">
-        <v>1</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F35" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5425</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>315</v>
+        <v>161</v>
+      </c>
+      <c r="C35" s="16">
+        <v>1</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F35" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5385</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>295</v>
       </c>
       <c r="H35" s="4">
         <v>0</v>
       </c>
-      <c r="I35" s="5" t="s">
-        <v>80</v>
+      <c r="I35" s="13" t="s">
+        <v>136</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>231</v>
+        <v>159</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="C36" s="3">
-        <v>1</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F36" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5425</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>315</v>
+        <v>162</v>
+      </c>
+      <c r="C36" s="16">
+        <v>1</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F36" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5385</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>295</v>
       </c>
       <c r="H36" s="4">
         <v>0</v>
       </c>
-      <c r="I36" s="5" t="s">
-        <v>80</v>
+      <c r="I36" s="13" t="s">
+        <v>136</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="C37" s="3">
-        <v>1</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F37" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5425</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>315</v>
+        <v>205</v>
+      </c>
+      <c r="C37" s="16">
+        <v>1</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F37" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5391F</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>295</v>
       </c>
       <c r="H37" s="4">
         <v>0</v>
       </c>
-      <c r="I37" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="I37" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="C38" s="3">
-        <v>1</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F38" s="3" t="str">
+        <v>219</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F38" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5425</v>
       </c>
-      <c r="G38" s="8" t="s">
-        <v>315</v>
+      <c r="G38" s="14" t="s">
+        <v>295</v>
       </c>
       <c r="H38" s="4">
         <v>0</v>
       </c>
-      <c r="I38" s="5" t="s">
-        <v>80</v>
+      <c r="I38" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="C39" s="3">
-        <v>1</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F39" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5455F</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>315</v>
+        <v>220</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F39" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5425</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>295</v>
       </c>
       <c r="H39" s="4">
         <v>0</v>
       </c>
-      <c r="I39" s="5" t="s">
-        <v>85</v>
+      <c r="I39" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>170</v>
+        <v>218</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="C40" s="3">
-        <v>1</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F40" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5313</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>312</v>
+        <v>221</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F40" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5425</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>295</v>
       </c>
       <c r="H40" s="4">
         <v>0</v>
       </c>
-      <c r="I40" s="5" t="s">
-        <v>138</v>
+      <c r="I40" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F41" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5337</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>312</v>
+        <v>222</v>
+      </c>
+      <c r="C41" s="16"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F41" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5425</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>295</v>
       </c>
       <c r="H41" s="4">
         <v>0</v>
       </c>
-      <c r="I41" s="5" t="s">
-        <v>103</v>
+      <c r="I41" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="C42" s="3">
-        <v>1</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F42" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5337</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>312</v>
+        <v>217</v>
+      </c>
+      <c r="C42" s="16">
+        <v>1</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F42" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5455F</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>295</v>
       </c>
       <c r="H42" s="4">
         <v>0</v>
       </c>
-      <c r="I42" s="5" t="s">
-        <v>103</v>
+      <c r="I42" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C43" s="3">
-        <v>1</v>
-      </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F43" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5337</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>312</v>
+        <v>360</v>
+      </c>
+      <c r="C43" s="16">
+        <v>1</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F43" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5313</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>292</v>
       </c>
       <c r="H43" s="4">
         <v>0</v>
       </c>
-      <c r="I43" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>104</v>
-      </c>
+      <c r="I43" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C44" s="3">
-        <v>1</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F44" s="3" t="str">
+        <v>194</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F44" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5337</v>
       </c>
-      <c r="G44" s="8" t="s">
-        <v>312</v>
+      <c r="G44" s="14" t="s">
+        <v>292</v>
       </c>
       <c r="H44" s="4">
         <v>0</v>
       </c>
-      <c r="I44" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>102</v>
+      <c r="I44" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C45" s="3">
-        <v>1</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F45" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5402</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>312</v>
+        <v>195</v>
+      </c>
+      <c r="C45" s="16"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F45" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5337</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>292</v>
       </c>
       <c r="H45" s="4">
         <v>0</v>
       </c>
-      <c r="I45" s="5" t="s">
-        <v>151</v>
+      <c r="I45" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C46" s="3">
-        <v>1</v>
-      </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F46" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5418</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>317</v>
+        <v>196</v>
+      </c>
+      <c r="C46" s="16"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F46" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5337</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>292</v>
       </c>
       <c r="H46" s="4">
         <v>0</v>
       </c>
-      <c r="I46" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>114</v>
+      <c r="I46" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C47" s="3">
-        <v>1</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F47" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5418</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>317</v>
+        <v>197</v>
+      </c>
+      <c r="C47" s="16">
+        <v>1</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F47" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5337</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>292</v>
       </c>
       <c r="H47" s="4">
         <v>0</v>
       </c>
-      <c r="I47" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>113</v>
+      <c r="I47" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C48" s="3">
-        <v>1</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F48" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5418</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>317</v>
+        <v>359</v>
+      </c>
+      <c r="C48" s="16">
+        <v>1</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F48" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5402</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>292</v>
       </c>
       <c r="H48" s="4">
         <v>0</v>
       </c>
-      <c r="I48" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="I48" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J48" s="3"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="C49" s="3">
-        <v>1</v>
-      </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F49" s="3" t="str">
+        <v>187</v>
+      </c>
+      <c r="C49" s="16"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F49" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5418</v>
       </c>
-      <c r="G49" s="8" t="s">
-        <v>317</v>
+      <c r="G49" s="14" t="s">
+        <v>297</v>
       </c>
       <c r="H49" s="4">
         <v>0</v>
       </c>
-      <c r="I49" s="5" t="s">
+      <c r="I49" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="J49" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>227</v>
+        <v>186</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="C50" s="3">
-        <v>1</v>
-      </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F50" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5436P</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>319</v>
+        <v>188</v>
+      </c>
+      <c r="C50" s="16">
+        <v>1</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F50" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5418</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>297</v>
       </c>
       <c r="H50" s="4">
         <v>0</v>
       </c>
-      <c r="I50" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>86</v>
+      <c r="I50" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>299</v>
+        <v>186</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="C51" s="3">
-        <v>1</v>
-      </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F51" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5343</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>314</v>
+        <v>189</v>
+      </c>
+      <c r="C51" s="16"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F51" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5418</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>297</v>
       </c>
       <c r="H51" s="4">
         <v>0</v>
       </c>
-      <c r="I51" s="5" t="s">
-        <v>323</v>
+      <c r="I51" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>299</v>
+        <v>186</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="C52" s="3">
-        <v>1</v>
-      </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F52" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5343</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>314</v>
+        <v>190</v>
+      </c>
+      <c r="C52" s="16"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F52" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5418</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>297</v>
       </c>
       <c r="H52" s="4">
         <v>0</v>
       </c>
-      <c r="I52" s="5" t="s">
-        <v>18</v>
+      <c r="I52" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="C53" s="3">
-        <v>1</v>
-      </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F53" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5412B</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>311</v>
+        <v>215</v>
+      </c>
+      <c r="C53" s="16"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F53" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5436P</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>299</v>
       </c>
       <c r="H53" s="4">
         <v>0</v>
       </c>
-      <c r="I53" s="5" t="s">
-        <v>92</v>
+      <c r="I53" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>333</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>165</v>
+        <v>280</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="C54" s="3">
-        <v>1</v>
-      </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F54" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5385</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>315</v>
+        <v>281</v>
+      </c>
+      <c r="C54" s="16">
+        <v>2</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F54" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5343</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>294</v>
       </c>
       <c r="H54" s="4">
         <v>0</v>
       </c>
-      <c r="I54" s="5" t="s">
-        <v>140</v>
+      <c r="I54" s="13" t="s">
+        <v>303</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="C55" s="3">
-        <v>1</v>
-      </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F55" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5440</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>320</v>
+        <v>282</v>
+      </c>
+      <c r="C55" s="16">
+        <v>2</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F55" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5343</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>294</v>
       </c>
       <c r="H55" s="4">
         <v>0</v>
       </c>
-      <c r="I55" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J55" s="3"/>
+      <c r="I55" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="C56" s="3">
-        <v>1</v>
-      </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F56" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5039</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>314</v>
+        <v>283</v>
+      </c>
+      <c r="C56" s="16">
+        <v>1</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F56" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5343</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>294</v>
       </c>
       <c r="H56" s="4">
         <v>0</v>
       </c>
-      <c r="I56" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J56" s="5"/>
+      <c r="I56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J56" s="3"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="C57" s="3">
-        <v>1</v>
-      </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F57" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5423</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>315</v>
+        <v>208</v>
+      </c>
+      <c r="C57" s="16">
+        <v>2</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F57" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5412B</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>291</v>
       </c>
       <c r="H57" s="4">
         <v>0</v>
       </c>
-      <c r="I57" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J57" s="7" t="s">
-        <v>70</v>
+      <c r="I57" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="C58" s="3">
-        <v>1</v>
-      </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F58" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5442</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>315</v>
+        <v>369</v>
+      </c>
+      <c r="C58" s="16">
+        <v>2</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F58" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5412B</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>291</v>
       </c>
       <c r="H58" s="4">
         <v>0</v>
       </c>
-      <c r="I58" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>68</v>
-      </c>
+      <c r="I58" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="J58" s="3"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="C59" s="3">
-        <v>1</v>
-      </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F59" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT6008</v>
-      </c>
-      <c r="G59" s="8"/>
+        <v>370</v>
+      </c>
+      <c r="C59" s="16">
+        <v>1</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F59" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5412B</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>291</v>
+      </c>
       <c r="H59" s="4">
         <v>0</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="I59" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="J59" s="3"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C60" s="3">
-        <v>1</v>
-      </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F60" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5057</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>313</v>
+        <v>207</v>
+      </c>
+      <c r="C60" s="16">
+        <v>1</v>
+      </c>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F60" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5412B</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>291</v>
       </c>
       <c r="H60" s="4">
         <v>0</v>
       </c>
-      <c r="I60" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>108</v>
-      </c>
+      <c r="I60" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="J60" s="3"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="C61" s="3">
-        <v>1</v>
-      </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F61" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5060</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>313</v>
+        <v>162</v>
+      </c>
+      <c r="C61" s="16">
+        <v>1</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F61" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5385</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>295</v>
       </c>
       <c r="H61" s="4">
         <v>0</v>
       </c>
-      <c r="I61" s="5" t="s">
-        <v>128</v>
+      <c r="I61" s="13" t="s">
+        <v>136</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="C62" s="3">
-        <v>1</v>
-      </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F62" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5060</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>313</v>
+        <v>235</v>
+      </c>
+      <c r="C62" s="16">
+        <v>1</v>
+      </c>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F62" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5440</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>300</v>
       </c>
       <c r="H62" s="4">
         <v>0</v>
       </c>
-      <c r="I62" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>130</v>
-      </c>
+      <c r="I62" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J62" s="3"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="C63" s="3">
-        <v>1</v>
-      </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F63" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5060</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>313</v>
+        <v>368</v>
+      </c>
+      <c r="C63" s="16">
+        <v>1</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F63" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5440</v>
+      </c>
+      <c r="G63" s="14" t="s">
+        <v>300</v>
       </c>
       <c r="H63" s="4">
         <v>0</v>
       </c>
-      <c r="I63" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>129</v>
-      </c>
+      <c r="I63" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J63" s="3"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>177</v>
+        <v>232</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="C64" s="3">
-        <v>1</v>
-      </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F64" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5060</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>313</v>
+        <v>363</v>
+      </c>
+      <c r="C64" s="16">
+        <v>1</v>
+      </c>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F64" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5039</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>294</v>
       </c>
       <c r="H64" s="4">
         <v>0</v>
       </c>
-      <c r="I64" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>127</v>
-      </c>
+      <c r="I64" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J64" s="5"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>158</v>
+        <v>229</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="C65" s="3">
-        <v>1</v>
-      </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F65" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5330F</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>313</v>
+        <v>230</v>
+      </c>
+      <c r="C65" s="16"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F65" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5423</v>
+      </c>
+      <c r="G65" s="14" t="s">
+        <v>295</v>
       </c>
       <c r="H65" s="4">
         <v>0</v>
       </c>
-      <c r="I65" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>148</v>
+      <c r="I65" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="C66" s="3">
-        <v>1</v>
-      </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F66" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5361F</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>313</v>
+        <v>353</v>
+      </c>
+      <c r="C66" s="16">
+        <v>1</v>
+      </c>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F66" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5442</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>295</v>
       </c>
       <c r="H66" s="4">
         <v>0</v>
       </c>
-      <c r="I66" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="J66" s="3"/>
+      <c r="I66" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J66" s="5"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
-        <v>214</v>
-      </c>
+      <c r="A67" s="8"/>
       <c r="B67" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="C67" s="3">
-        <v>1</v>
-      </c>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F67" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5366</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>313</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="C67" s="16">
+        <v>1</v>
+      </c>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="14"/>
       <c r="H67" s="4">
         <v>0</v>
       </c>
-      <c r="I67" s="5" t="s">
-        <v>96</v>
+      <c r="I67" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C68" s="3">
-        <v>1</v>
-      </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F68" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5427F</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>313</v>
+        <v>364</v>
+      </c>
+      <c r="C68" s="16">
+        <v>1</v>
+      </c>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F68" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5057</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>293</v>
       </c>
       <c r="H68" s="4">
         <v>0</v>
       </c>
-      <c r="I68" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>120</v>
-      </c>
+      <c r="I68" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="J68" s="3"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>349</v>
+        <v>191</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="C69" s="3">
-        <v>1</v>
-      </c>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F69" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>CO100</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>313</v>
+        <v>365</v>
+      </c>
+      <c r="C69" s="16">
+        <v>1</v>
+      </c>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F69" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5057</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>293</v>
       </c>
       <c r="H69" s="4">
         <v>0</v>
       </c>
-      <c r="I69" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>332</v>
-      </c>
+      <c r="I69" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="J69" s="3"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>349</v>
+        <v>169</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="C70" s="3">
-        <v>1</v>
-      </c>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F70" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>CO100</v>
-      </c>
-      <c r="G70" s="8" t="s">
-        <v>313</v>
+        <v>170</v>
+      </c>
+      <c r="C70" s="16"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F70" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5060</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>293</v>
       </c>
       <c r="H70" s="4">
         <v>0</v>
       </c>
-      <c r="I70" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="J70" s="7" t="s">
-        <v>332</v>
+      <c r="I70" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>349</v>
+        <v>169</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="C71" s="3">
-        <v>1</v>
-      </c>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F71" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>CO100</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>313</v>
+        <v>171</v>
+      </c>
+      <c r="C71" s="16"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F71" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5060</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>293</v>
       </c>
       <c r="H71" s="4">
         <v>0</v>
       </c>
-      <c r="I71" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="J71" s="7" t="s">
-        <v>332</v>
+      <c r="I71" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>349</v>
+        <v>169</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="C72" s="3">
-        <v>1</v>
-      </c>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F72" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>CO100</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>313</v>
+        <v>172</v>
+      </c>
+      <c r="C72" s="16">
+        <v>1</v>
+      </c>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F72" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5060</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>293</v>
       </c>
       <c r="H72" s="4">
         <v>0</v>
       </c>
-      <c r="I72" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="J72" s="7" t="s">
-        <v>332</v>
+      <c r="I72" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>349</v>
+        <v>169</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="C73" s="3">
-        <v>1</v>
-      </c>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F73" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>CO100</v>
-      </c>
-      <c r="G73" s="8" t="s">
-        <v>313</v>
+        <v>173</v>
+      </c>
+      <c r="C73" s="16"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F73" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5060</v>
+      </c>
+      <c r="G73" s="14" t="s">
+        <v>293</v>
       </c>
       <c r="H73" s="4">
         <v>0</v>
       </c>
-      <c r="I73" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="J73" s="7" t="s">
-        <v>332</v>
+      <c r="I73" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>349</v>
+        <v>152</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="C74" s="3">
-        <v>1</v>
-      </c>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F74" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>CO100</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>313</v>
+        <v>153</v>
+      </c>
+      <c r="C74" s="16">
+        <v>1</v>
+      </c>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F74" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5330F</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>293</v>
       </c>
       <c r="H74" s="4">
         <v>0</v>
       </c>
-      <c r="I74" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="J74" s="7" t="s">
-        <v>332</v>
+      <c r="I74" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>351</v>
+        <v>152</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="C75" s="3">
-        <v>1</v>
-      </c>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F75" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>CO102</v>
-      </c>
-      <c r="G75" s="8"/>
+        <v>341</v>
+      </c>
+      <c r="C75" s="16">
+        <v>2</v>
+      </c>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F75" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5330F</v>
+      </c>
+      <c r="G75" s="14" t="s">
+        <v>293</v>
+      </c>
       <c r="H75" s="4">
         <v>0</v>
       </c>
-      <c r="I75" s="3" t="s">
-        <v>346</v>
+      <c r="I75" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="J75" s="3"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>350</v>
+        <v>152</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="C76" s="3">
-        <v>1</v>
-      </c>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F76" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>CO101</v>
-      </c>
-      <c r="G76" s="8"/>
+        <v>342</v>
+      </c>
+      <c r="C76" s="16">
+        <v>1</v>
+      </c>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F76" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5330F</v>
+      </c>
+      <c r="G76" s="14" t="s">
+        <v>293</v>
+      </c>
       <c r="H76" s="4">
         <v>0</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>345</v>
+      <c r="I76" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="J76" s="3"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>352</v>
+        <v>202</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="C77" s="3">
-        <v>1</v>
-      </c>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F77" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>CO103</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>322</v>
+        <v>354</v>
+      </c>
+      <c r="C77" s="16">
+        <v>1</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F77" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5361F</v>
+      </c>
+      <c r="G77" s="14" t="s">
+        <v>293</v>
       </c>
       <c r="H77" s="4">
         <v>0</v>
       </c>
-      <c r="I77" s="5" t="s">
-        <v>31</v>
+      <c r="I77" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="J77" s="3"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>353</v>
+        <v>203</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="C78" s="3">
-        <v>1</v>
-      </c>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F78" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>CO104</v>
-      </c>
-      <c r="G78" s="8"/>
+        <v>358</v>
+      </c>
+      <c r="C78" s="16">
+        <v>1</v>
+      </c>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F78" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5366</v>
+      </c>
+      <c r="G78" s="14" t="s">
+        <v>293</v>
+      </c>
       <c r="H78" s="4">
         <v>0</v>
       </c>
-      <c r="I78" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="J78" s="3"/>
+      <c r="I78" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>356</v>
+        <v>179</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="C79" s="3">
-        <v>1</v>
-      </c>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F79" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>C1001</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>358</v>
+        <v>180</v>
+      </c>
+      <c r="C79" s="16">
+        <v>1</v>
+      </c>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F79" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5427F</v>
+      </c>
+      <c r="G79" s="14" t="s">
+        <v>293</v>
       </c>
       <c r="H79" s="4">
         <v>0</v>
       </c>
-      <c r="I79" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="J79" s="7" t="s">
-        <v>359</v>
+      <c r="I79" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>354</v>
+        <v>179</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="C80" s="3">
-        <v>1</v>
-      </c>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F80" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>CO105</v>
-      </c>
-      <c r="G80" s="8"/>
+        <v>345</v>
+      </c>
+      <c r="C80" s="16">
+        <v>1</v>
+      </c>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F80" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5427F</v>
+      </c>
+      <c r="G80" s="14" t="s">
+        <v>293</v>
+      </c>
       <c r="H80" s="4">
         <v>0</v>
       </c>
-      <c r="I80" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="J80" s="3"/>
+      <c r="I80" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="C81" s="3">
-        <v>1</v>
-      </c>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F81" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>CO106</v>
-      </c>
-      <c r="G81" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
+      </c>
+      <c r="C81" s="16"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F81" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>CO100</v>
+      </c>
+      <c r="G81" s="14" t="s">
+        <v>293</v>
       </c>
       <c r="H81" s="4">
         <v>0</v>
       </c>
-      <c r="I81" s="6" t="s">
-        <v>63</v>
+      <c r="I81" s="13" t="s">
+        <v>311</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>281</v>
+        <v>329</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="C82" s="3">
-        <v>1</v>
-      </c>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F82" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5059</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>320</v>
+        <v>324</v>
+      </c>
+      <c r="C82" s="16"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F82" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>CO100</v>
+      </c>
+      <c r="G82" s="14" t="s">
+        <v>293</v>
       </c>
       <c r="H82" s="4">
         <v>0</v>
       </c>
-      <c r="I82" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>37</v>
+      <c r="I82" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>281</v>
+        <v>329</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="C83" s="3">
-        <v>1</v>
-      </c>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F83" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5059</v>
-      </c>
-      <c r="G83" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
+      </c>
+      <c r="C83" s="16"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F83" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>CO100</v>
+      </c>
+      <c r="G83" s="14" t="s">
+        <v>293</v>
       </c>
       <c r="H83" s="4">
         <v>0</v>
       </c>
-      <c r="I83" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>36</v>
+      <c r="I83" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>281</v>
+        <v>329</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="C84" s="3">
-        <v>1</v>
-      </c>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F84" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5059</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>320</v>
+        <v>323</v>
+      </c>
+      <c r="C84" s="16"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F84" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>CO100</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>293</v>
       </c>
       <c r="H84" s="4">
         <v>0</v>
       </c>
-      <c r="I84" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>35</v>
+      <c r="I84" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>281</v>
+        <v>329</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="C85" s="3">
-        <v>1</v>
-      </c>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F85" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5059</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
+      </c>
+      <c r="C85" s="16"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F85" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>CO100</v>
+      </c>
+      <c r="G85" s="14" t="s">
+        <v>293</v>
       </c>
       <c r="H85" s="4">
         <v>0</v>
       </c>
-      <c r="I85" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>33</v>
+      <c r="I85" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>286</v>
+        <v>329</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="C86" s="3">
-        <v>1</v>
-      </c>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F86" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5059FB</v>
-      </c>
-      <c r="G86" s="8" t="s">
         <v>320</v>
       </c>
+      <c r="C86" s="16"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F86" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>CO100</v>
+      </c>
+      <c r="G86" s="14" t="s">
+        <v>293</v>
+      </c>
       <c r="H86" s="4">
         <v>0</v>
       </c>
-      <c r="I86" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J86" s="3"/>
+      <c r="I86" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>256</v>
+        <v>331</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="C87" s="3">
-        <v>1</v>
-      </c>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F87" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5390</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>311</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="C87" s="16"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F87" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>CO102</v>
+      </c>
+      <c r="G87" s="14"/>
       <c r="H87" s="4">
         <v>0</v>
       </c>
-      <c r="I87" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="I87" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="J87" s="3"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="C88" s="3">
-        <v>1</v>
-      </c>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F88" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5081</v>
-      </c>
-      <c r="G88" s="8" t="s">
-        <v>314</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="C88" s="16"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F88" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>CO101</v>
+      </c>
+      <c r="G88" s="14"/>
       <c r="H88" s="4">
         <v>0</v>
       </c>
-      <c r="I88" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="I88" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="J88" s="3"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="C89" s="3">
-        <v>1</v>
-      </c>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F89" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5081</v>
-      </c>
-      <c r="G89" s="8" t="s">
-        <v>314</v>
+        <v>269</v>
+      </c>
+      <c r="C89" s="16"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F89" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>CO103</v>
+      </c>
+      <c r="G89" s="14" t="s">
+        <v>302</v>
       </c>
       <c r="H89" s="4">
         <v>0</v>
       </c>
-      <c r="I89" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="I89" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J89" s="3"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>258</v>
+        <v>333</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="C90" s="3">
-        <v>1</v>
-      </c>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F90" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5317</v>
-      </c>
-      <c r="G90" s="8" t="s">
-        <v>314</v>
-      </c>
+      <c r="C90" s="16"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F90" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>CO104</v>
+      </c>
+      <c r="G90" s="14"/>
       <c r="H90" s="4">
         <v>0</v>
       </c>
-      <c r="I90" s="5" t="s">
-        <v>57</v>
+      <c r="I90" s="8" t="s">
+        <v>327</v>
       </c>
       <c r="J90" s="3"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="C91" s="3">
-        <v>1</v>
-      </c>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F91" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5328</v>
-      </c>
-      <c r="G91" s="8" t="s">
-        <v>314</v>
+        <v>228</v>
+      </c>
+      <c r="C91" s="16">
+        <v>1</v>
+      </c>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F91" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>C1001</v>
+      </c>
+      <c r="G91" s="14" t="s">
+        <v>338</v>
       </c>
       <c r="H91" s="4">
         <v>0</v>
       </c>
-      <c r="I91" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>21</v>
+      <c r="I91" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="C92" s="3">
-        <v>1</v>
-      </c>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F92" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5343</v>
-      </c>
-      <c r="G92" s="8" t="s">
-        <v>314</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="C92" s="16"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F92" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>CO105</v>
+      </c>
+      <c r="G92" s="14"/>
       <c r="H92" s="4">
         <v>0</v>
       </c>
-      <c r="I92" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J92" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="I92" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="J92" s="3"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>276</v>
+        <v>335</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="C93" s="3">
-        <v>1</v>
-      </c>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F93" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5349</v>
-      </c>
-      <c r="G93" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C93" s="16">
+        <v>1</v>
+      </c>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F93" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>CO106</v>
+      </c>
+      <c r="G93" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="H93" s="4">
+        <v>0</v>
+      </c>
+      <c r="I93" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J93" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="H93" s="4">
-        <v>0</v>
-      </c>
-      <c r="I93" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>276</v>
+        <v>335</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="C94" s="3">
-        <v>1</v>
-      </c>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F94" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5349</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>314</v>
+        <v>375</v>
+      </c>
+      <c r="C94" s="16">
+        <v>1</v>
+      </c>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F94" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>CO106</v>
+      </c>
+      <c r="G94" s="14" t="s">
+        <v>301</v>
       </c>
       <c r="H94" s="4">
         <v>0</v>
       </c>
-      <c r="I94" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="I94" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J94" s="7"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>276</v>
+        <v>335</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="C95" s="3">
-        <v>1</v>
-      </c>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F95" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5349</v>
-      </c>
-      <c r="G95" s="8" t="s">
-        <v>314</v>
+        <v>376</v>
+      </c>
+      <c r="C95" s="16">
+        <v>1</v>
+      </c>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F95" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>CO106</v>
+      </c>
+      <c r="G95" s="14" t="s">
+        <v>301</v>
       </c>
       <c r="H95" s="4">
         <v>0</v>
       </c>
-      <c r="I95" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J95" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="I95" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J95" s="7"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="C96" s="3">
-        <v>1</v>
-      </c>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F96" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5349</v>
-      </c>
-      <c r="G96" s="8" t="s">
-        <v>314</v>
+        <v>264</v>
+      </c>
+      <c r="C96" s="16">
+        <v>1</v>
+      </c>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F96" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5059</v>
+      </c>
+      <c r="G96" s="14" t="s">
+        <v>300</v>
       </c>
       <c r="H96" s="4">
         <v>0</v>
       </c>
-      <c r="I96" s="5" t="s">
-        <v>39</v>
+      <c r="I96" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="C97" s="3">
-        <v>1</v>
-      </c>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F97" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5392</v>
-      </c>
-      <c r="G97" s="8" t="s">
-        <v>314</v>
+        <v>265</v>
+      </c>
+      <c r="C97" s="16">
+        <v>1</v>
+      </c>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F97" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5059</v>
+      </c>
+      <c r="G97" s="14" t="s">
+        <v>300</v>
       </c>
       <c r="H97" s="4">
-        <v>0</v>
-      </c>
-      <c r="I97" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J97" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
+      </c>
+      <c r="I97" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="C98" s="3">
-        <v>1</v>
-      </c>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F98" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5392</v>
-      </c>
-      <c r="G98" s="8" t="s">
-        <v>314</v>
+        <v>266</v>
+      </c>
+      <c r="C98" s="16"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F98" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5059</v>
+      </c>
+      <c r="G98" s="14" t="s">
+        <v>300</v>
       </c>
       <c r="H98" s="4">
         <v>0</v>
       </c>
-      <c r="I98" s="5" t="s">
-        <v>46</v>
+      <c r="I98" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B99" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="B99" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="C99" s="3">
-        <v>1</v>
-      </c>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F99" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5392</v>
-      </c>
-      <c r="G99" s="8" t="s">
-        <v>314</v>
+      <c r="C99" s="16"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F99" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5059</v>
+      </c>
+      <c r="G99" s="14" t="s">
+        <v>300</v>
       </c>
       <c r="H99" s="4">
         <v>0</v>
       </c>
-      <c r="I99" s="5" t="s">
-        <v>46</v>
+      <c r="I99" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="C100" s="3">
-        <v>1</v>
-      </c>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F100" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5392</v>
-      </c>
-      <c r="G100" s="8" t="s">
-        <v>314</v>
+        <v>343</v>
+      </c>
+      <c r="C100" s="16">
+        <v>1</v>
+      </c>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F100" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5059FB</v>
+      </c>
+      <c r="G100" s="14" t="s">
+        <v>300</v>
       </c>
       <c r="H100" s="4">
         <v>0</v>
       </c>
-      <c r="I100" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="I100" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J100" s="3"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="C101" s="3">
-        <v>1</v>
-      </c>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F101" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5393</v>
-      </c>
-      <c r="G101" s="8" t="s">
-        <v>314</v>
+        <v>344</v>
+      </c>
+      <c r="C101" s="16">
+        <v>1</v>
+      </c>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F101" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5059FB</v>
+      </c>
+      <c r="G101" s="14" t="s">
+        <v>300</v>
       </c>
       <c r="H101" s="4">
         <v>0</v>
       </c>
-      <c r="I101" s="5" t="s">
-        <v>43</v>
+      <c r="I101" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="J101" s="3"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="C102" s="3">
-        <v>1</v>
-      </c>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F102" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5403</v>
-      </c>
-      <c r="G102" s="8" t="s">
-        <v>314</v>
+        <v>351</v>
+      </c>
+      <c r="C102" s="16">
+        <v>1</v>
+      </c>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F102" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5390</v>
+      </c>
+      <c r="G102" s="14" t="s">
+        <v>291</v>
       </c>
       <c r="H102" s="4">
         <v>0</v>
       </c>
-      <c r="I102" s="5" t="s">
-        <v>44</v>
+      <c r="I102" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="J102" s="3"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>289</v>
+        <v>240</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="C103" s="3">
-        <v>1</v>
-      </c>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F103" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5408</v>
-      </c>
-      <c r="G103" s="8" t="s">
-        <v>314</v>
+        <v>352</v>
+      </c>
+      <c r="C103" s="16">
+        <v>1</v>
+      </c>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F103" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5390</v>
+      </c>
+      <c r="G103" s="14" t="s">
+        <v>291</v>
       </c>
       <c r="H103" s="4">
         <v>0</v>
       </c>
-      <c r="I103" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J103" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="I103" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J103" s="3"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="C104" s="3">
-        <v>1</v>
-      </c>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F104" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5408</v>
-      </c>
-      <c r="G104" s="8" t="s">
-        <v>314</v>
+        <v>276</v>
+      </c>
+      <c r="C104" s="16"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F104" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5081</v>
+      </c>
+      <c r="G104" s="14" t="s">
+        <v>294</v>
       </c>
       <c r="H104" s="4">
         <v>0</v>
       </c>
-      <c r="I104" s="5" t="s">
-        <v>27</v>
+      <c r="I104" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="C105" s="3">
-        <v>1</v>
-      </c>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F105" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5408</v>
-      </c>
-      <c r="G105" s="8" t="s">
-        <v>314</v>
+        <v>277</v>
+      </c>
+      <c r="C105" s="16"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F105" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5081</v>
+      </c>
+      <c r="G105" s="14" t="s">
+        <v>294</v>
       </c>
       <c r="H105" s="4">
         <v>0</v>
       </c>
-      <c r="I105" s="5" t="s">
-        <v>27</v>
+      <c r="I105" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>289</v>
+        <v>241</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="C106" s="3">
-        <v>1</v>
-      </c>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F106" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5408</v>
-      </c>
-      <c r="G106" s="8" t="s">
-        <v>314</v>
+        <v>242</v>
+      </c>
+      <c r="C106" s="16"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F106" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5317</v>
+      </c>
+      <c r="G106" s="14" t="s">
+        <v>294</v>
       </c>
       <c r="H106" s="4">
         <v>0</v>
       </c>
-      <c r="I106" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="I106" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J106" s="3"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="C107" s="3">
-        <v>1</v>
-      </c>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F107" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5408</v>
-      </c>
-      <c r="G107" s="8" t="s">
-        <v>314</v>
+        <v>279</v>
+      </c>
+      <c r="C107" s="16">
+        <v>1</v>
+      </c>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F107" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5328</v>
+      </c>
+      <c r="G107" s="14" t="s">
+        <v>294</v>
       </c>
       <c r="H107" s="4">
         <v>0</v>
       </c>
-      <c r="I107" s="5" t="s">
-        <v>27</v>
+      <c r="I107" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="C108" s="3">
-        <v>1</v>
-      </c>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F108" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5408</v>
-      </c>
-      <c r="G108" s="8" t="s">
-        <v>314</v>
+        <v>283</v>
+      </c>
+      <c r="C108" s="16"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F108" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5343</v>
+      </c>
+      <c r="G108" s="14" t="s">
+        <v>294</v>
       </c>
       <c r="H108" s="4">
         <v>0</v>
       </c>
-      <c r="I108" s="5" t="s">
-        <v>27</v>
+      <c r="I108" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="C109" s="3">
-        <v>1</v>
-      </c>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F109" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5428</v>
-      </c>
-      <c r="G109" s="8" t="s">
-        <v>314</v>
+        <v>259</v>
+      </c>
+      <c r="C109" s="16">
+        <v>1</v>
+      </c>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F109" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5349</v>
+      </c>
+      <c r="G109" s="14" t="s">
+        <v>294</v>
       </c>
       <c r="H109" s="4">
         <v>0</v>
       </c>
-      <c r="I109" s="5" t="s">
-        <v>53</v>
+      <c r="I109" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B110" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="B110" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C110" s="3">
-        <v>1</v>
-      </c>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F110" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5428</v>
-      </c>
-      <c r="G110" s="8" t="s">
-        <v>314</v>
+      <c r="C110" s="16">
+        <v>1</v>
+      </c>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F110" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5349</v>
+      </c>
+      <c r="G110" s="14" t="s">
+        <v>294</v>
       </c>
       <c r="H110" s="4">
         <v>0</v>
       </c>
-      <c r="I110" s="5" t="s">
-        <v>53</v>
+      <c r="I110" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="C111" s="3">
-        <v>1</v>
-      </c>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F111" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5428</v>
-      </c>
-      <c r="G111" s="8" t="s">
-        <v>314</v>
+        <v>261</v>
+      </c>
+      <c r="C111" s="16">
+        <v>0</v>
+      </c>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F111" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5349</v>
+      </c>
+      <c r="G111" s="14" t="s">
+        <v>294</v>
       </c>
       <c r="H111" s="4">
         <v>0</v>
       </c>
-      <c r="I111" s="5" t="s">
-        <v>53</v>
+      <c r="I111" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="C112" s="3">
-        <v>1</v>
-      </c>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F112" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5428</v>
-      </c>
-      <c r="G112" s="8" t="s">
-        <v>314</v>
+        <v>262</v>
+      </c>
+      <c r="C112" s="16">
+        <v>1</v>
+      </c>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F112" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5349</v>
+      </c>
+      <c r="G112" s="14" t="s">
+        <v>294</v>
       </c>
       <c r="H112" s="4">
         <v>0</v>
       </c>
-      <c r="I112" s="5" t="s">
-        <v>53</v>
+      <c r="I112" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="C113" s="3">
-        <v>1</v>
-      </c>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F113" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5437</v>
-      </c>
-      <c r="G113" s="8" t="s">
-        <v>315</v>
+        <v>251</v>
+      </c>
+      <c r="C113" s="16"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F113" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5392</v>
+      </c>
+      <c r="G113" s="14" t="s">
+        <v>294</v>
       </c>
       <c r="H113" s="4">
         <v>0</v>
       </c>
-      <c r="I113" s="6" t="s">
-        <v>61</v>
+      <c r="I113" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="C114" s="3">
-        <v>1</v>
-      </c>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F114" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5437</v>
-      </c>
-      <c r="G114" s="8" t="s">
-        <v>315</v>
+        <v>252</v>
+      </c>
+      <c r="C114" s="16"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F114" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5392</v>
+      </c>
+      <c r="G114" s="14" t="s">
+        <v>294</v>
       </c>
       <c r="H114" s="4">
         <v>0</v>
       </c>
-      <c r="I114" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J114" s="7" t="s">
-        <v>60</v>
+      <c r="I114" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="C115" s="3">
-        <v>1</v>
-      </c>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F115" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT6005</v>
-      </c>
-      <c r="G115" s="8"/>
+        <v>253</v>
+      </c>
+      <c r="C115" s="16">
+        <v>2</v>
+      </c>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F115" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5392</v>
+      </c>
+      <c r="G115" s="14" t="s">
+        <v>294</v>
+      </c>
       <c r="H115" s="4">
         <v>0</v>
       </c>
-      <c r="I115" s="5" t="s">
-        <v>51</v>
+      <c r="I115" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
-        <v>305</v>
+        <v>250</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="C116" s="3">
-        <v>1</v>
-      </c>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F116" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT6006</v>
-      </c>
-      <c r="G116" s="8"/>
+        <v>254</v>
+      </c>
+      <c r="C116" s="16"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F116" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5392</v>
+      </c>
+      <c r="G116" s="14" t="s">
+        <v>294</v>
+      </c>
       <c r="H116" s="4">
         <v>0</v>
       </c>
-      <c r="I116" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J116" s="3"/>
+      <c r="I116" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
-        <v>303</v>
+        <v>257</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="C117" s="3">
-        <v>1</v>
-      </c>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F117" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT6007</v>
-      </c>
-      <c r="G117" s="8"/>
+        <v>356</v>
+      </c>
+      <c r="C117" s="16">
+        <v>1</v>
+      </c>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F117" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5393</v>
+      </c>
+      <c r="G117" s="14" t="s">
+        <v>294</v>
+      </c>
       <c r="H117" s="4">
         <v>0</v>
       </c>
-      <c r="I117" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J117" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="I117" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J117" s="3"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
-        <v>153</v>
+        <v>257</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="C118" s="3">
-        <v>1</v>
-      </c>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F118" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5332</v>
-      </c>
-      <c r="G118" s="8" t="s">
-        <v>311</v>
+        <v>357</v>
+      </c>
+      <c r="C118" s="16">
+        <v>1</v>
+      </c>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F118" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5393</v>
+      </c>
+      <c r="G118" s="14" t="s">
+        <v>294</v>
       </c>
       <c r="H118" s="4">
         <v>0</v>
       </c>
-      <c r="I118" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="J118" s="7" t="s">
-        <v>152</v>
-      </c>
+      <c r="I118" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J118" s="3"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
-        <v>153</v>
+        <v>255</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C119" s="3">
-        <v>1</v>
-      </c>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F119" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5332</v>
-      </c>
-      <c r="G119" s="8" t="s">
-        <v>311</v>
+        <v>256</v>
+      </c>
+      <c r="C119" s="16"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F119" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5403</v>
+      </c>
+      <c r="G119" s="14" t="s">
+        <v>294</v>
       </c>
       <c r="H119" s="4">
         <v>0</v>
       </c>
-      <c r="I119" s="3" t="s">
-        <v>325</v>
+      <c r="I119" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="J119" s="3"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="C120" s="3">
-        <v>1</v>
-      </c>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F120" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT6006</v>
-      </c>
-      <c r="G120" s="8"/>
+        <v>271</v>
+      </c>
+      <c r="C120" s="16"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F120" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5408</v>
+      </c>
+      <c r="G120" s="14" t="s">
+        <v>294</v>
+      </c>
       <c r="H120" s="4">
         <v>0</v>
       </c>
-      <c r="I120" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J120" s="3"/>
+      <c r="I120" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="C121" s="3">
-        <v>1</v>
-      </c>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F121" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT6006</v>
-      </c>
-      <c r="G121" s="8"/>
+        <v>272</v>
+      </c>
+      <c r="C121" s="16"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F121" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5408</v>
+      </c>
+      <c r="G121" s="14" t="s">
+        <v>294</v>
+      </c>
       <c r="H121" s="4">
         <v>0</v>
       </c>
-      <c r="I121" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J121" s="7"/>
+      <c r="I121" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="C122" s="3">
-        <v>1</v>
-      </c>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F122" s="3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT6006</v>
-      </c>
-      <c r="G122" s="8"/>
+        <v>272</v>
+      </c>
+      <c r="C122" s="16"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F122" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5408</v>
+      </c>
+      <c r="G122" s="14" t="s">
+        <v>294</v>
+      </c>
       <c r="H122" s="4">
         <v>0</v>
       </c>
-      <c r="I122" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J122" s="3"/>
+      <c r="I122" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="C123" s="16"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F123" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5408</v>
+      </c>
+      <c r="G123" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="H123" s="4">
+        <v>0</v>
+      </c>
+      <c r="I123" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="C124" s="16"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F124" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5408</v>
+      </c>
+      <c r="G124" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="H124" s="4">
+        <v>0</v>
+      </c>
+      <c r="I124" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="C125" s="16"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F125" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5408</v>
+      </c>
+      <c r="G125" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="H125" s="4">
+        <v>0</v>
+      </c>
+      <c r="I125" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C126" s="16"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F126" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5428</v>
+      </c>
+      <c r="G126" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="H126" s="4">
+        <v>0</v>
+      </c>
+      <c r="I126" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C127" s="16"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F127" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5428</v>
+      </c>
+      <c r="G127" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="H127" s="4">
+        <v>0</v>
+      </c>
+      <c r="I127" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C128" s="16"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F128" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5428</v>
+      </c>
+      <c r="G128" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="H128" s="4">
+        <v>0</v>
+      </c>
+      <c r="I128" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C129" s="16"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F129" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5428</v>
+      </c>
+      <c r="G129" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="H129" s="4">
+        <v>0</v>
+      </c>
+      <c r="I129" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C130" s="16"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F130" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5437</v>
+      </c>
+      <c r="G130" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="H130" s="4">
+        <v>0</v>
+      </c>
+      <c r="I130" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J130" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C131" s="16"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F131" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5437</v>
+      </c>
+      <c r="G131" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="H131" s="4">
+        <v>0</v>
+      </c>
+      <c r="I131" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J131" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="C132" s="16">
+        <v>1</v>
+      </c>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F132" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5437</v>
+      </c>
+      <c r="G132" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="H132" s="4">
+        <v>0</v>
+      </c>
+      <c r="I132" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J132" s="7"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="C133" s="16">
+        <v>1</v>
+      </c>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F133" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5355</v>
+      </c>
+      <c r="G133" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="H133" s="4">
+        <v>0</v>
+      </c>
+      <c r="I133" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="J133" s="7"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="C134" s="16">
+        <v>1</v>
+      </c>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F134" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5355</v>
+      </c>
+      <c r="G134" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="H134" s="4">
+        <v>0</v>
+      </c>
+      <c r="I134" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="J134" s="7"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="C135" s="16">
+        <v>1</v>
+      </c>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F135" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5355</v>
+      </c>
+      <c r="G135" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="H135" s="4">
+        <v>0</v>
+      </c>
+      <c r="I135" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="J135" s="7"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C136" s="16"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F136" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT6005</v>
+      </c>
+      <c r="G136" s="14"/>
+      <c r="H136" s="4">
+        <v>0</v>
+      </c>
+      <c r="I136" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="C137" s="16"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F137" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT6006</v>
+      </c>
+      <c r="G137" s="14"/>
+      <c r="H137" s="4">
+        <v>0</v>
+      </c>
+      <c r="I137" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J137" s="3"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="C138" s="16"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F138" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT6007</v>
+      </c>
+      <c r="G138" s="14"/>
+      <c r="H138" s="4">
+        <v>0</v>
+      </c>
+      <c r="I138" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="C139" s="16">
+        <v>1</v>
+      </c>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F139" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5332</v>
+      </c>
+      <c r="G139" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="H139" s="4">
+        <v>0</v>
+      </c>
+      <c r="I139" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="J139" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C140" s="16">
+        <v>1</v>
+      </c>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F140" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5332</v>
+      </c>
+      <c r="G140" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="H140" s="4">
+        <v>0</v>
+      </c>
+      <c r="I140" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="J140" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="C141" s="16">
+        <v>1</v>
+      </c>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F141" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5332</v>
+      </c>
+      <c r="G141" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="H141" s="4">
+        <v>0</v>
+      </c>
+      <c r="I141" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="J141" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C142" s="16">
+        <v>2</v>
+      </c>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F142" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5332</v>
+      </c>
+      <c r="G142" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="H142" s="4">
+        <v>0</v>
+      </c>
+      <c r="I142" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="B123" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="C123" s="3">
-        <v>1</v>
-      </c>
-      <c r="D123" s="3"/>
-      <c r="E123" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F123" s="3" t="str">
+      <c r="J142" s="3"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C143" s="16"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="F143" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT6006</v>
       </c>
-      <c r="G123" s="8"/>
-      <c r="H123" s="4">
-        <v>0</v>
-      </c>
-      <c r="I123" s="3" t="s">
+      <c r="G143" s="14"/>
+      <c r="H143" s="4">
+        <v>0</v>
+      </c>
+      <c r="I143" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J143" s="3"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C144" s="16"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="F144" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT6006</v>
+      </c>
+      <c r="G144" s="14"/>
+      <c r="H144" s="4">
+        <v>0</v>
+      </c>
+      <c r="I144" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J144" s="7"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="C145" s="16"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="F145" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT6006</v>
+      </c>
+      <c r="G145" s="14"/>
+      <c r="H145" s="4">
+        <v>0</v>
+      </c>
+      <c r="I145" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J145" s="3"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C146" s="16"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="F146" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT6006</v>
+      </c>
+      <c r="G146" s="14"/>
+      <c r="H146" s="4">
+        <v>0</v>
+      </c>
+      <c r="I146" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J123" s="3"/>
+      <c r="J146" s="3"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C147" s="15"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C148" s="15"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C149" s="15"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C150" s="15"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C151" s="15"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C152" s="15"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C153" s="15"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C154" s="15"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C155" s="15"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C156" s="15"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C157" s="15"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C158" s="15"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C159" s="15"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C160" s="15"/>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C161" s="15"/>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162" s="15"/>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C163" s="15"/>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C164" s="15"/>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C165" s="15"/>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C166" s="15"/>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C167" s="15"/>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C168" s="15"/>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C169" s="15"/>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C170" s="15"/>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C171" s="15"/>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C172" s="15"/>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C173" s="15"/>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C174" s="15"/>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C175" s="15"/>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C176" s="15"/>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177" s="15"/>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178" s="15"/>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C179" s="15"/>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C180" s="15"/>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C181" s="15"/>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C182" s="15"/>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C183" s="15"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:C146">
+    <cfRule type="expression" dxfId="11" priority="1">
+      <formula>RIGHT(B2,6)="ROSADO"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="2">
+      <formula>RIGHT(B2,6)="GUINDO"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="3">
+      <formula>RIGHT(B2,5)="VERDE"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="4">
+      <formula>RIGHT(B2,7)="NARANJA"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>RIGHT(B2,5)="PLATA"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>RIGHT(B2,4)="GRIS"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>RIGHT(B2,7)="CELESTE"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="8">
+      <formula>RIGHT(B2,6)="BLANCO"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="9">
+      <formula>RIGHT(B2,4)="ROJO"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="10">
+      <formula>RIGHT(B2,5)="NEGRO"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="11">
+      <formula>RIGHT(B2,4)="AZUL"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="12">
+      <formula>RIGHT(B2,8)="AMARILLO"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/kingcar.xlsx
+++ b/kingcar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72311665-716A-4E38-B539-B806CEEE4CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B919F4A-7949-4635-9BA4-18F9DD481ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="356">
   <si>
     <t>CODIGO</t>
   </si>
@@ -65,21 +65,6 @@
     <t>MODAL</t>
   </si>
   <si>
-    <t>https://ae01.alicdn.com/kf/S5f6e349d720941fcbeaada8792942bd2H.jpg</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/S94482c46046d46b98c2dd8ae42933656n.jpg</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/S7935961c470747318778e509fd6a934fI.jpg</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/S4cc0df649ecd493ba23b10840a048ff5S.jpg</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/Sde505b957ad846489551806450cc5097M.jpg</t>
-  </si>
-  <si>
     <t>https://video.aliexpress-media.com/play/u/ae_sg_item/3000001417501/p/1/e/6/t/10301/1100062134029.mp4?from=chrome</t>
   </si>
   <si>
@@ -758,6 +743,9 @@
     <t>KT5390</t>
   </si>
   <si>
+    <t>Lamborghini Miura SV AMARILLO</t>
+  </si>
+  <si>
     <t>KT5317</t>
   </si>
   <si>
@@ -779,9 +767,6 @@
     <t>Land Rover Defender 90 ROJO</t>
   </si>
   <si>
-    <t>KT6005</t>
-  </si>
-  <si>
     <t xml:space="preserve">MAMMOTH PICKUP </t>
   </si>
   <si>
@@ -830,9 +815,6 @@
     <t>Mini Cooper S AMARILLO</t>
   </si>
   <si>
-    <t>Mini Cooper S CELESTE</t>
-  </si>
-  <si>
     <t>Mini Cooper S ROJO</t>
   </si>
   <si>
@@ -887,27 +869,9 @@
     <t>Toyota FJ Cruiser GUINDO</t>
   </si>
   <si>
-    <t>KT6007</t>
-  </si>
-  <si>
     <t>Tractor excavadora AMARILLO</t>
   </si>
   <si>
-    <t>KT6006</t>
-  </si>
-  <si>
-    <t>Volkswagen Classical Beetle AMARILLO</t>
-  </si>
-  <si>
-    <t>Volkswagen Classical Beetle BLANCO</t>
-  </si>
-  <si>
-    <t>Volkswagen Classical Beetle CELESTE</t>
-  </si>
-  <si>
-    <t>Volkswagen Classical Beetle ROJO</t>
-  </si>
-  <si>
     <t>1/34 Metal fundido a presión de 5'', puertas que se abren, acción de retroceso</t>
   </si>
   <si>
@@ -989,9 +953,6 @@
     <t>Biker casco de metal articulable 12cm ROJO</t>
   </si>
   <si>
-    <t>TRACTOR / EXCABADORA 32CM AMARILLO</t>
-  </si>
-  <si>
     <t>Beetle Classic ROJO</t>
   </si>
   <si>
@@ -1016,36 +977,9 @@
     <t>https://http2.mlstatic.com/D_NQ_NP_791879-MLU71266333911_082023-O.jpg</t>
   </si>
   <si>
-    <t>https://ae01.alicdn.com/kf/S2fda666123c34aa9ac4437dfd66ec1735.jpg</t>
-  </si>
-  <si>
     <t>https://ae01.alicdn.com/kf/Sf158e6ce530a4cfb9e74bdd4fe91eeeej.jpg</t>
   </si>
   <si>
-    <t>CO100</t>
-  </si>
-  <si>
-    <t>CO101</t>
-  </si>
-  <si>
-    <t>CO102</t>
-  </si>
-  <si>
-    <t>CO103</t>
-  </si>
-  <si>
-    <t>CO104</t>
-  </si>
-  <si>
-    <t>CO105</t>
-  </si>
-  <si>
-    <t>CO106</t>
-  </si>
-  <si>
-    <t>C1001</t>
-  </si>
-  <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_692551-MLA81274679282_122024-O.webp</t>
   </si>
   <si>
@@ -1121,9 +1055,6 @@
     <t>Lamborghini Countach LPI 800-4 AZUL</t>
   </si>
   <si>
-    <t>Volkswagen Classical Beetle ROSADO</t>
-  </si>
-  <si>
     <t>Dodge Viper GTSR ROJO</t>
   </si>
   <si>
@@ -1164,6 +1095,12 @@
   </si>
   <si>
     <t>Jeep Wrangler Rubicon 1941 CELESTE</t>
+  </si>
+  <si>
+    <t>BUEN ESTADO. 1/34 Metal fundido a presión de 5'', puertas que se abren, acción de retroceso</t>
+  </si>
+  <si>
+    <t>Mini Cooper S CELESTE CACHETE</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1111,7 @@
     <numFmt numFmtId="164" formatCode="_-&quot;S/&quot;\ * #,##0_-;\-&quot;S/&quot;\ * #,##0_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1230,6 +1167,12 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1270,7 +1213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1315,6 +1258,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1535,10 +1481,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J146" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21">
-  <autoFilter ref="A1:J146" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J146">
-    <sortCondition ref="E1:E146"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J141" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21">
+  <autoFilter ref="A1:J141" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J141">
+    <sortCondition ref="C1:C141"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="20"/>
@@ -1845,10 +1791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J183"/>
+  <dimension ref="A1:J174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142:XFD150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1899,3159 +1845,3243 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>164</v>
+        <v>258</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="16">
-        <v>1</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="C2" s="16"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5316</v>
+        <v>KT5059</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H2" s="4">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>164</v>
+        <v>253</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="C3" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F3" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5316</v>
+        <v>KT5349</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="H3" s="4">
         <v>0</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>164</v>
+        <v>227</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" s="16"/>
+        <v>340</v>
+      </c>
+      <c r="C4" s="16">
+        <v>1</v>
+      </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F4" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5316</v>
+        <v>KT5039</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="H4" s="4">
         <v>0</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>131</v>
-      </c>
+      <c r="I4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" s="16"/>
+        <v>342</v>
+      </c>
+      <c r="C5" s="16">
+        <v>1</v>
+      </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F5" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5316</v>
+        <v>KT5057</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="H5" s="4">
         <v>0</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>129</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="C6" s="16">
         <v>1</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F6" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5411</v>
+        <v>KT5057</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="H6" s="4">
         <v>0</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>206</v>
+        <v>258</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C7" s="16"/>
+        <v>259</v>
+      </c>
+      <c r="C7" s="16">
+        <v>1</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F7" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5412B</v>
+        <v>KT5059</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H7" s="4">
         <v>0</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>223</v>
+        <v>262</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="C8" s="16"/>
+        <v>322</v>
+      </c>
+      <c r="C8" s="16">
+        <v>1</v>
+      </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F8" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5419</v>
+        <v>KT5059FB</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>76</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>223</v>
+        <v>262</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="C9" s="16"/>
+        <v>321</v>
+      </c>
+      <c r="C9" s="16">
+        <v>1</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F9" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5419</v>
+        <v>KT5059FB</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>75</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="C10" s="16"/>
+        <v>167</v>
+      </c>
+      <c r="C10" s="16">
+        <v>1</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F10" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5419</v>
+        <v>KT5060</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>223</v>
+        <v>158</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>226</v>
+        <v>338</v>
       </c>
       <c r="C11" s="16">
         <v>1</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F11" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5419</v>
+        <v>KT5313</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="H11" s="4">
         <v>0</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>72</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>223</v>
+        <v>159</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>227</v>
+        <v>160</v>
       </c>
       <c r="C12" s="16">
         <v>1</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F12" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5419</v>
+        <v>KT5316</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="H12" s="4">
         <v>0</v>
       </c>
-      <c r="I12" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>70</v>
+      <c r="I12" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>371</v>
+        <v>161</v>
       </c>
       <c r="C13" s="16">
         <v>1</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F13" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5438B</v>
+        <v>KT5316</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="H13" s="4">
         <v>0</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="J13" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>209</v>
+        <v>149</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>372</v>
+        <v>151</v>
       </c>
       <c r="C14" s="16">
         <v>1</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F14" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5438B</v>
+        <v>KT5319</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="H14" s="4">
         <v>0</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="J14" s="3"/>
+        <v>136</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>209</v>
+        <v>149</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>373</v>
+        <v>153</v>
       </c>
       <c r="C15" s="16">
         <v>1</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F15" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5438B</v>
+        <v>KT5319</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="H15" s="4">
         <v>0</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="J15" s="3"/>
+        <v>136</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>209</v>
+        <v>272</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>374</v>
+        <v>273</v>
       </c>
       <c r="C16" s="16">
         <v>1</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F16" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5438B</v>
+        <v>KT5328</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="H16" s="4">
         <v>0</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="J16" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>210</v>
+        <v>147</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>211</v>
+        <v>320</v>
       </c>
       <c r="C17" s="16">
         <v>1</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F17" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5438P</v>
+        <v>KT5330F</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="H17" s="4">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>87</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>212</v>
+        <v>147</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="C18" s="16"/>
+        <v>148</v>
+      </c>
+      <c r="C18" s="16">
+        <v>1</v>
+      </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F18" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5445B</v>
+        <v>KT5330F</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="H18" s="4">
         <v>0</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18" s="3"/>
+        <v>140</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C19" s="16"/>
+        <v>144</v>
+      </c>
+      <c r="C19" s="16">
+        <v>1</v>
+      </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F19" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5319</v>
+        <v>KT5332</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="H19" s="4">
         <v>0</v>
       </c>
-      <c r="I19" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>143</v>
+      <c r="I19" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>156</v>
+        <v>344</v>
       </c>
       <c r="C20" s="16">
         <v>1</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F20" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5319</v>
+        <v>KT5332</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="H20" s="4">
         <v>0</v>
       </c>
-      <c r="I20" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>143</v>
+      <c r="I20" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21" s="16"/>
+        <v>343</v>
+      </c>
+      <c r="C21" s="16">
+        <v>1</v>
+      </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F21" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5319</v>
+        <v>KT5332</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="H21" s="4">
         <v>0</v>
       </c>
-      <c r="I21" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="J21" s="3" t="s">
+      <c r="I21" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="C22" s="16">
         <v>1</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F22" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5319</v>
+        <v>KT5337</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="H22" s="4">
         <v>0</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>140</v>
+        <v>96</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>198</v>
+        <v>274</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C23" s="16"/>
+        <v>277</v>
+      </c>
+      <c r="C23" s="16">
+        <v>1</v>
+      </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F23" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5352</v>
+        <v>KT5343</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>99</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>198</v>
+        <v>253</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C24" s="16"/>
+        <v>254</v>
+      </c>
+      <c r="C24" s="16">
+        <v>1</v>
+      </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F24" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5352</v>
+        <v>KT5349</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="H24" s="4">
         <v>0</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>198</v>
+        <v>253</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="C25" s="16"/>
+        <v>255</v>
+      </c>
+      <c r="C25" s="16">
+        <v>1</v>
+      </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F25" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5352</v>
+        <v>KT5349</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="H25" s="4">
         <v>0</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>175</v>
+        <v>257</v>
       </c>
       <c r="C26" s="16">
         <v>1</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F26" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5358</v>
+        <v>KT5349</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="H26" s="4">
         <v>0</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>174</v>
+        <v>328</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="C27" s="16"/>
+        <v>326</v>
+      </c>
+      <c r="C27" s="16">
+        <v>1</v>
+      </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F27" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5358</v>
+        <v>KT5355</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="H27" s="4">
         <v>0</v>
       </c>
-      <c r="I27" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>121</v>
-      </c>
+      <c r="I27" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>174</v>
+        <v>328</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="C28" s="16"/>
+        <v>327</v>
+      </c>
+      <c r="C28" s="16">
+        <v>1</v>
+      </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F28" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5358</v>
+        <v>KT5355</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="H28" s="4">
         <v>0</v>
       </c>
-      <c r="I28" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>119</v>
-      </c>
+      <c r="I28" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="J28" s="7"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>174</v>
+        <v>328</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="C29" s="16"/>
+        <v>325</v>
+      </c>
+      <c r="C29" s="16">
+        <v>1</v>
+      </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F29" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5358</v>
+        <v>KT5355</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="H29" s="4">
         <v>0</v>
       </c>
-      <c r="I29" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>123</v>
-      </c>
+      <c r="I29" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="J29" s="7"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C30" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F30" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5341</v>
+        <v>KT5358</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="H30" s="4">
         <v>0</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="C31" s="16"/>
+        <v>332</v>
+      </c>
+      <c r="C31" s="16">
+        <v>1</v>
+      </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F31" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5341</v>
+        <v>KT5361F</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="H31" s="4">
         <v>0</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>115</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C32" s="16"/>
+        <v>336</v>
+      </c>
+      <c r="C32" s="16">
+        <v>1</v>
+      </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F32" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5341</v>
+        <v>KT5366</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="H32" s="4">
         <v>0</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C33" s="16"/>
+        <v>155</v>
+      </c>
+      <c r="C33" s="16">
+        <v>1</v>
+      </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F33" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5341</v>
+        <v>KT5385</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="H33" s="4">
         <v>0</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C34" s="16">
         <v>1</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F34" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5385</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="H34" s="4">
         <v>0</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C35" s="16">
         <v>1</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F35" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5385</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="H35" s="4">
         <v>0</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C36" s="16">
         <v>1</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F36" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5385</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="H36" s="4">
         <v>0</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>205</v>
+        <v>329</v>
       </c>
       <c r="C37" s="16">
         <v>1</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F37" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5391F</v>
+        <v>KT5390</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="H37" s="4">
         <v>0</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="C38" s="16"/>
+        <v>330</v>
+      </c>
+      <c r="C38" s="16">
+        <v>1</v>
+      </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F38" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5425</v>
+        <v>KT5390</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="H38" s="4">
         <v>0</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>81</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="C39" s="16"/>
+        <v>235</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C39" s="16">
+        <v>1</v>
+      </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F39" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5425</v>
+        <v>KT5390</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>295</v>
+        <v>354</v>
       </c>
       <c r="H39" s="4">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>80</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="C40" s="16"/>
+        <v>200</v>
+      </c>
+      <c r="C40" s="16">
+        <v>1</v>
+      </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F40" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5425</v>
+        <v>KT5391F</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="H40" s="4">
         <v>0</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>79</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="C41" s="16"/>
+        <v>334</v>
+      </c>
+      <c r="C41" s="16">
+        <v>1</v>
+      </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F41" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5425</v>
+        <v>KT5393</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="H41" s="4">
         <v>0</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>77</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>217</v>
+        <v>335</v>
       </c>
       <c r="C42" s="16">
         <v>1</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F42" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5455F</v>
+        <v>KT5393</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="H42" s="4">
         <v>0</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>82</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="C43" s="16">
         <v>1</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F43" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5313</v>
+        <v>KT5402</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="H43" s="4">
         <v>0</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="C44" s="16"/>
+        <v>333</v>
+      </c>
+      <c r="C44" s="16">
+        <v>1</v>
+      </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F44" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5337</v>
+        <v>KT5411</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="H44" s="4">
         <v>0</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>104</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C45" s="16"/>
+        <v>202</v>
+      </c>
+      <c r="C45" s="16">
+        <v>1</v>
+      </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F45" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5337</v>
+        <v>KT5412B</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="H45" s="4">
         <v>0</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>103</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C46" s="16"/>
+        <v>347</v>
+      </c>
+      <c r="C46" s="16">
+        <v>1</v>
+      </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F46" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5337</v>
+        <v>KT5412B</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="H46" s="4">
         <v>0</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>102</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="J46" s="3"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C47" s="16">
         <v>1</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F47" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5337</v>
+        <v>KT5418</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="H47" s="4">
         <v>0</v>
       </c>
-      <c r="I47" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>100</v>
+      <c r="I47" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>151</v>
+        <v>218</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>359</v>
+        <v>221</v>
       </c>
       <c r="C48" s="16">
         <v>1</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F48" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5402</v>
+        <v>KT5419</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="H48" s="4">
         <v>0</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="J48" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C49" s="16"/>
+        <v>222</v>
+      </c>
+      <c r="C49" s="16">
+        <v>1</v>
+      </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F49" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5418</v>
+        <v>KT5419</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="H49" s="4">
         <v>0</v>
       </c>
-      <c r="I49" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>111</v>
+      <c r="I49" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="C50" s="16">
         <v>1</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F50" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5418</v>
+        <v>KT5427F</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="H50" s="4">
         <v>0</v>
       </c>
-      <c r="I50" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>110</v>
+      <c r="I50" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="C51" s="16"/>
+        <v>323</v>
+      </c>
+      <c r="C51" s="16">
+        <v>1</v>
+      </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F51" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5418</v>
+        <v>KT5427F</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="H51" s="4">
         <v>0</v>
       </c>
       <c r="I51" s="13" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C52" s="16"/>
+        <v>339</v>
+      </c>
+      <c r="C52" s="16">
+        <v>1</v>
+      </c>
       <c r="D52" s="6"/>
       <c r="E52" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F52" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5418</v>
+        <v>KT5437</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="H52" s="4">
         <v>0</v>
       </c>
-      <c r="I52" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="I52" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J52" s="7"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="C53" s="16"/>
+        <v>350</v>
+      </c>
+      <c r="C53" s="16">
+        <v>1</v>
+      </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F53" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5436P</v>
+        <v>KT5438B</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="H53" s="4">
         <v>0</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="J53" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="J53" s="3"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>280</v>
+        <v>204</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>281</v>
+        <v>351</v>
       </c>
       <c r="C54" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F54" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5343</v>
+        <v>KT5438B</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="H54" s="4">
         <v>0</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="J54" s="3"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>280</v>
+        <v>204</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>282</v>
+        <v>349</v>
       </c>
       <c r="C55" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F55" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5343</v>
+        <v>KT5438B</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="H55" s="4">
         <v>0</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="J55" s="3"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>280</v>
+        <v>204</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>283</v>
+        <v>348</v>
       </c>
       <c r="C56" s="16">
         <v>1</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F56" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5343</v>
+        <v>KT5438B</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="H56" s="4">
         <v>0</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="J56" s="3"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B57" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="B57" s="12" t="s">
-        <v>208</v>
-      </c>
       <c r="C57" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F57" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5412B</v>
+        <v>KT5438P</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="H57" s="4">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>313</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>369</v>
+        <v>230</v>
       </c>
       <c r="C58" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F58" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5412B</v>
+        <v>KT5440</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H58" s="4">
         <v>0</v>
       </c>
-      <c r="I58" s="13" t="s">
-        <v>90</v>
+      <c r="I58" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="J58" s="3"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="C59" s="16">
         <v>1</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F59" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5412B</v>
+        <v>KT5440</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H59" s="4">
         <v>0</v>
       </c>
-      <c r="I59" s="13" t="s">
-        <v>90</v>
+      <c r="I59" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="J59" s="3"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>207</v>
+        <v>331</v>
       </c>
       <c r="C60" s="16">
         <v>1</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F60" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5412B</v>
+        <v>KT5442</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="H60" s="4">
         <v>0</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="J60" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="J60" s="5"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="C61" s="16">
         <v>1</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F61" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5385</v>
+        <v>KT5455F</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="H61" s="4">
         <v>0</v>
       </c>
       <c r="I61" s="13" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
-        <v>234</v>
-      </c>
+      <c r="A62" s="8"/>
       <c r="B62" s="12" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="C62" s="16">
         <v>1</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="F62" s="6" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5440</v>
+        <v>318</v>
+      </c>
+      <c r="F62" s="6">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="G62" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="H62" s="4">
+        <v>15</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="J62" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="H62" s="4">
-        <v>0</v>
-      </c>
-      <c r="I62" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J62" s="3"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
-        <v>234</v>
-      </c>
+      <c r="A63" s="8"/>
       <c r="B63" s="12" t="s">
-        <v>368</v>
+        <v>309</v>
       </c>
       <c r="C63" s="16">
         <v>1</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="F63" s="6" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5440</v>
+        <v>318</v>
+      </c>
+      <c r="F63" s="6">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="G63" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="H63" s="4">
+        <v>15</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="J63" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="H63" s="4">
-        <v>0</v>
-      </c>
-      <c r="I63" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J63" s="3"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
-        <v>232</v>
-      </c>
+      <c r="A64" s="8"/>
       <c r="B64" s="12" t="s">
-        <v>363</v>
+        <v>306</v>
       </c>
       <c r="C64" s="16">
         <v>1</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="F64" s="6" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5039</v>
+        <v>318</v>
+      </c>
+      <c r="F64" s="6">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="H64" s="4">
-        <v>0</v>
-      </c>
-      <c r="I64" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J64" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="A65" s="8"/>
       <c r="B65" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="C65" s="16"/>
+        <v>223</v>
+      </c>
+      <c r="C65" s="16">
+        <v>1</v>
+      </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="F65" s="6" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5423</v>
+        <v>318</v>
+      </c>
+      <c r="F65" s="6">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="H65" s="4">
         <v>0</v>
       </c>
-      <c r="I65" s="14" t="s">
-        <v>69</v>
+      <c r="I65" s="13" t="s">
+        <v>315</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>68</v>
+        <v>317</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
-        <v>231</v>
-      </c>
+      <c r="A66" s="8"/>
       <c r="B66" s="12" t="s">
-        <v>353</v>
+        <v>228</v>
       </c>
       <c r="C66" s="16">
         <v>1</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="F66" s="6" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5442</v>
-      </c>
-      <c r="G66" s="14" t="s">
-        <v>295</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="F66" s="6">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="14"/>
       <c r="H66" s="4">
         <v>0</v>
       </c>
-      <c r="I66" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J66" s="5"/>
+      <c r="I66" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C67" s="16">
         <v>1</v>
       </c>
       <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
+      <c r="E67" s="6" t="s">
+        <v>318</v>
+      </c>
       <c r="F67" s="6">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
-      <c r="G67" s="14"/>
+      <c r="G67" s="14" t="s">
+        <v>289</v>
+      </c>
       <c r="H67" s="4">
         <v>0</v>
       </c>
-      <c r="I67" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>64</v>
+      <c r="I67" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
-        <v>191</v>
-      </c>
+      <c r="A68" s="8"/>
       <c r="B68" s="12" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="C68" s="16">
         <v>1</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="F68" s="6" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5057</v>
+        <v>318</v>
+      </c>
+      <c r="F68" s="6">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H68" s="4">
         <v>0</v>
       </c>
-      <c r="I68" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="J68" s="3"/>
+      <c r="I68" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J68" s="7"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
-        <v>191</v>
-      </c>
+      <c r="A69" s="8"/>
       <c r="B69" s="12" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="C69" s="16">
         <v>1</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="F69" s="6" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5057</v>
+        <v>318</v>
+      </c>
+      <c r="F69" s="6">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="G69" s="14" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H69" s="4">
         <v>0</v>
       </c>
-      <c r="I69" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="J69" s="3"/>
+      <c r="I69" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J69" s="7"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="C70" s="16"/>
+        <v>319</v>
+      </c>
+      <c r="C70" s="16">
+        <v>2</v>
+      </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F70" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5060</v>
+        <v>KT5330F</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="H70" s="4">
         <v>0</v>
       </c>
       <c r="I70" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>128</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="J70" s="3"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="C71" s="16"/>
+        <v>145</v>
+      </c>
+      <c r="C71" s="16">
+        <v>2</v>
+      </c>
       <c r="D71" s="6"/>
       <c r="E71" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F71" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5060</v>
+        <v>KT5332</v>
       </c>
       <c r="G71" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="H71" s="4">
+        <v>0</v>
+      </c>
+      <c r="I71" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="H71" s="4">
-        <v>0</v>
-      </c>
-      <c r="I71" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>127</v>
-      </c>
+      <c r="J71" s="3"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C72" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F72" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5060</v>
+        <v>KT5341</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="H72" s="4">
         <v>0</v>
       </c>
       <c r="I72" s="13" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>169</v>
+        <v>274</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C73" s="16"/>
+        <v>275</v>
+      </c>
+      <c r="C73" s="16">
+        <v>2</v>
+      </c>
       <c r="D73" s="6"/>
       <c r="E73" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F73" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5060</v>
+        <v>KT5343</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="H73" s="4">
         <v>0</v>
       </c>
       <c r="I73" s="13" t="s">
-        <v>125</v>
+        <v>291</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>124</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>152</v>
+        <v>274</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>153</v>
+        <v>276</v>
       </c>
       <c r="C74" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74" s="6"/>
       <c r="E74" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F74" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5330F</v>
+        <v>KT5343</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="H74" s="4">
         <v>0</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>341</v>
+        <v>248</v>
       </c>
       <c r="C75" s="16">
         <v>2</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F75" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5330F</v>
+        <v>KT5392</v>
       </c>
       <c r="G75" s="14" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="H75" s="4">
         <v>0</v>
       </c>
       <c r="I75" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="J75" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C76" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" s="6"/>
       <c r="E76" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F76" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5330F</v>
+        <v>KT5412B</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="H76" s="4">
         <v>0</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="J76" s="3"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>354</v>
+        <v>203</v>
       </c>
       <c r="C77" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F77" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5361F</v>
+        <v>KT5412B</v>
       </c>
       <c r="G77" s="14" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="H77" s="4">
         <v>0</v>
       </c>
       <c r="I77" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="J77" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
-        <v>203</v>
-      </c>
+      <c r="A78" s="8"/>
       <c r="B78" s="12" t="s">
-        <v>358</v>
+        <v>310</v>
       </c>
       <c r="C78" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" s="6"/>
       <c r="E78" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="F78" s="6" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5366</v>
+        <v>318</v>
+      </c>
+      <c r="F78" s="6">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="H78" s="4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I78" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>93</v>
+        <v>297</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
-        <v>179</v>
-      </c>
+      <c r="A79" s="8"/>
       <c r="B79" s="12" t="s">
-        <v>180</v>
+        <v>311</v>
       </c>
       <c r="C79" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" s="6"/>
       <c r="E79" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="F79" s="6">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G79" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="H79" s="4">
+        <v>15</v>
+      </c>
+      <c r="I79" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="F79" s="6" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5427F</v>
-      </c>
-      <c r="G79" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="H79" s="4">
-        <v>0</v>
-      </c>
-      <c r="I79" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>117</v>
+      <c r="J79" s="7" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
-        <v>179</v>
-      </c>
+      <c r="A80" s="8"/>
       <c r="B80" s="12" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="C80" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D80" s="6"/>
       <c r="E80" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="F80" s="6" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5427F</v>
+        <v>318</v>
+      </c>
+      <c r="F80" s="6">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="G80" s="14" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="H80" s="4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I80" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>117</v>
+        <v>294</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>329</v>
+        <v>258</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="C81" s="16"/>
+        <v>260</v>
+      </c>
+      <c r="C81" s="16">
+        <v>0</v>
+      </c>
       <c r="D81" s="6"/>
       <c r="E81" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F81" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>CO100</v>
+        <v>KT5059</v>
       </c>
       <c r="G81" s="14" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H81" s="4">
         <v>0</v>
       </c>
       <c r="I81" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="J81" s="7" t="s">
-        <v>312</v>
+        <v>29</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>329</v>
+        <v>258</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="C82" s="16"/>
+        <v>261</v>
+      </c>
+      <c r="C82" s="16">
+        <v>0</v>
+      </c>
       <c r="D82" s="6"/>
       <c r="E82" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F82" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>CO100</v>
+        <v>KT5059</v>
       </c>
       <c r="G82" s="14" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H82" s="4">
         <v>0</v>
       </c>
       <c r="I82" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="J82" s="7" t="s">
-        <v>312</v>
+        <v>29</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>329</v>
+        <v>164</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="C83" s="16"/>
+        <v>165</v>
+      </c>
+      <c r="C83" s="16">
+        <v>0</v>
+      </c>
       <c r="D83" s="6"/>
       <c r="E83" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F83" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>CO100</v>
+        <v>KT5060</v>
       </c>
       <c r="G83" s="14" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="H83" s="4">
         <v>0</v>
       </c>
       <c r="I83" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="J83" s="7" t="s">
-        <v>312</v>
+        <v>120</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>329</v>
+        <v>164</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="C84" s="16"/>
+        <v>166</v>
+      </c>
+      <c r="C84" s="16">
+        <v>0</v>
+      </c>
       <c r="D84" s="6"/>
       <c r="E84" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F84" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>CO100</v>
+        <v>KT5060</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="H84" s="4">
         <v>0</v>
       </c>
       <c r="I84" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="J84" s="7" t="s">
-        <v>312</v>
+        <v>120</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>329</v>
+        <v>164</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="C85" s="16"/>
+        <v>168</v>
+      </c>
+      <c r="C85" s="16">
+        <v>0</v>
+      </c>
       <c r="D85" s="6"/>
       <c r="E85" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F85" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>CO100</v>
+        <v>KT5060</v>
       </c>
       <c r="G85" s="14" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="H85" s="4">
         <v>0</v>
       </c>
       <c r="I85" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="J85" s="7" t="s">
-        <v>312</v>
+        <v>120</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>329</v>
+        <v>269</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="C86" s="16"/>
+        <v>270</v>
+      </c>
+      <c r="C86" s="16">
+        <v>0</v>
+      </c>
       <c r="D86" s="6"/>
       <c r="E86" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F86" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>CO100</v>
+        <v>KT5081</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="H86" s="4">
         <v>0</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="J86" s="7" t="s">
-        <v>312</v>
+        <v>19</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>331</v>
+        <v>269</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="C87" s="16"/>
+        <v>271</v>
+      </c>
+      <c r="C87" s="16">
+        <v>0</v>
+      </c>
       <c r="D87" s="6"/>
       <c r="E87" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F87" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>CO102</v>
-      </c>
-      <c r="G87" s="14"/>
+        <v>KT5081</v>
+      </c>
+      <c r="G87" s="14" t="s">
+        <v>282</v>
+      </c>
       <c r="H87" s="4">
         <v>0</v>
       </c>
-      <c r="I87" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="J87" s="3"/>
+      <c r="I87" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>330</v>
+        <v>159</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="C88" s="16"/>
+        <v>162</v>
+      </c>
+      <c r="C88" s="16">
+        <v>0</v>
+      </c>
       <c r="D88" s="6"/>
       <c r="E88" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F88" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>CO101</v>
-      </c>
-      <c r="G88" s="14"/>
+        <v>KT5316</v>
+      </c>
+      <c r="G88" s="14" t="s">
+        <v>279</v>
+      </c>
       <c r="H88" s="4">
         <v>0</v>
       </c>
-      <c r="I88" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="J88" s="3"/>
+      <c r="I88" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>332</v>
+        <v>159</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="C89" s="16"/>
+        <v>163</v>
+      </c>
+      <c r="C89" s="16">
+        <v>0</v>
+      </c>
       <c r="D89" s="6"/>
       <c r="E89" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F89" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>CO103</v>
+        <v>KT5316</v>
       </c>
       <c r="G89" s="14" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="H89" s="4">
         <v>0</v>
       </c>
       <c r="I89" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J89" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>333</v>
+        <v>237</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="C90" s="16"/>
+        <v>238</v>
+      </c>
+      <c r="C90" s="16">
+        <v>0</v>
+      </c>
       <c r="D90" s="6"/>
       <c r="E90" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F90" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>CO104</v>
-      </c>
-      <c r="G90" s="14"/>
+        <v>KT5317</v>
+      </c>
+      <c r="G90" s="14" t="s">
+        <v>282</v>
+      </c>
       <c r="H90" s="4">
         <v>0</v>
       </c>
-      <c r="I90" s="8" t="s">
-        <v>327</v>
+      <c r="I90" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="J90" s="3"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>336</v>
+        <v>149</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>228</v>
+        <v>150</v>
       </c>
       <c r="C91" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" s="6"/>
       <c r="E91" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F91" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>C1001</v>
+        <v>KT5319</v>
       </c>
       <c r="G91" s="14" t="s">
-        <v>338</v>
+        <v>282</v>
       </c>
       <c r="H91" s="4">
         <v>0</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="J91" s="7" t="s">
-        <v>339</v>
+        <v>136</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>334</v>
+        <v>149</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="C92" s="16"/>
+        <v>152</v>
+      </c>
+      <c r="C92" s="16">
+        <v>0</v>
+      </c>
       <c r="D92" s="6"/>
       <c r="E92" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F92" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>CO105</v>
-      </c>
-      <c r="G92" s="14"/>
+        <v>KT5319</v>
+      </c>
+      <c r="G92" s="14" t="s">
+        <v>282</v>
+      </c>
       <c r="H92" s="4">
         <v>0</v>
       </c>
-      <c r="I92" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="J92" s="3"/>
+      <c r="I92" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>335</v>
+        <v>188</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>236</v>
+        <v>189</v>
       </c>
       <c r="C93" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" s="6"/>
       <c r="E93" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F93" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>CO106</v>
+        <v>KT5337</v>
       </c>
       <c r="G93" s="14" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="H93" s="4">
         <v>0</v>
       </c>
-      <c r="I93" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="J93" s="7" t="s">
-        <v>314</v>
+      <c r="I93" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>335</v>
+        <v>188</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>375</v>
+        <v>190</v>
       </c>
       <c r="C94" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94" s="6"/>
       <c r="E94" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F94" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>CO106</v>
+        <v>KT5337</v>
       </c>
       <c r="G94" s="14" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="H94" s="4">
         <v>0</v>
       </c>
-      <c r="I94" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="J94" s="7"/>
+      <c r="I94" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>335</v>
+        <v>188</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>376</v>
+        <v>191</v>
       </c>
       <c r="C95" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95" s="6"/>
       <c r="E95" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F95" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>CO106</v>
+        <v>KT5337</v>
       </c>
       <c r="G95" s="14" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="H95" s="4">
         <v>0</v>
       </c>
-      <c r="I95" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="J95" s="7"/>
+      <c r="I95" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J95" s="5" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>263</v>
+        <v>176</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>264</v>
+        <v>178</v>
       </c>
       <c r="C96" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96" s="6"/>
       <c r="E96" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F96" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5059</v>
+        <v>KT5341</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="H96" s="4">
         <v>0</v>
       </c>
       <c r="I96" s="13" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>263</v>
+        <v>176</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>265</v>
+        <v>179</v>
       </c>
       <c r="C97" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" s="6"/>
       <c r="E97" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F97" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5059</v>
+        <v>KT5341</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="H97" s="4">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="I97" s="13" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>263</v>
+        <v>176</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="C98" s="16"/>
+        <v>180</v>
+      </c>
+      <c r="C98" s="16">
+        <v>0</v>
+      </c>
       <c r="D98" s="6"/>
       <c r="E98" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F98" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5059</v>
+        <v>KT5341</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="H98" s="4">
         <v>0</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="C99" s="16"/>
+        <v>277</v>
+      </c>
+      <c r="C99" s="16">
+        <v>0</v>
+      </c>
       <c r="D99" s="6"/>
       <c r="E99" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F99" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5059</v>
+        <v>KT5343</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="H99" s="4">
         <v>0</v>
       </c>
       <c r="I99" s="13" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>268</v>
+        <v>193</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>343</v>
+        <v>194</v>
       </c>
       <c r="C100" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F100" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5059FB</v>
+        <v>KT5352</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="H100" s="4">
         <v>0</v>
       </c>
       <c r="I100" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J100" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>268</v>
+        <v>193</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>344</v>
+        <v>195</v>
       </c>
       <c r="C101" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" s="6"/>
       <c r="E101" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F101" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5059FB</v>
+        <v>KT5352</v>
       </c>
       <c r="G101" s="14" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="H101" s="4">
         <v>0</v>
       </c>
       <c r="I101" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J101" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>240</v>
+        <v>193</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>351</v>
+        <v>196</v>
       </c>
       <c r="C102" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102" s="6"/>
       <c r="E102" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F102" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5390</v>
+        <v>KT5352</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="H102" s="4">
         <v>0</v>
       </c>
       <c r="I102" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J102" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>240</v>
+        <v>169</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>352</v>
+        <v>171</v>
       </c>
       <c r="C103" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D103" s="6"/>
       <c r="E103" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F103" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5390</v>
+        <v>KT5358</v>
       </c>
       <c r="G103" s="14" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="H103" s="4">
         <v>0</v>
       </c>
       <c r="I103" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J103" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>275</v>
+        <v>169</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="C104" s="16"/>
+        <v>172</v>
+      </c>
+      <c r="C104" s="16">
+        <v>0</v>
+      </c>
       <c r="D104" s="6"/>
       <c r="E104" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F104" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5081</v>
+        <v>KT5358</v>
       </c>
       <c r="G104" s="14" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="H104" s="4">
         <v>0</v>
       </c>
       <c r="I104" s="13" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>275</v>
+        <v>169</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="C105" s="16"/>
+        <v>173</v>
+      </c>
+      <c r="C105" s="16">
+        <v>0</v>
+      </c>
       <c r="D105" s="6"/>
       <c r="E105" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F105" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5081</v>
+        <v>KT5358</v>
       </c>
       <c r="G105" s="14" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="H105" s="4">
         <v>0</v>
       </c>
       <c r="I105" s="13" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="C106" s="16"/>
+        <v>246</v>
+      </c>
+      <c r="C106" s="16">
+        <v>0</v>
+      </c>
       <c r="D106" s="6"/>
       <c r="E106" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F106" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5317</v>
+        <v>KT5392</v>
       </c>
       <c r="G106" s="14" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="H106" s="4">
         <v>0</v>
       </c>
-      <c r="I106" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="J106" s="3"/>
+      <c r="I106" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J106" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="C107" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D107" s="6"/>
       <c r="E107" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F107" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5328</v>
+        <v>KT5392</v>
       </c>
       <c r="G107" s="14" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="H107" s="4">
         <v>0</v>
       </c>
       <c r="I107" s="13" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="C108" s="16"/>
+        <v>249</v>
+      </c>
+      <c r="C108" s="16">
+        <v>0</v>
+      </c>
       <c r="D108" s="6"/>
       <c r="E108" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F108" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5343</v>
+        <v>KT5392</v>
       </c>
       <c r="G108" s="14" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="H108" s="4">
         <v>0</v>
       </c>
       <c r="I108" s="13" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C109" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D109" s="6"/>
       <c r="E109" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F109" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5349</v>
+        <v>KT5403</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="H109" s="4">
         <v>0</v>
@@ -5059,1111 +5089,1015 @@
       <c r="I109" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J109" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="J109" s="3"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C110" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D110" s="6"/>
       <c r="E110" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F110" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5349</v>
+        <v>KT5408</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="H110" s="4">
         <v>0</v>
       </c>
       <c r="I110" s="13" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C111" s="16">
         <v>0</v>
       </c>
       <c r="D111" s="6"/>
       <c r="E111" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F111" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5349</v>
+        <v>KT5408</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="H111" s="4">
         <v>0</v>
       </c>
       <c r="I111" s="13" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C112" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D112" s="6"/>
       <c r="E112" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F112" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5349</v>
+        <v>KT5408</v>
       </c>
       <c r="G112" s="14" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="H112" s="4">
         <v>0</v>
       </c>
       <c r="I112" s="13" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="C113" s="16"/>
+        <v>267</v>
+      </c>
+      <c r="C113" s="16">
+        <v>0</v>
+      </c>
       <c r="D113" s="6"/>
       <c r="E113" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F113" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5392</v>
+        <v>KT5408</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="H113" s="4">
         <v>0</v>
       </c>
-      <c r="I113" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="J113" s="7" t="s">
-        <v>49</v>
+      <c r="I113" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="C114" s="16"/>
+        <v>268</v>
+      </c>
+      <c r="C114" s="16">
+        <v>0</v>
+      </c>
       <c r="D114" s="6"/>
       <c r="E114" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F114" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5392</v>
+        <v>KT5408</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="H114" s="4">
         <v>0</v>
       </c>
       <c r="I114" s="13" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="C115" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F115" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5392</v>
+        <v>KT5408</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="H115" s="4">
         <v>0</v>
       </c>
       <c r="I115" s="13" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="C116" s="16"/>
+        <v>202</v>
+      </c>
+      <c r="C116" s="16">
+        <v>0</v>
+      </c>
       <c r="D116" s="6"/>
       <c r="E116" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F116" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5392</v>
+        <v>KT5412B</v>
       </c>
       <c r="G116" s="14" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="H116" s="4">
         <v>0</v>
       </c>
       <c r="I116" s="13" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
-        <v>257</v>
+        <v>181</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>356</v>
+        <v>182</v>
       </c>
       <c r="C117" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D117" s="6"/>
       <c r="E117" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F117" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5393</v>
+        <v>KT5418</v>
       </c>
       <c r="G117" s="14" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="H117" s="4">
         <v>0</v>
       </c>
       <c r="I117" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="J117" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
-        <v>257</v>
+        <v>181</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>357</v>
+        <v>184</v>
       </c>
       <c r="C118" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D118" s="6"/>
       <c r="E118" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F118" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5393</v>
+        <v>KT5418</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="H118" s="4">
         <v>0</v>
       </c>
       <c r="I118" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="J118" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
-        <v>255</v>
+        <v>181</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C119" s="16"/>
+        <v>185</v>
+      </c>
+      <c r="C119" s="16">
+        <v>0</v>
+      </c>
       <c r="D119" s="6"/>
       <c r="E119" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F119" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5403</v>
+        <v>KT5418</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="H119" s="4">
         <v>0</v>
       </c>
       <c r="I119" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="J119" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
-        <v>270</v>
+        <v>218</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="C120" s="16"/>
+        <v>219</v>
+      </c>
+      <c r="C120" s="16">
+        <v>0</v>
+      </c>
       <c r="D120" s="6"/>
       <c r="E120" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F120" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5408</v>
+        <v>KT5419</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="H120" s="4">
         <v>0</v>
       </c>
       <c r="I120" s="13" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
-        <v>270</v>
+        <v>218</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="C121" s="16"/>
+        <v>219</v>
+      </c>
+      <c r="C121" s="16">
+        <v>0</v>
+      </c>
       <c r="D121" s="6"/>
       <c r="E121" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F121" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5408</v>
+        <v>KT5419</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="H121" s="4">
         <v>0</v>
       </c>
       <c r="I121" s="13" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
-        <v>270</v>
+        <v>218</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="C122" s="16"/>
+        <v>220</v>
+      </c>
+      <c r="C122" s="16">
+        <v>0</v>
+      </c>
       <c r="D122" s="6"/>
       <c r="E122" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F122" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5408</v>
+        <v>KT5419</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="H122" s="4">
         <v>0</v>
       </c>
       <c r="I122" s="13" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="C123" s="16"/>
+        <v>225</v>
+      </c>
+      <c r="C123" s="16">
+        <v>0</v>
+      </c>
       <c r="D123" s="6"/>
       <c r="E123" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F123" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5408</v>
+        <v>KT5423</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="H123" s="4">
         <v>0</v>
       </c>
-      <c r="I123" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J123" s="3" t="s">
-        <v>28</v>
+      <c r="I123" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J123" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="C124" s="16"/>
+        <v>214</v>
+      </c>
+      <c r="C124" s="16">
+        <v>0</v>
+      </c>
       <c r="D124" s="6"/>
       <c r="E124" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F124" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5408</v>
+        <v>KT5425</v>
       </c>
       <c r="G124" s="14" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="H124" s="4">
         <v>0</v>
       </c>
       <c r="I124" s="13" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="C125" s="16"/>
+        <v>215</v>
+      </c>
+      <c r="C125" s="16">
+        <v>0</v>
+      </c>
       <c r="D125" s="6"/>
       <c r="E125" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F125" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5408</v>
+        <v>KT5425</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="H125" s="4">
         <v>0</v>
       </c>
       <c r="I125" s="13" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="C126" s="16"/>
+        <v>216</v>
+      </c>
+      <c r="C126" s="16">
+        <v>0</v>
+      </c>
       <c r="D126" s="6"/>
       <c r="E126" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F126" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5428</v>
+        <v>KT5425</v>
       </c>
       <c r="G126" s="14" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="H126" s="4">
         <v>0</v>
       </c>
       <c r="I126" s="13" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="C127" s="16"/>
+        <v>217</v>
+      </c>
+      <c r="C127" s="16">
+        <v>0</v>
+      </c>
       <c r="D127" s="6"/>
       <c r="E127" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F127" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5428</v>
+        <v>KT5425</v>
       </c>
       <c r="G127" s="14" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="H127" s="4">
         <v>0</v>
       </c>
       <c r="I127" s="13" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="C128" s="16"/>
+        <v>240</v>
+      </c>
+      <c r="C128" s="16">
+        <v>0</v>
+      </c>
       <c r="D128" s="6"/>
       <c r="E128" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F128" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5428</v>
       </c>
       <c r="G128" s="14" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="H128" s="4">
         <v>0</v>
       </c>
       <c r="I128" s="13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="C129" s="16"/>
+        <v>241</v>
+      </c>
+      <c r="C129" s="16">
+        <v>0</v>
+      </c>
       <c r="D129" s="6"/>
       <c r="E129" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F129" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5428</v>
       </c>
       <c r="G129" s="14" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="H129" s="4">
         <v>0</v>
       </c>
       <c r="I129" s="13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="C130" s="16"/>
+        <v>242</v>
+      </c>
+      <c r="C130" s="16">
+        <v>0</v>
+      </c>
       <c r="D130" s="6"/>
       <c r="E130" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F130" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5437</v>
+        <v>KT5428</v>
       </c>
       <c r="G130" s="14" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="H130" s="4">
         <v>0</v>
       </c>
-      <c r="I130" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="J130" s="7" t="s">
-        <v>61</v>
+      <c r="I130" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="C131" s="16"/>
+        <v>243</v>
+      </c>
+      <c r="C131" s="16">
+        <v>0</v>
+      </c>
       <c r="D131" s="6"/>
       <c r="E131" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F131" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5437</v>
+        <v>KT5428</v>
       </c>
       <c r="G131" s="14" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="H131" s="4">
         <v>0</v>
       </c>
-      <c r="I131" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="J131" s="7" t="s">
-        <v>59</v>
+      <c r="I131" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>361</v>
+        <v>210</v>
       </c>
       <c r="C132" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D132" s="6"/>
       <c r="E132" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F132" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5437</v>
+        <v>KT5436P</v>
       </c>
       <c r="G132" s="14" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="H132" s="4">
         <v>0</v>
       </c>
-      <c r="I132" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="J132" s="7"/>
+      <c r="I132" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
-        <v>350</v>
+        <v>232</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>347</v>
+        <v>233</v>
       </c>
       <c r="C133" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D133" s="6"/>
       <c r="E133" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F133" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5355</v>
+        <v>KT5437</v>
       </c>
       <c r="G133" s="14" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="H133" s="4">
         <v>0</v>
       </c>
       <c r="I133" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="J133" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="J133" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
-        <v>350</v>
+        <v>232</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>348</v>
+        <v>234</v>
       </c>
       <c r="C134" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D134" s="6"/>
       <c r="E134" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F134" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5355</v>
+        <v>KT5437</v>
       </c>
       <c r="G134" s="14" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="H134" s="4">
         <v>0</v>
       </c>
       <c r="I134" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="J134" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="J134" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
-        <v>350</v>
+        <v>207</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>349</v>
+        <v>208</v>
       </c>
       <c r="C135" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D135" s="6"/>
       <c r="E135" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F135" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5355</v>
+        <v>KT5445B</v>
       </c>
       <c r="G135" s="14" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="H135" s="4">
         <v>0</v>
       </c>
-      <c r="I135" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="J135" s="7"/>
+      <c r="I135" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="J135" s="3"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="8" t="s">
-        <v>248</v>
-      </c>
+      <c r="A136" s="8"/>
       <c r="B136" s="12" t="s">
-        <v>249</v>
+        <v>304</v>
       </c>
       <c r="C136" s="16"/>
       <c r="D136" s="6"/>
       <c r="E136" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="F136" s="6" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT6005</v>
+        <v>318</v>
+      </c>
+      <c r="F136" s="6">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="G136" s="14"/>
       <c r="H136" s="4">
         <v>0</v>
       </c>
-      <c r="I136" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="J136" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="I136" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J136" s="3"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="8" t="s">
-        <v>286</v>
-      </c>
+      <c r="A137" s="8"/>
       <c r="B137" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="C137" s="16"/>
+        <v>303</v>
+      </c>
+      <c r="C137" s="16">
+        <v>1</v>
+      </c>
       <c r="D137" s="6"/>
       <c r="E137" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="F137" s="6" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT6006</v>
+        <v>318</v>
+      </c>
+      <c r="F137" s="6">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="G137" s="14"/>
       <c r="H137" s="4">
         <v>0</v>
       </c>
-      <c r="I137" s="13" t="s">
-        <v>14</v>
+      <c r="I137" s="8" t="s">
+        <v>313</v>
       </c>
       <c r="J137" s="3"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="8" t="s">
-        <v>284</v>
-      </c>
+      <c r="A138" s="8"/>
       <c r="B138" s="12" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="C138" s="16"/>
       <c r="D138" s="6"/>
       <c r="E138" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="F138" s="6" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT6007</v>
+        <v>318</v>
+      </c>
+      <c r="F138" s="6">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="G138" s="14"/>
       <c r="H138" s="4">
         <v>0</v>
       </c>
-      <c r="I138" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J138" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="I138" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="J138" s="3"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="8" t="s">
-        <v>148</v>
-      </c>
+      <c r="A139" s="8"/>
       <c r="B139" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="C139" s="16">
-        <v>1</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C139" s="16"/>
       <c r="D139" s="6"/>
       <c r="E139" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="F139" s="6" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5332</v>
-      </c>
-      <c r="G139" s="14" t="s">
-        <v>291</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="F139" s="6">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G139" s="14"/>
       <c r="H139" s="4">
         <v>0</v>
       </c>
-      <c r="I139" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="J139" s="7" t="s">
-        <v>147</v>
+      <c r="I139" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="8" t="s">
-        <v>148</v>
-      </c>
+      <c r="A140" s="8"/>
       <c r="B140" s="12" t="s">
-        <v>149</v>
+        <v>263</v>
       </c>
       <c r="C140" s="16">
         <v>1</v>
       </c>
       <c r="D140" s="6"/>
       <c r="E140" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="F140" s="6" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5332</v>
+        <v>318</v>
+      </c>
+      <c r="F140" s="6">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="G140" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H140" s="4">
         <v>0</v>
       </c>
-      <c r="I140" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="J140" s="7" t="s">
-        <v>147</v>
-      </c>
+      <c r="I140" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J140" s="3"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="8" t="s">
-        <v>148</v>
-      </c>
+      <c r="A141" s="8"/>
       <c r="B141" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="C141" s="16">
-        <v>1</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="C141" s="16"/>
       <c r="D141" s="6"/>
       <c r="E141" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="F141" s="6" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5332</v>
-      </c>
-      <c r="G141" s="14" t="s">
-        <v>291</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="F141" s="6">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G141" s="14"/>
       <c r="H141" s="4">
         <v>0</v>
       </c>
-      <c r="I141" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="J141" s="7" t="s">
-        <v>147</v>
+      <c r="I141" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B142" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C142" s="16">
-        <v>2</v>
-      </c>
-      <c r="D142" s="6"/>
-      <c r="E142" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="F142" s="6" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5332</v>
-      </c>
-      <c r="G142" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="H142" s="4">
-        <v>0</v>
-      </c>
-      <c r="I142" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="J142" s="3"/>
+      <c r="C142" s="15"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="B143" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="C143" s="16"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="F143" s="6" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT6006</v>
-      </c>
-      <c r="G143" s="14"/>
-      <c r="H143" s="4">
-        <v>0</v>
-      </c>
-      <c r="I143" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J143" s="3"/>
+      <c r="C143" s="15"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="B144" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="C144" s="16"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="F144" s="6" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT6006</v>
-      </c>
-      <c r="G144" s="14"/>
-      <c r="H144" s="4">
-        <v>0</v>
-      </c>
-      <c r="I144" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J144" s="7"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="B145" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="C145" s="16"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="F145" s="6" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT6006</v>
-      </c>
-      <c r="G145" s="14"/>
-      <c r="H145" s="4">
-        <v>0</v>
-      </c>
-      <c r="I145" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J145" s="3"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="B146" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="C146" s="16"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="F146" s="6" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT6006</v>
-      </c>
-      <c r="G146" s="14"/>
-      <c r="H146" s="4">
-        <v>0</v>
-      </c>
-      <c r="I146" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J146" s="3"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C144" s="15"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="15"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" s="15"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C147" s="15"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C148" s="15"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C149" s="15"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C150" s="15"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C151" s="15"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C152" s="15"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C153" s="15"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C154" s="15"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C155" s="15"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C156" s="15"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C157" s="15"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C158" s="15"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C159" s="15"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C160" s="15"/>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.25">
@@ -6208,35 +6142,8 @@
     <row r="174" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C174" s="15"/>
     </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C175" s="15"/>
-    </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C176" s="15"/>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C177" s="15"/>
-    </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178" s="15"/>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C179" s="15"/>
-    </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C180" s="15"/>
-    </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C181" s="15"/>
-    </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C182" s="15"/>
-    </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183" s="15"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C146">
+  <conditionalFormatting sqref="C2:C141">
     <cfRule type="expression" dxfId="11" priority="1">
       <formula>RIGHT(B2,6)="ROSADO"</formula>
     </cfRule>

--- a/kingcar.xlsx
+++ b/kingcar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B919F4A-7949-4635-9BA4-18F9DD481ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2801761E-02B0-42A9-9EA6-4C41E95489B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="365">
   <si>
     <t>CODIGO</t>
   </si>
@@ -1101,6 +1101,33 @@
   </si>
   <si>
     <t>Mini Cooper S CELESTE CACHETE</t>
+  </si>
+  <si>
+    <t>2017 Ford GT with printing AZUL</t>
+  </si>
+  <si>
+    <t>ford 1966</t>
+  </si>
+  <si>
+    <t>aston martin</t>
+  </si>
+  <si>
+    <t>murcielago</t>
+  </si>
+  <si>
+    <t>porsche 911</t>
+  </si>
+  <si>
+    <t>bronco camo</t>
+  </si>
+  <si>
+    <t>mini cooper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8 </t>
+  </si>
+  <si>
+    <t>land rover</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1262,11 +1289,888 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="177">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC0066"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC0066"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC0066"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC0066"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC0066"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC0066"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC0066"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC0066"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC0066"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC0066"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC0066"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFC000"/>
@@ -1481,23 +2385,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J141" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21">
-  <autoFilter ref="A1:J141" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J141">
-    <sortCondition ref="C1:C141"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J151" totalsRowShown="0" headerRowDxfId="176" headerRowBorderDxfId="175" tableBorderDxfId="174">
+  <autoFilter ref="A1:J151" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="001"/>
+        <filter val="002"/>
+        <filter val="003"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J151">
+    <sortCondition ref="H1:H151"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="173"/>
+    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="171"/>
+    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="170"/>
+    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="169"/>
+    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="168"/>
+    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="167">
       <calculatedColumnFormula>+Tabla1[[#This Row],[CODIGO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="165"/>
+    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="166"/>
+    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="172"/>
     <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1791,10 +2703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J174"/>
+  <dimension ref="A1:J175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142:XFD150"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,7 +2755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>258</v>
       </c>
@@ -1872,7 +2784,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>253</v>
       </c>
@@ -1893,9 +2805,7 @@
       <c r="G3" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
+      <c r="H3" s="4"/>
       <c r="I3" s="13" t="s">
         <v>34</v>
       </c>
@@ -1904,187 +2814,185 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>227</v>
-      </c>
+      <c r="A4" s="8"/>
       <c r="B4" s="12" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="C4" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="F4" s="6" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5039</v>
+        <v>318</v>
+      </c>
+      <c r="F4" s="6">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>186</v>
-      </c>
+      <c r="A5" s="8"/>
       <c r="B5" s="12" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="C5" s="16">
         <v>1</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="F5" s="6" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5057</v>
+        <v>318</v>
+      </c>
+      <c r="F5" s="6">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>281</v>
       </c>
       <c r="H5" s="4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="J5" s="3"/>
+        <v>296</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>186</v>
-      </c>
+      <c r="A6" s="8"/>
       <c r="B6" s="12" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="C6" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="F6" s="6" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5057</v>
+        <v>318</v>
+      </c>
+      <c r="F6" s="6">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>281</v>
       </c>
       <c r="H6" s="4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="J6" s="3"/>
+        <v>297</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>258</v>
-      </c>
+      <c r="A7" s="8"/>
       <c r="B7" s="12" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="C7" s="16">
         <v>1</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="F7" s="6" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5059</v>
+        <v>318</v>
+      </c>
+      <c r="F7" s="6">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H7" s="4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>32</v>
+        <v>299</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>262</v>
-      </c>
+      <c r="A8" s="8"/>
       <c r="B8" s="12" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="C8" s="16">
         <v>1</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="F8" s="6" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5059FB</v>
+        <v>318</v>
+      </c>
+      <c r="F8" s="6">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H8" s="4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="3"/>
+        <v>295</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>262</v>
-      </c>
+      <c r="A9" s="8"/>
       <c r="B9" s="12" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C9" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="F9" s="6" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5059FB</v>
+        <v>318</v>
+      </c>
+      <c r="F9" s="6">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H9" s="4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="3"/>
+        <v>298</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>167</v>
+        <v>199</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>356</v>
       </c>
       <c r="C10" s="16">
         <v>1</v>
@@ -2095,27 +3003,25 @@
       </c>
       <c r="F10" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5060</v>
+        <v>KT5391F</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H10" s="4">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>121</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>338</v>
+        <v>235</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>236</v>
       </c>
       <c r="C11" s="16">
         <v>1</v>
@@ -2126,28 +3032,28 @@
       </c>
       <c r="F11" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5313</v>
+        <v>KT5390</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>280</v>
+        <v>354</v>
       </c>
       <c r="H11" s="4">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>160</v>
+        <v>319</v>
       </c>
       <c r="C12" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
@@ -2155,27 +3061,25 @@
       </c>
       <c r="F12" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5316</v>
+        <v>KT5330F</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H12" s="4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>128</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>161</v>
+        <v>320</v>
       </c>
       <c r="C13" s="16">
         <v>1</v>
@@ -2186,27 +3090,25 @@
       </c>
       <c r="F13" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5316</v>
+        <v>KT5330F</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H13" s="4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>127</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C14" s="16">
         <v>1</v>
@@ -2217,19 +3119,19 @@
       </c>
       <c r="F14" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5319</v>
+        <v>KT5330F</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H14" s="4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2237,11 +3139,9 @@
         <v>149</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="16">
-        <v>1</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C15" s="16"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
         <v>286</v>
@@ -2254,21 +3154,21 @@
         <v>282</v>
       </c>
       <c r="H15" s="4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>136</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>272</v>
+        <v>149</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>273</v>
+        <v>153</v>
       </c>
       <c r="C16" s="16">
         <v>1</v>
@@ -2279,27 +3179,27 @@
       </c>
       <c r="F16" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5328</v>
+        <v>KT5319</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>282</v>
       </c>
       <c r="H16" s="4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="C17" s="16">
         <v>1</v>
@@ -2310,25 +3210,25 @@
       </c>
       <c r="F17" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5330F</v>
+        <v>KT5313</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H17" s="4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="C18" s="16">
         <v>1</v>
@@ -2339,27 +3239,27 @@
       </c>
       <c r="F18" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5330F</v>
+        <v>KT5358</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H18" s="4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="C19" s="16">
         <v>1</v>
@@ -2370,30 +3270,30 @@
       </c>
       <c r="F19" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5332</v>
+        <v>KT5427F</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H19" s="4">
-        <v>0</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>142</v>
+        <v>28</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>344</v>
+        <v>177</v>
       </c>
       <c r="C20" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6" t="s">
@@ -2401,27 +3301,27 @@
       </c>
       <c r="F20" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5332</v>
+        <v>KT5341</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="H20" s="4">
-        <v>0</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>142</v>
+        <v>28</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C21" s="16">
         <v>1</v>
@@ -2432,20 +3332,18 @@
       </c>
       <c r="F21" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5332</v>
+        <v>KT5411</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>279</v>
       </c>
       <c r="H21" s="4">
-        <v>0</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>142</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
@@ -2469,7 +3367,7 @@
         <v>280</v>
       </c>
       <c r="H22" s="4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I22" s="13" t="s">
         <v>96</v>
@@ -2480,10 +3378,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>274</v>
+        <v>197</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>277</v>
+        <v>332</v>
       </c>
       <c r="C23" s="16">
         <v>1</v>
@@ -2494,28 +3392,28 @@
       </c>
       <c r="F23" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5343</v>
+        <v>KT5361F</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H23" s="4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>253</v>
+        <v>201</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>254</v>
+        <v>346</v>
       </c>
       <c r="C24" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6" t="s">
@@ -2523,27 +3421,25 @@
       </c>
       <c r="F24" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5349</v>
+        <v>KT5412B</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H24" s="4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>253</v>
+        <v>201</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>255</v>
+        <v>202</v>
       </c>
       <c r="C25" s="16">
         <v>1</v>
@@ -2554,27 +3450,25 @@
       </c>
       <c r="F25" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5349</v>
+        <v>KT5412B</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H25" s="4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>253</v>
+        <v>201</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>257</v>
+        <v>347</v>
       </c>
       <c r="C26" s="16">
         <v>1</v>
@@ -2585,30 +3479,28 @@
       </c>
       <c r="F26" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5349</v>
+        <v>KT5412B</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H26" s="4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>328</v>
+        <v>201</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>326</v>
+        <v>203</v>
       </c>
       <c r="C27" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
@@ -2616,25 +3508,27 @@
       </c>
       <c r="F27" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5355</v>
+        <v>KT5412B</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H27" s="4">
-        <v>0</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="J27" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>328</v>
+        <v>211</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>327</v>
+        <v>212</v>
       </c>
       <c r="C28" s="16">
         <v>1</v>
@@ -2645,25 +3539,27 @@
       </c>
       <c r="F28" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5355</v>
+        <v>KT5455F</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>283</v>
       </c>
       <c r="H28" s="4">
-        <v>0</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="J28" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>328</v>
+        <v>218</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>325</v>
+        <v>222</v>
       </c>
       <c r="C29" s="16">
         <v>1</v>
@@ -2674,25 +3570,27 @@
       </c>
       <c r="F29" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5355</v>
+        <v>KT5419</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H29" s="4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="J29" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="C30" s="16">
         <v>1</v>
@@ -2703,27 +3601,25 @@
       </c>
       <c r="F30" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5358</v>
+        <v>KT5039</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>282</v>
       </c>
       <c r="H30" s="4">
-        <v>0</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>117</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="C31" s="16">
         <v>1</v>
@@ -2734,25 +3630,25 @@
       </c>
       <c r="F31" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5361F</v>
+        <v>KT5437</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H31" s="4">
-        <v>0</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="J31" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C32" s="16">
         <v>1</v>
@@ -2763,27 +3659,25 @@
       </c>
       <c r="F32" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5366</v>
+        <v>KT5390</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H32" s="4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>88</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>154</v>
+        <v>235</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>155</v>
+        <v>330</v>
       </c>
       <c r="C33" s="16">
         <v>1</v>
@@ -2794,27 +3688,25 @@
       </c>
       <c r="F33" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5385</v>
+        <v>KT5390</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H33" s="4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>134</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>154</v>
+        <v>253</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>156</v>
+        <v>254</v>
       </c>
       <c r="C34" s="16">
         <v>1</v>
@@ -2825,27 +3717,27 @@
       </c>
       <c r="F34" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5385</v>
+        <v>KT5349</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H34" s="4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>133</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>154</v>
+        <v>253</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>157</v>
+        <v>255</v>
       </c>
       <c r="C35" s="16">
         <v>1</v>
@@ -2856,27 +3748,27 @@
       </c>
       <c r="F35" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5385</v>
+        <v>KT5349</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H35" s="4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>154</v>
+        <v>253</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>157</v>
+        <v>257</v>
       </c>
       <c r="C36" s="16">
         <v>1</v>
@@ -2887,27 +3779,27 @@
       </c>
       <c r="F36" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5385</v>
+        <v>KT5349</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H36" s="4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C37" s="16">
         <v>1</v>
@@ -2918,25 +3810,25 @@
       </c>
       <c r="F37" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5390</v>
+        <v>KT5059FB</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="H37" s="4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C38" s="16">
         <v>1</v>
@@ -2947,28 +3839,28 @@
       </c>
       <c r="F38" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5390</v>
+        <v>KT5059FB</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="H38" s="4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>236</v>
+        <v>274</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>275</v>
       </c>
       <c r="C39" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6" t="s">
@@ -2976,28 +3868,30 @@
       </c>
       <c r="F39" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5390</v>
+        <v>KT5343</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>354</v>
+        <v>282</v>
       </c>
       <c r="H39" s="4">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="J39" s="3"/>
+        <v>291</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>199</v>
+        <v>274</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>200</v>
+        <v>276</v>
       </c>
       <c r="C40" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6" t="s">
@@ -3005,25 +3899,27 @@
       </c>
       <c r="F40" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5391F</v>
+        <v>KT5343</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H40" s="4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J40" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>334</v>
+        <v>277</v>
       </c>
       <c r="C41" s="16">
         <v>1</v>
@@ -3034,25 +3930,25 @@
       </c>
       <c r="F41" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5393</v>
+        <v>KT5343</v>
       </c>
       <c r="G41" s="14" t="s">
         <v>282</v>
       </c>
       <c r="H41" s="4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>252</v>
+        <v>174</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C42" s="16">
         <v>1</v>
@@ -3063,25 +3959,27 @@
       </c>
       <c r="F42" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5393</v>
+        <v>KT5427F</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H42" s="4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J42" s="3"/>
+        <v>113</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>337</v>
+        <v>200</v>
       </c>
       <c r="C43" s="16">
         <v>1</v>
@@ -3092,25 +3990,25 @@
       </c>
       <c r="F43" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5402</v>
+        <v>KT5391F</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H43" s="4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>333</v>
+        <v>230</v>
       </c>
       <c r="C44" s="16">
         <v>1</v>
@@ -3121,25 +4019,25 @@
       </c>
       <c r="F44" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5411</v>
+        <v>KT5440</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="H44" s="4">
-        <v>0</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>100</v>
+        <v>28</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>202</v>
+        <v>345</v>
       </c>
       <c r="C45" s="16">
         <v>1</v>
@@ -3150,25 +4048,25 @@
       </c>
       <c r="F45" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5412B</v>
+        <v>KT5440</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="H45" s="4">
-        <v>0</v>
-      </c>
-      <c r="I45" s="13" t="s">
-        <v>85</v>
+        <v>28</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>347</v>
+        <v>221</v>
       </c>
       <c r="C46" s="16">
         <v>1</v>
@@ -3179,25 +4077,27 @@
       </c>
       <c r="F46" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5412B</v>
+        <v>KT5419</v>
       </c>
       <c r="G46" s="14" t="s">
         <v>279</v>
       </c>
       <c r="H46" s="4">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="J46" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="C47" s="16">
         <v>1</v>
@@ -3208,27 +4108,27 @@
       </c>
       <c r="F47" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5418</v>
+        <v>KT5316</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H47" s="4">
-        <v>0</v>
-      </c>
-      <c r="I47" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>105</v>
+        <v>37</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>218</v>
+        <v>159</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="C48" s="16">
         <v>1</v>
@@ -3239,27 +4139,27 @@
       </c>
       <c r="F48" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5419</v>
+        <v>KT5316</v>
       </c>
       <c r="G48" s="14" t="s">
         <v>279</v>
       </c>
       <c r="H48" s="4">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="C49" s="16">
         <v>1</v>
@@ -3270,27 +4170,27 @@
       </c>
       <c r="F49" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5419</v>
+        <v>KT5418</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="H49" s="4">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>175</v>
+        <v>336</v>
       </c>
       <c r="C50" s="16">
         <v>1</v>
@@ -3301,27 +4201,27 @@
       </c>
       <c r="F50" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5427F</v>
+        <v>KT5366</v>
       </c>
       <c r="G50" s="14" t="s">
         <v>281</v>
       </c>
       <c r="H50" s="4">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>323</v>
+        <v>144</v>
       </c>
       <c r="C51" s="16">
         <v>1</v>
@@ -3332,27 +4232,27 @@
       </c>
       <c r="F51" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5427F</v>
+        <v>KT5332</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H51" s="4">
-        <v>0</v>
-      </c>
-      <c r="I51" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>112</v>
+        <v>46</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>232</v>
+        <v>143</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C52" s="16">
         <v>1</v>
@@ -3363,25 +4263,27 @@
       </c>
       <c r="F52" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5437</v>
+        <v>KT5332</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H52" s="4">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J52" s="7"/>
+        <v>292</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>204</v>
+        <v>143</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C53" s="16">
         <v>1</v>
@@ -3392,28 +4294,30 @@
       </c>
       <c r="F53" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5438B</v>
+        <v>KT5332</v>
       </c>
       <c r="G53" s="14" t="s">
         <v>279</v>
       </c>
       <c r="H53" s="4">
-        <v>0</v>
-      </c>
-      <c r="I53" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="J53" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>204</v>
+        <v>143</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>351</v>
+        <v>145</v>
       </c>
       <c r="C54" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6" t="s">
@@ -3421,25 +4325,25 @@
       </c>
       <c r="F54" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5438B</v>
+        <v>KT5332</v>
       </c>
       <c r="G54" s="14" t="s">
         <v>279</v>
       </c>
       <c r="H54" s="4">
-        <v>0</v>
-      </c>
-      <c r="I54" s="13" t="s">
-        <v>84</v>
+        <v>46</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>293</v>
       </c>
       <c r="J54" s="3"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C55" s="16">
         <v>1</v>
@@ -3450,25 +4354,25 @@
       </c>
       <c r="F55" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5438B</v>
+        <v>KT5402</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H55" s="4">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="J55" s="3"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>348</v>
+        <v>167</v>
       </c>
       <c r="C56" s="16">
         <v>1</v>
@@ -3479,18 +4383,20 @@
       </c>
       <c r="F56" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5438B</v>
+        <v>KT5060</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H56" s="4">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="J56" s="3"/>
+        <v>120</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
@@ -3524,72 +4430,50 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="C58" s="16">
-        <v>1</v>
-      </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="F58" s="6" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5440</v>
-      </c>
-      <c r="G58" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="H58" s="4">
-        <v>0</v>
-      </c>
-      <c r="I58" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="J58" s="3"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="C58" s="18"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="20">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="21"/>
+      <c r="H58" s="22">
+        <v>46</v>
+      </c>
+      <c r="I58" s="8"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="C59" s="16">
-        <v>1</v>
-      </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="F59" s="6" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5440</v>
-      </c>
-      <c r="G59" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="H59" s="4">
-        <v>0</v>
-      </c>
-      <c r="I59" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="J59" s="3"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="C59" s="18"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="20">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="21"/>
+      <c r="H59" s="22">
+        <v>46</v>
+      </c>
+      <c r="I59" s="8"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>331</v>
+        <v>248</v>
       </c>
       <c r="C60" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6" t="s">
@@ -3597,25 +4481,27 @@
       </c>
       <c r="F60" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5442</v>
+        <v>KT5392</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H60" s="4">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="J60" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>211</v>
+        <v>258</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="C61" s="16">
         <v>1</v>
@@ -3626,256 +4512,272 @@
       </c>
       <c r="F61" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5455F</v>
+        <v>KT5059</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="H61" s="4">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I61" s="13" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
+      <c r="A62" s="8" t="s">
+        <v>272</v>
+      </c>
       <c r="B62" s="12" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="C62" s="16">
         <v>1</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="F62" s="6">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
+        <v>286</v>
+      </c>
+      <c r="F62" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5328</v>
       </c>
       <c r="G62" s="14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H62" s="4">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="J62" s="7" t="s">
-        <v>300</v>
+        <v>17</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
+      <c r="A63" s="8" t="s">
+        <v>154</v>
+      </c>
       <c r="B63" s="12" t="s">
-        <v>309</v>
+        <v>155</v>
       </c>
       <c r="C63" s="16">
         <v>1</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="F63" s="6">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
+        <v>286</v>
+      </c>
+      <c r="F63" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5385</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H63" s="4">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="I63" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="J63" s="7" t="s">
-        <v>300</v>
+        <v>131</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
+      <c r="A64" s="8" t="s">
+        <v>154</v>
+      </c>
       <c r="B64" s="12" t="s">
-        <v>306</v>
+        <v>156</v>
       </c>
       <c r="C64" s="16">
         <v>1</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="F64" s="6">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
+        <v>286</v>
+      </c>
+      <c r="F64" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5385</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H64" s="4">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="I64" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="J64" s="7" t="s">
-        <v>300</v>
+        <v>131</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
+      <c r="A65" s="8" t="s">
+        <v>154</v>
+      </c>
       <c r="B65" s="12" t="s">
-        <v>223</v>
+        <v>157</v>
       </c>
       <c r="C65" s="16">
         <v>1</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="F65" s="6">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
+        <v>286</v>
+      </c>
+      <c r="F65" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5385</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="H65" s="4">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>317</v>
+        <v>131</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
+      <c r="A66" s="8" t="s">
+        <v>154</v>
+      </c>
       <c r="B66" s="12" t="s">
-        <v>228</v>
+        <v>157</v>
       </c>
       <c r="C66" s="16">
         <v>1</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="F66" s="6">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
-      </c>
-      <c r="G66" s="14"/>
+        <v>286</v>
+      </c>
+      <c r="F66" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5385</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>283</v>
+      </c>
       <c r="H66" s="4">
-        <v>0</v>
-      </c>
-      <c r="I66" s="8" t="s">
-        <v>60</v>
+        <v>46</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>131</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
+      <c r="A67" s="8" t="s">
+        <v>186</v>
+      </c>
       <c r="B67" s="12" t="s">
-        <v>231</v>
+        <v>342</v>
       </c>
       <c r="C67" s="16">
         <v>1</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="F67" s="6">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
+        <v>286</v>
+      </c>
+      <c r="F67" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5057</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="H67" s="4">
-        <v>0</v>
-      </c>
-      <c r="I67" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="J67" s="7" t="s">
-        <v>302</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="J67" s="3"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
+      <c r="A68" s="8" t="s">
+        <v>186</v>
+      </c>
       <c r="B68" s="12" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="C68" s="16">
         <v>1</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="F68" s="6">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
+        <v>286</v>
+      </c>
+      <c r="F68" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5057</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="H68" s="4">
-        <v>0</v>
-      </c>
-      <c r="I68" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="J68" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="J68" s="3"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
+      <c r="A69" s="8" t="s">
+        <v>204</v>
+      </c>
       <c r="B69" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C69" s="16">
         <v>1</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="F69" s="6">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
+        <v>286</v>
+      </c>
+      <c r="F69" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5438B</v>
       </c>
       <c r="G69" s="14" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="H69" s="4">
-        <v>0</v>
-      </c>
-      <c r="I69" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="J69" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="I69" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="J69" s="3"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="C70" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6" t="s">
@@ -3883,28 +4785,28 @@
       </c>
       <c r="F70" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5330F</v>
+        <v>KT5438B</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H70" s="4">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I70" s="13" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="J70" s="3"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>145</v>
+        <v>349</v>
       </c>
       <c r="C71" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="6" t="s">
@@ -3912,28 +4814,28 @@
       </c>
       <c r="F71" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5332</v>
+        <v>KT5438B</v>
       </c>
       <c r="G71" s="14" t="s">
         <v>279</v>
       </c>
       <c r="H71" s="4">
-        <v>0</v>
-      </c>
-      <c r="I71" s="8" t="s">
-        <v>293</v>
+        <v>46</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="J71" s="3"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>177</v>
+        <v>348</v>
       </c>
       <c r="C72" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="6" t="s">
@@ -3941,30 +4843,28 @@
       </c>
       <c r="F72" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5341</v>
+        <v>KT5438B</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H72" s="4">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I72" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>111</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="J72" s="3"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="C73" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="6" t="s">
@@ -3972,30 +4872,28 @@
       </c>
       <c r="F73" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5343</v>
+        <v>KT5442</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H73" s="4">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I73" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="J73" s="5"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="C74" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74" s="6"/>
       <c r="E74" s="6" t="s">
@@ -4003,30 +4901,28 @@
       </c>
       <c r="F74" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5343</v>
+        <v>KT5355</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H74" s="4">
-        <v>0</v>
-      </c>
-      <c r="I74" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="I74" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="J74" s="7"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>245</v>
+        <v>328</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>248</v>
+        <v>327</v>
       </c>
       <c r="C75" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="6" t="s">
@@ -4034,30 +4930,28 @@
       </c>
       <c r="F75" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5392</v>
+        <v>KT5355</v>
       </c>
       <c r="G75" s="14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H75" s="4">
-        <v>0</v>
-      </c>
-      <c r="I75" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="I75" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="J75" s="7"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>201</v>
+        <v>328</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C76" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76" s="6"/>
       <c r="E76" s="6" t="s">
@@ -4065,28 +4959,28 @@
       </c>
       <c r="F76" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5412B</v>
+        <v>KT5355</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="H76" s="4">
-        <v>0</v>
-      </c>
-      <c r="I76" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="J76" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="I76" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="J76" s="7"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>203</v>
+        <v>334</v>
       </c>
       <c r="C77" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="6" t="s">
@@ -4094,57 +4988,55 @@
       </c>
       <c r="F77" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5412B</v>
+        <v>KT5393</v>
       </c>
       <c r="G77" s="14" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H77" s="4">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I77" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>301</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="J77" s="3"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="8"/>
+      <c r="A78" s="8" t="s">
+        <v>252</v>
+      </c>
       <c r="B78" s="12" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="C78" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D78" s="6"/>
       <c r="E78" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="F78" s="6">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
+        <v>286</v>
+      </c>
+      <c r="F78" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5393</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H78" s="4">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="I78" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="J78" s="7" t="s">
-        <v>300</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="J78" s="3"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="12" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C79" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79" s="6"/>
       <c r="E79" s="6" t="s">
@@ -4154,26 +5046,22 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
-      <c r="G79" s="14" t="s">
-        <v>281</v>
-      </c>
+      <c r="G79" s="14"/>
       <c r="H79" s="4">
-        <v>15</v>
-      </c>
-      <c r="I79" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="J79" s="7" t="s">
-        <v>300</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="J79" s="3"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="12" t="s">
-        <v>307</v>
+        <v>223</v>
       </c>
       <c r="C80" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D80" s="6"/>
       <c r="E80" s="6" t="s">
@@ -4184,55 +5072,47 @@
         <v>0</v>
       </c>
       <c r="G80" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H80" s="4">
-        <v>15</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="H80" s="4"/>
       <c r="I80" s="13" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
-        <v>258</v>
-      </c>
+      <c r="A81" s="8"/>
       <c r="B81" s="12" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="C81" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" s="6"/>
       <c r="E81" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="F81" s="6" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5059</v>
-      </c>
-      <c r="G81" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="H81" s="4">
-        <v>0</v>
-      </c>
-      <c r="I81" s="13" t="s">
-        <v>29</v>
+        <v>318</v>
+      </c>
+      <c r="F81" s="6">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G81" s="14"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>258</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C82" s="16">
         <v>0</v>
@@ -4248,22 +5128,20 @@
       <c r="G82" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="H82" s="4">
-        <v>0</v>
-      </c>
+      <c r="H82" s="4"/>
       <c r="I82" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>164</v>
+        <v>258</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>165</v>
+        <v>261</v>
       </c>
       <c r="C83" s="16">
         <v>0</v>
@@ -4274,27 +5152,25 @@
       </c>
       <c r="F83" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5060</v>
+        <v>KT5059</v>
       </c>
       <c r="G83" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H83" s="4">
-        <v>0</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="H83" s="4"/>
       <c r="I83" s="13" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>164</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C84" s="16">
         <v>0</v>
@@ -4310,22 +5186,20 @@
       <c r="G84" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="H84" s="4">
-        <v>0</v>
-      </c>
+      <c r="H84" s="4"/>
       <c r="I84" s="13" t="s">
         <v>120</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>164</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C85" s="16">
         <v>0</v>
@@ -4341,22 +5215,20 @@
       <c r="G85" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="H85" s="4">
-        <v>0</v>
-      </c>
+      <c r="H85" s="4"/>
       <c r="I85" s="13" t="s">
         <v>120</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>269</v>
+        <v>164</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>270</v>
+        <v>168</v>
       </c>
       <c r="C86" s="16">
         <v>0</v>
@@ -4367,27 +5239,25 @@
       </c>
       <c r="F86" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5081</v>
+        <v>KT5060</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="H86" s="4">
-        <v>0</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="H86" s="4"/>
       <c r="I86" s="13" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>269</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C87" s="16">
         <v>0</v>
@@ -4403,22 +5273,20 @@
       <c r="G87" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="H87" s="4">
-        <v>0</v>
-      </c>
+      <c r="H87" s="4"/>
       <c r="I87" s="13" t="s">
         <v>19</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>159</v>
+        <v>269</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>162</v>
+        <v>271</v>
       </c>
       <c r="C88" s="16">
         <v>0</v>
@@ -4429,27 +5297,25 @@
       </c>
       <c r="F88" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5316</v>
+        <v>KT5081</v>
       </c>
       <c r="G88" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="H88" s="4">
-        <v>0</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="H88" s="4"/>
       <c r="I88" s="13" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C89" s="16">
         <v>0</v>
@@ -4465,22 +5331,20 @@
       <c r="G89" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H89" s="4">
-        <v>0</v>
-      </c>
+      <c r="H89" s="4"/>
       <c r="I89" s="13" t="s">
         <v>125</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>237</v>
+        <v>159</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>238</v>
+        <v>163</v>
       </c>
       <c r="C90" s="16">
         <v>0</v>
@@ -4491,25 +5355,25 @@
       </c>
       <c r="F90" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5317</v>
+        <v>KT5316</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="H90" s="4">
-        <v>0</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="H90" s="4"/>
       <c r="I90" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="J90" s="3"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>149</v>
+        <v>237</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>150</v>
+        <v>238</v>
       </c>
       <c r="C91" s="16">
         <v>0</v>
@@ -4520,27 +5384,23 @@
       </c>
       <c r="F91" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5319</v>
+        <v>KT5317</v>
       </c>
       <c r="G91" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="H91" s="4">
-        <v>0</v>
-      </c>
+      <c r="H91" s="4"/>
       <c r="I91" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="J91" s="3"/>
+    </row>
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>149</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C92" s="16">
         <v>0</v>
@@ -4556,22 +5416,20 @@
       <c r="G92" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="H92" s="4">
-        <v>0</v>
-      </c>
+      <c r="H92" s="4"/>
       <c r="I92" s="13" t="s">
         <v>136</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="C93" s="16">
         <v>0</v>
@@ -4582,27 +5440,25 @@
       </c>
       <c r="F93" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5337</v>
+        <v>KT5319</v>
       </c>
       <c r="G93" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="H93" s="4">
-        <v>0</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="H93" s="4"/>
       <c r="I93" s="13" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>188</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C94" s="16">
         <v>0</v>
@@ -4618,22 +5474,20 @@
       <c r="G94" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="H94" s="4">
-        <v>0</v>
-      </c>
+      <c r="H94" s="4"/>
       <c r="I94" s="13" t="s">
         <v>96</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>188</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C95" s="16">
         <v>0</v>
@@ -4649,22 +5503,20 @@
       <c r="G95" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="H95" s="4">
-        <v>0</v>
-      </c>
+      <c r="H95" s="4"/>
       <c r="I95" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="J95" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J95" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="C96" s="16">
         <v>0</v>
@@ -4675,27 +5527,25 @@
       </c>
       <c r="F96" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5341</v>
+        <v>KT5337</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="H96" s="4">
-        <v>0</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="H96" s="4"/>
       <c r="I96" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>176</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C97" s="16">
         <v>0</v>
@@ -4711,22 +5561,20 @@
       <c r="G97" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="H97" s="4">
-        <v>0</v>
-      </c>
+      <c r="H97" s="4"/>
       <c r="I97" s="13" t="s">
         <v>108</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>176</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C98" s="16">
         <v>0</v>
@@ -4742,22 +5590,20 @@
       <c r="G98" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="H98" s="4">
-        <v>0</v>
-      </c>
+      <c r="H98" s="4"/>
       <c r="I98" s="13" t="s">
         <v>108</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>274</v>
+        <v>176</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>277</v>
+        <v>180</v>
       </c>
       <c r="C99" s="16">
         <v>0</v>
@@ -4768,27 +5614,25 @@
       </c>
       <c r="F99" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5343</v>
+        <v>KT5341</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="H99" s="4">
-        <v>0</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="H99" s="4"/>
       <c r="I99" s="13" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>193</v>
+        <v>274</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="C100" s="16">
         <v>0</v>
@@ -4799,27 +5643,25 @@
       </c>
       <c r="F100" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5352</v>
+        <v>KT5343</v>
       </c>
       <c r="G100" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="H100" s="4">
-        <v>0</v>
-      </c>
+      <c r="H100" s="4"/>
       <c r="I100" s="13" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>193</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C101" s="16">
         <v>0</v>
@@ -4835,22 +5677,20 @@
       <c r="G101" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="H101" s="4">
-        <v>0</v>
-      </c>
+      <c r="H101" s="4"/>
       <c r="I101" s="13" t="s">
         <v>92</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>193</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C102" s="16">
         <v>0</v>
@@ -4866,22 +5706,20 @@
       <c r="G102" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="H102" s="4">
-        <v>0</v>
-      </c>
+      <c r="H102" s="4"/>
       <c r="I102" s="13" t="s">
         <v>92</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="C103" s="16">
         <v>0</v>
@@ -4892,27 +5730,25 @@
       </c>
       <c r="F103" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5358</v>
+        <v>KT5352</v>
       </c>
       <c r="G103" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="H103" s="4">
-        <v>0</v>
-      </c>
+      <c r="H103" s="4"/>
       <c r="I103" s="13" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>169</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C104" s="16">
         <v>0</v>
@@ -4928,22 +5764,20 @@
       <c r="G104" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="H104" s="4">
-        <v>0</v>
-      </c>
+      <c r="H104" s="4"/>
       <c r="I104" s="13" t="s">
         <v>115</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>169</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C105" s="16">
         <v>0</v>
@@ -4959,22 +5793,20 @@
       <c r="G105" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="H105" s="4">
-        <v>0</v>
-      </c>
+      <c r="H105" s="4"/>
       <c r="I105" s="13" t="s">
         <v>115</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>245</v>
+        <v>169</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>246</v>
+        <v>173</v>
       </c>
       <c r="C106" s="16">
         <v>0</v>
@@ -4985,27 +5817,25 @@
       </c>
       <c r="F106" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5392</v>
+        <v>KT5358</v>
       </c>
       <c r="G106" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="H106" s="4">
-        <v>0</v>
-      </c>
-      <c r="I106" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J106" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H106" s="4"/>
+      <c r="I106" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>245</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C107" s="16">
         <v>0</v>
@@ -5021,22 +5851,20 @@
       <c r="G107" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="H107" s="4">
-        <v>0</v>
-      </c>
-      <c r="I107" s="13" t="s">
+      <c r="H107" s="4"/>
+      <c r="I107" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="J107" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J107" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>245</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C108" s="16">
         <v>0</v>
@@ -5052,22 +5880,20 @@
       <c r="G108" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="H108" s="4">
-        <v>0</v>
-      </c>
+      <c r="H108" s="4"/>
       <c r="I108" s="13" t="s">
         <v>41</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C109" s="16">
         <v>0</v>
@@ -5078,25 +5904,25 @@
       </c>
       <c r="F109" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5403</v>
+        <v>KT5392</v>
       </c>
       <c r="G109" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="H109" s="4">
-        <v>0</v>
-      </c>
+      <c r="H109" s="4"/>
       <c r="I109" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J109" s="3"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="C110" s="16">
         <v>0</v>
@@ -5107,27 +5933,23 @@
       </c>
       <c r="F110" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5408</v>
+        <v>KT5403</v>
       </c>
       <c r="G110" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="H110" s="4">
-        <v>0</v>
-      </c>
+      <c r="H110" s="4"/>
       <c r="I110" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J110" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="J110" s="3"/>
+    </row>
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>264</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C111" s="16">
         <v>0</v>
@@ -5143,17 +5965,15 @@
       <c r="G111" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="H111" s="4">
-        <v>0</v>
-      </c>
+      <c r="H111" s="4"/>
       <c r="I111" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>264</v>
       </c>
@@ -5174,9 +5994,7 @@
       <c r="G112" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="H112" s="4">
-        <v>0</v>
-      </c>
+      <c r="H112" s="4"/>
       <c r="I112" s="13" t="s">
         <v>22</v>
       </c>
@@ -5184,12 +6002,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>264</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C113" s="16">
         <v>0</v>
@@ -5205,22 +6023,20 @@
       <c r="G113" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="H113" s="4">
-        <v>0</v>
-      </c>
+      <c r="H113" s="4"/>
       <c r="I113" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>264</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C114" s="16">
         <v>0</v>
@@ -5236,17 +6052,15 @@
       <c r="G114" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="H114" s="4">
-        <v>0</v>
-      </c>
+      <c r="H114" s="4"/>
       <c r="I114" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>264</v>
       </c>
@@ -5267,9 +6081,7 @@
       <c r="G115" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="H115" s="4">
-        <v>0</v>
-      </c>
+      <c r="H115" s="4"/>
       <c r="I115" s="13" t="s">
         <v>22</v>
       </c>
@@ -5277,12 +6089,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
-        <v>201</v>
+        <v>264</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>202</v>
+        <v>268</v>
       </c>
       <c r="C116" s="16">
         <v>0</v>
@@ -5293,27 +6105,25 @@
       </c>
       <c r="F116" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5412B</v>
+        <v>KT5408</v>
       </c>
       <c r="G116" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="H116" s="4">
-        <v>0</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="H116" s="4"/>
       <c r="I116" s="13" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="C117" s="16">
         <v>0</v>
@@ -5324,27 +6134,25 @@
       </c>
       <c r="F117" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5418</v>
+        <v>KT5412B</v>
       </c>
       <c r="G117" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="H117" s="4">
-        <v>0</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="H117" s="4"/>
       <c r="I117" s="13" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>181</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C118" s="16">
         <v>0</v>
@@ -5360,22 +6168,20 @@
       <c r="G118" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="H118" s="4">
-        <v>0</v>
-      </c>
+      <c r="H118" s="4"/>
       <c r="I118" s="13" t="s">
         <v>103</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>181</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C119" s="16">
         <v>0</v>
@@ -5391,22 +6197,20 @@
       <c r="G119" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="H119" s="4">
-        <v>0</v>
-      </c>
+      <c r="H119" s="4"/>
       <c r="I119" s="13" t="s">
         <v>103</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="C120" s="16">
         <v>0</v>
@@ -5417,22 +6221,20 @@
       </c>
       <c r="F120" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5419</v>
+        <v>KT5418</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="H120" s="4">
-        <v>0</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="H120" s="4"/>
       <c r="I120" s="13" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>218</v>
       </c>
@@ -5453,22 +6255,20 @@
       <c r="G121" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H121" s="4">
-        <v>0</v>
-      </c>
+      <c r="H121" s="4"/>
       <c r="I121" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>218</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C122" s="16">
         <v>0</v>
@@ -5484,22 +6284,20 @@
       <c r="G122" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H122" s="4">
-        <v>0</v>
-      </c>
+      <c r="H122" s="4"/>
       <c r="I122" s="13" t="s">
         <v>69</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C123" s="16">
         <v>0</v>
@@ -5510,27 +6308,25 @@
       </c>
       <c r="F123" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5423</v>
+        <v>KT5419</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="H123" s="4">
-        <v>0</v>
-      </c>
-      <c r="I123" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="J123" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="H123" s="4"/>
+      <c r="I123" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="C124" s="16">
         <v>0</v>
@@ -5541,27 +6337,25 @@
       </c>
       <c r="F124" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5425</v>
+        <v>KT5423</v>
       </c>
       <c r="G124" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="H124" s="4">
-        <v>0</v>
-      </c>
-      <c r="I124" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J124" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H124" s="4"/>
+      <c r="I124" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J124" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>213</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C125" s="16">
         <v>0</v>
@@ -5577,22 +6371,20 @@
       <c r="G125" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="H125" s="4">
-        <v>0</v>
-      </c>
+      <c r="H125" s="4"/>
       <c r="I125" s="13" t="s">
         <v>73</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>213</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C126" s="16">
         <v>0</v>
@@ -5608,22 +6400,20 @@
       <c r="G126" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="H126" s="4">
-        <v>0</v>
-      </c>
+      <c r="H126" s="4"/>
       <c r="I126" s="13" t="s">
         <v>73</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>213</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C127" s="16">
         <v>0</v>
@@ -5639,22 +6429,20 @@
       <c r="G127" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="H127" s="4">
-        <v>0</v>
-      </c>
+      <c r="H127" s="4"/>
       <c r="I127" s="13" t="s">
         <v>73</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="C128" s="16">
         <v>0</v>
@@ -5665,27 +6453,25 @@
       </c>
       <c r="F128" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5428</v>
+        <v>KT5425</v>
       </c>
       <c r="G128" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="H128" s="4">
-        <v>0</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="H128" s="4"/>
       <c r="I128" s="13" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>239</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C129" s="16">
         <v>0</v>
@@ -5701,22 +6487,20 @@
       <c r="G129" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="H129" s="4">
-        <v>0</v>
-      </c>
+      <c r="H129" s="4"/>
       <c r="I129" s="13" t="s">
         <v>48</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
         <v>239</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C130" s="16">
         <v>0</v>
@@ -5732,22 +6516,20 @@
       <c r="G130" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="H130" s="4">
-        <v>0</v>
-      </c>
+      <c r="H130" s="4"/>
       <c r="I130" s="13" t="s">
         <v>48</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
         <v>239</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C131" s="16">
         <v>0</v>
@@ -5763,22 +6545,20 @@
       <c r="G131" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="H131" s="4">
-        <v>0</v>
-      </c>
+      <c r="H131" s="4"/>
       <c r="I131" s="13" t="s">
         <v>48</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="C132" s="16">
         <v>0</v>
@@ -5789,27 +6569,25 @@
       </c>
       <c r="F132" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5436P</v>
+        <v>KT5428</v>
       </c>
       <c r="G132" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="H132" s="4">
-        <v>0</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="H132" s="4"/>
       <c r="I132" s="13" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="C133" s="16">
         <v>0</v>
@@ -5820,27 +6598,25 @@
       </c>
       <c r="F133" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5437</v>
+        <v>KT5436P</v>
       </c>
       <c r="G133" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="H133" s="4">
-        <v>0</v>
-      </c>
-      <c r="I133" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J133" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="H133" s="4"/>
+      <c r="I133" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
         <v>232</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C134" s="16">
         <v>0</v>
@@ -5856,22 +6632,20 @@
       <c r="G134" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="H134" s="4">
-        <v>0</v>
-      </c>
+      <c r="H134" s="4"/>
       <c r="I134" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J134" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="C135" s="16">
         <v>0</v>
@@ -5882,50 +6656,52 @@
       </c>
       <c r="F135" s="6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5445B</v>
+        <v>KT5437</v>
       </c>
       <c r="G135" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="H135" s="4">
-        <v>0</v>
-      </c>
-      <c r="I135" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="J135" s="3"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="8"/>
+        <v>283</v>
+      </c>
+      <c r="H135" s="4"/>
+      <c r="I135" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J135" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="8" t="s">
+        <v>207</v>
+      </c>
       <c r="B136" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="C136" s="16"/>
+        <v>208</v>
+      </c>
+      <c r="C136" s="16">
+        <v>0</v>
+      </c>
       <c r="D136" s="6"/>
       <c r="E136" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="F136" s="6">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
-      </c>
-      <c r="G136" s="14"/>
-      <c r="H136" s="4">
-        <v>0</v>
-      </c>
-      <c r="I136" s="8" t="s">
-        <v>312</v>
+        <v>286</v>
+      </c>
+      <c r="F136" s="6" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5445B</v>
+      </c>
+      <c r="G136" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="H136" s="4"/>
+      <c r="I136" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="J136" s="3"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
       <c r="B137" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="C137" s="16">
-        <v>1</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="C137" s="16"/>
       <c r="D137" s="6"/>
       <c r="E137" s="6" t="s">
         <v>318</v>
@@ -5935,20 +6711,20 @@
         <v>0</v>
       </c>
       <c r="G137" s="14"/>
-      <c r="H137" s="4">
-        <v>0</v>
-      </c>
+      <c r="H137" s="4"/>
       <c r="I137" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J137" s="3"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
       <c r="B138" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="C138" s="16"/>
+        <v>231</v>
+      </c>
+      <c r="C138" s="16">
+        <v>1</v>
+      </c>
       <c r="D138" s="6"/>
       <c r="E138" s="6" t="s">
         <v>318</v>
@@ -5957,19 +6733,21 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
-      <c r="G138" s="14"/>
-      <c r="H138" s="4">
-        <v>0</v>
-      </c>
-      <c r="I138" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="J138" s="3"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G138" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="H138" s="4"/>
+      <c r="I138" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J138" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
       <c r="B139" s="12" t="s">
-        <v>244</v>
+        <v>305</v>
       </c>
       <c r="C139" s="16"/>
       <c r="D139" s="6"/>
@@ -5981,24 +6759,18 @@
         <v>0</v>
       </c>
       <c r="G139" s="14"/>
-      <c r="H139" s="4">
-        <v>0</v>
-      </c>
-      <c r="I139" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="J139" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H139" s="4"/>
+      <c r="I139" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="J139" s="3"/>
+    </row>
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="B140" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="C140" s="16">
-        <v>1</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C140" s="16"/>
       <c r="D140" s="6"/>
       <c r="E140" s="6" t="s">
         <v>318</v>
@@ -6007,23 +6779,23 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
-      <c r="G140" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="H140" s="4">
-        <v>0</v>
-      </c>
+      <c r="G140" s="14"/>
+      <c r="H140" s="4"/>
       <c r="I140" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J140" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
       <c r="B141" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="C141" s="16"/>
+        <v>353</v>
+      </c>
+      <c r="C141" s="16">
+        <v>1</v>
+      </c>
       <c r="D141" s="6"/>
       <c r="E141" s="6" t="s">
         <v>318</v>
@@ -6032,72 +6804,225 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
-      <c r="G141" s="14"/>
-      <c r="H141" s="4">
-        <v>0</v>
-      </c>
-      <c r="I141" s="13" t="s">
+      <c r="G141" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="H141" s="4"/>
+      <c r="I141" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J141" s="7"/>
+    </row>
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="8"/>
+      <c r="B142" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C142" s="16"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="F142" s="6">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G142" s="14"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J141" s="3" t="s">
+      <c r="J142" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C142" s="15"/>
-    </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C143" s="15"/>
+      <c r="A143" s="8"/>
+      <c r="B143" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="C143" s="16">
+        <v>1</v>
+      </c>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="F143" s="6">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G143" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="H143" s="4"/>
+      <c r="I143" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J143" s="7"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C144" s="15"/>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C145" s="15"/>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C146" s="15"/>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C147" s="15"/>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C148" s="15"/>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C149" s="15"/>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C150" s="15"/>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C151" s="15"/>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="8"/>
+      <c r="B144" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C144" s="16">
+        <v>1</v>
+      </c>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="F144" s="6">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G144" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="H144" s="4"/>
+      <c r="I144" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J144" s="3"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="9"/>
+      <c r="B145" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C145" s="18"/>
+      <c r="D145" s="19"/>
+      <c r="E145" s="19"/>
+      <c r="F145" s="20">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G145" s="21"/>
+      <c r="H145" s="22"/>
+      <c r="I145" s="8"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="9"/>
+      <c r="B146" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C146" s="18"/>
+      <c r="D146" s="19"/>
+      <c r="E146" s="19"/>
+      <c r="F146" s="20">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G146" s="21"/>
+      <c r="H146" s="22"/>
+      <c r="I146" s="8"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="9"/>
+      <c r="B147" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C147" s="18"/>
+      <c r="D147" s="19"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="20">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G147" s="21"/>
+      <c r="H147" s="22"/>
+      <c r="I147" s="8"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="9"/>
+      <c r="B148" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="C148" s="18"/>
+      <c r="D148" s="19"/>
+      <c r="E148" s="19"/>
+      <c r="F148" s="20">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G148" s="21"/>
+      <c r="H148" s="22"/>
+      <c r="I148" s="8"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="9"/>
+      <c r="B149" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C149" s="18"/>
+      <c r="D149" s="19"/>
+      <c r="E149" s="19"/>
+      <c r="F149" s="20">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G149" s="21"/>
+      <c r="H149" s="22"/>
+      <c r="I149" s="8"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="9"/>
+      <c r="B150" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C150" s="18"/>
+      <c r="D150" s="19"/>
+      <c r="E150" s="19"/>
+      <c r="F150" s="20">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G150" s="21"/>
+      <c r="H150" s="22"/>
+      <c r="I150" s="8"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="9"/>
+      <c r="B151" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="C151" s="18"/>
+      <c r="D151" s="19"/>
+      <c r="E151" s="19"/>
+      <c r="F151" s="20">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G151" s="21"/>
+      <c r="H151" s="22"/>
+      <c r="I151" s="8"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C152" s="15"/>
     </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C153" s="15"/>
     </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C154" s="15"/>
     </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C155" s="15"/>
     </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C156" s="15"/>
     </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C157" s="15"/>
     </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C158" s="15"/>
     </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C159" s="15"/>
     </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C160" s="15"/>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.25">
@@ -6142,43 +7067,54 @@
     <row r="174" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C174" s="15"/>
     </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C175" s="15"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C141">
-    <cfRule type="expression" dxfId="11" priority="1">
+  <conditionalFormatting sqref="C2:C151">
+    <cfRule type="expression" dxfId="152" priority="3">
       <formula>RIGHT(B2,6)="ROSADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="151" priority="4">
       <formula>RIGHT(B2,6)="GUINDO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="150" priority="5">
       <formula>RIGHT(B2,5)="VERDE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="149" priority="6">
       <formula>RIGHT(B2,7)="NARANJA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="148" priority="7">
       <formula>RIGHT(B2,5)="PLATA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="147" priority="8">
       <formula>RIGHT(B2,4)="GRIS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="146" priority="9">
       <formula>RIGHT(B2,7)="CELESTE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="145" priority="10">
       <formula>RIGHT(B2,6)="BLANCO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="9">
+    <cfRule type="expression" dxfId="144" priority="11">
       <formula>RIGHT(B2,4)="ROJO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule type="expression" dxfId="143" priority="12">
       <formula>RIGHT(B2,5)="NEGRO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="11">
+    <cfRule type="expression" dxfId="142" priority="13">
       <formula>RIGHT(B2,4)="AZUL"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="12">
+    <cfRule type="expression" dxfId="141" priority="14">
       <formula>RIGHT(B2,8)="AMARILLO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E151">
+    <cfRule type="cellIs" dxfId="126" priority="2" operator="equal">
+      <formula>"OEM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="1" operator="equal">
+      <formula>"KINSMART"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kingcar.xlsx
+++ b/kingcar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83F9B25-9A2D-4740-9A77-71105CED16FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8707865-4E6B-484B-A1C2-A1783805889C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="409">
   <si>
     <t>CODIGO</t>
   </si>
@@ -1257,6 +1257,9 @@
   </si>
   <si>
     <t>https://v.etsystatic.com/video/upload/s--N1HCPFUD--/ac_none,c_crop,du_15,h_720,q_auto:good,w_1080,x_73,y_0/IMG_5161_yyawvo</t>
+  </si>
+  <si>
+    <t>McLaren 720S MORADO</t>
   </si>
 </sst>
 </file>
@@ -1714,22 +1717,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:I223" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24">
-  <autoFilter ref="A1:I223" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
-    <filterColumn colId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:I224" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24">
+  <autoFilter ref="A1:I224" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
+    <filterColumn colId="3">
       <filters>
-        <filter val="001"/>
-        <filter val="002"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters blank="1">
-        <filter val="KINSMART"/>
+        <filter val="OEM"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I222">
-    <sortCondition ref="B1:B223"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A109:I224">
+    <sortCondition ref="B1:B224"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="23"/>
@@ -2033,22 +2030,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I246"/>
+  <dimension ref="A1:I247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="C225" sqref="C225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="49.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="9" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="89.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="89.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="28.7109375" style="22" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2081,7 +2078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>78</v>
       </c>
@@ -2110,7 +2107,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>78</v>
       </c>
@@ -2137,7 +2134,7 @@
       </c>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>78</v>
       </c>
@@ -2164,7 +2161,7 @@
       </c>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>78</v>
       </c>
@@ -2218,7 +2215,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>81</v>
       </c>
@@ -2355,7 +2352,7 @@
       </c>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>83</v>
       </c>
@@ -2382,7 +2379,7 @@
       </c>
       <c r="I12" s="18"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>83</v>
       </c>
@@ -2409,7 +2406,7 @@
       </c>
       <c r="I13" s="18"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>83</v>
       </c>
@@ -2546,7 +2543,7 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>85</v>
       </c>
@@ -2575,7 +2572,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>89</v>
       </c>
@@ -2604,7 +2601,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>89</v>
       </c>
@@ -2660,7 +2657,7 @@
       </c>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>89</v>
       </c>
@@ -2770,7 +2767,7 @@
       </c>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>94</v>
       </c>
@@ -2797,7 +2794,7 @@
       </c>
       <c r="I27" s="18"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>96</v>
       </c>
@@ -2826,7 +2823,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>96</v>
       </c>
@@ -2963,7 +2960,7 @@
       </c>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>100</v>
       </c>
@@ -3019,7 +3016,7 @@
       </c>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>105</v>
       </c>
@@ -3129,7 +3126,7 @@
       </c>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>109</v>
       </c>
@@ -3185,7 +3182,7 @@
       </c>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>109</v>
       </c>
@@ -3322,7 +3319,7 @@
       </c>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>110</v>
       </c>
@@ -3459,7 +3456,7 @@
       </c>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>115</v>
       </c>
@@ -3542,7 +3539,7 @@
       </c>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>120</v>
       </c>
@@ -3569,7 +3566,7 @@
       </c>
       <c r="I55" s="18"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>120</v>
       </c>
@@ -3596,7 +3593,7 @@
       </c>
       <c r="I56" s="18"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>120</v>
       </c>
@@ -3623,7 +3620,7 @@
       </c>
       <c r="I57" s="18"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>120</v>
       </c>
@@ -3677,7 +3674,7 @@
       </c>
       <c r="I59" s="3"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>121</v>
       </c>
@@ -3839,7 +3836,7 @@
       </c>
       <c r="I65" s="5"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>122</v>
       </c>
@@ -4084,7 +4081,7 @@
       </c>
       <c r="I74" s="3"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>131</v>
       </c>
@@ -4273,7 +4270,7 @@
       </c>
       <c r="I81" s="3"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>132</v>
       </c>
@@ -4410,7 +4407,7 @@
       </c>
       <c r="I86" s="3"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>133</v>
       </c>
@@ -4437,7 +4434,7 @@
       </c>
       <c r="I87" s="18"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>133</v>
       </c>
@@ -4518,7 +4515,7 @@
       </c>
       <c r="I90" s="3"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>135</v>
       </c>
@@ -4545,7 +4542,7 @@
       </c>
       <c r="I91" s="18"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>135</v>
       </c>
@@ -4572,7 +4569,7 @@
       </c>
       <c r="I92" s="18"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>135</v>
       </c>
@@ -4599,7 +4596,7 @@
       </c>
       <c r="I93" s="18"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>135</v>
       </c>
@@ -4626,7 +4623,7 @@
       </c>
       <c r="I94" s="18"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>138</v>
       </c>
@@ -4653,7 +4650,7 @@
       </c>
       <c r="I95" s="18"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>138</v>
       </c>
@@ -4680,7 +4677,7 @@
       </c>
       <c r="I96" s="18"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>138</v>
       </c>
@@ -4707,7 +4704,7 @@
       </c>
       <c r="I97" s="18"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>138</v>
       </c>
@@ -4734,7 +4731,7 @@
       </c>
       <c r="I98" s="18"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>139</v>
       </c>
@@ -4898,7 +4895,7 @@
       </c>
       <c r="I104" s="3"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>143</v>
       </c>
@@ -5006,12 +5003,14 @@
       </c>
       <c r="I108" s="3"/>
     </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="C109" s="16"/>
+      <c r="C109" s="16">
+        <v>1</v>
+      </c>
       <c r="D109" s="6" t="s">
         <v>243</v>
       </c>
@@ -5023,7 +5022,7 @@
       </c>
       <c r="I109" s="3"/>
     </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="12" t="s">
         <v>228</v>
@@ -5044,7 +5043,7 @@
       </c>
       <c r="I110" s="3"/>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="12" t="s">
         <v>232</v>
@@ -5069,7 +5068,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="12" t="s">
         <v>233</v>
@@ -5094,7 +5093,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="12" t="s">
         <v>235</v>
@@ -5119,7 +5118,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="12" t="s">
         <v>234</v>
@@ -5144,7 +5143,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="12" t="s">
         <v>231</v>
@@ -5169,7 +5168,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="12" t="s">
         <v>236</v>
@@ -5194,12 +5193,14 @@
         <v>226</v>
       </c>
     </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="B117" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="C117" s="16"/>
+      <c r="C117" s="16">
+        <v>1</v>
+      </c>
       <c r="D117" s="6" t="s">
         <v>243</v>
       </c>
@@ -5724,7 +5725,7 @@
       </c>
       <c r="I136" s="3"/>
     </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
       <c r="B137" s="12" t="s">
         <v>155</v>
@@ -5774,7 +5775,7 @@
       </c>
       <c r="I138" s="3"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
         <v>150</v>
       </c>
@@ -5828,7 +5829,7 @@
       </c>
       <c r="I140" s="3"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
         <v>150</v>
       </c>
@@ -5992,7 +5993,7 @@
       </c>
       <c r="I146" s="5"/>
     </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
       <c r="B147" s="12" t="s">
         <v>161</v>
@@ -6067,7 +6068,7 @@
       </c>
       <c r="I149" s="5"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
         <v>158</v>
       </c>
@@ -6175,7 +6176,7 @@
       </c>
       <c r="I153" s="5"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
         <v>160</v>
       </c>
@@ -6229,7 +6230,7 @@
       </c>
       <c r="I155" s="3"/>
     </row>
-    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
       <c r="B156" s="12" t="s">
         <v>164</v>
@@ -6252,7 +6253,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="8"/>
       <c r="B157" s="12" t="s">
         <v>278</v>
@@ -6273,7 +6274,7 @@
       </c>
       <c r="I157" s="7"/>
     </row>
-    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="8"/>
       <c r="B158" s="12" t="s">
         <v>277</v>
@@ -6321,7 +6322,7 @@
       </c>
       <c r="I159" s="3"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
         <v>162</v>
       </c>
@@ -6348,7 +6349,7 @@
       </c>
       <c r="I160" s="18"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
         <v>162</v>
       </c>
@@ -6402,7 +6403,7 @@
       </c>
       <c r="I162" s="7"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
         <v>253</v>
       </c>
@@ -6429,7 +6430,7 @@
       </c>
       <c r="I163" s="20"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
         <v>253</v>
       </c>
@@ -6456,7 +6457,7 @@
       </c>
       <c r="I164" s="20"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
         <v>253</v>
       </c>
@@ -6510,7 +6511,7 @@
       </c>
       <c r="I166" s="7"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
         <v>165</v>
       </c>
@@ -6618,7 +6619,7 @@
       </c>
       <c r="I170" s="3"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
         <v>168</v>
       </c>
@@ -6645,7 +6646,7 @@
       </c>
       <c r="I171" s="18"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
         <v>168</v>
       </c>
@@ -6672,7 +6673,7 @@
       </c>
       <c r="I172" s="18"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
         <v>168</v>
       </c>
@@ -6969,7 +6970,7 @@
       </c>
       <c r="I183" s="3"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="s">
         <v>176</v>
       </c>
@@ -7106,15 +7107,15 @@
       </c>
       <c r="I188" s="3"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>259</v>
+        <v>408</v>
       </c>
       <c r="C189" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D189" s="6" t="s">
         <v>215</v>
@@ -7129,16 +7130,16 @@
         <v>46</v>
       </c>
       <c r="H189" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I189" s="18"/>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="I189" s="3"/>
+    </row>
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="s">
         <v>182</v>
       </c>
       <c r="B190" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C190" s="16">
         <v>1</v>
@@ -7165,10 +7166,10 @@
         <v>182</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>362</v>
+        <v>260</v>
       </c>
       <c r="C191" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D191" s="6" t="s">
         <v>215</v>
@@ -7185,14 +7186,14 @@
       <c r="H191" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I191" s="3"/>
+      <c r="I191" s="18"/>
     </row>
     <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="8" t="s">
         <v>182</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C192" s="16">
         <v>0</v>
@@ -7216,10 +7217,10 @@
     </row>
     <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="8" t="s">
-        <v>356</v>
+        <v>182</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C193" s="16">
         <v>0</v>
@@ -7237,7 +7238,7 @@
         <v>46</v>
       </c>
       <c r="H193" s="13" t="s">
-        <v>363</v>
+        <v>25</v>
       </c>
       <c r="I193" s="3"/>
     </row>
@@ -7246,7 +7247,7 @@
         <v>356</v>
       </c>
       <c r="B194" s="12" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C194" s="16">
         <v>0</v>
@@ -7273,7 +7274,7 @@
         <v>356</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C195" s="16">
         <v>0</v>
@@ -7300,7 +7301,7 @@
         <v>356</v>
       </c>
       <c r="B196" s="12" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C196" s="16">
         <v>0</v>
@@ -7322,15 +7323,15 @@
       </c>
       <c r="I196" s="3"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="8" t="s">
-        <v>183</v>
+        <v>356</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>184</v>
+        <v>358</v>
       </c>
       <c r="C197" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D197" s="6" t="s">
         <v>215</v>
@@ -7342,21 +7343,19 @@
         <v>211</v>
       </c>
       <c r="G197" s="4">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H197" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I197" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+      <c r="I197" s="3"/>
+    </row>
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="8" t="s">
         <v>183</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C198" s="16">
         <v>1</v>
@@ -7377,7 +7376,7 @@
         <v>22</v>
       </c>
       <c r="I198" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -7385,10 +7384,10 @@
         <v>183</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C199" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199" s="6" t="s">
         <v>215</v>
@@ -7405,17 +7404,19 @@
       <c r="H199" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I199" s="3"/>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I199" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="8" t="s">
         <v>183</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C200" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D200" s="6" t="s">
         <v>215</v>
@@ -7432,16 +7433,14 @@
       <c r="H200" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I200" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I200" s="3"/>
+    </row>
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B201" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C201" s="16">
         <v>1</v>
@@ -7450,19 +7449,19 @@
         <v>215</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F201" s="14" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G201" s="4">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H201" s="13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I201" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -7470,10 +7469,10 @@
         <v>188</v>
       </c>
       <c r="B202" s="12" t="s">
-        <v>393</v>
+        <v>189</v>
       </c>
       <c r="C202" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D202" s="6" t="s">
         <v>215</v>
@@ -7490,14 +7489,16 @@
       <c r="H202" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I202" s="3"/>
+      <c r="I202" s="18" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="8" t="s">
         <v>188</v>
       </c>
       <c r="B203" s="12" t="s">
-        <v>190</v>
+        <v>393</v>
       </c>
       <c r="C203" s="16">
         <v>0</v>
@@ -7520,59 +7521,59 @@
       <c r="I203" s="3"/>
     </row>
     <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="8"/>
+      <c r="A204" s="8" t="s">
+        <v>188</v>
+      </c>
       <c r="B204" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C204" s="16">
+        <v>0</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E204" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="F204" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="G204" s="4">
+        <v>46</v>
+      </c>
+      <c r="H204" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I204" s="3"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" s="8"/>
+      <c r="B205" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C204" s="16">
+      <c r="C205" s="16">
         <v>1</v>
       </c>
-      <c r="D204" s="6" t="s">
+      <c r="D205" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="E204" s="6"/>
-      <c r="F204" s="14" t="s">
+      <c r="E205" s="6"/>
+      <c r="F205" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="G204" s="4"/>
-      <c r="H204" s="13" t="s">
+      <c r="G205" s="4"/>
+      <c r="H205" s="13" t="s">
         <v>17</v>
-      </c>
-      <c r="I204" s="3"/>
-    </row>
-    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B205" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C205" s="16">
-        <v>0</v>
-      </c>
-      <c r="D205" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E205" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="F205" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="G205" s="4">
-        <v>46</v>
-      </c>
-      <c r="H205" s="13" t="s">
-        <v>19</v>
       </c>
       <c r="I205" s="3"/>
     </row>
     <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B206" s="12" t="s">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="C206" s="16">
         <v>0</v>
@@ -7587,10 +7588,10 @@
         <v>217</v>
       </c>
       <c r="G206" s="4">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="H206" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I206" s="3"/>
     </row>
@@ -7599,7 +7600,7 @@
         <v>192</v>
       </c>
       <c r="B207" s="12" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="C207" s="16">
         <v>0</v>
@@ -7621,15 +7622,15 @@
       </c>
       <c r="I207" s="3"/>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="8" t="s">
         <v>192</v>
       </c>
       <c r="B208" s="12" t="s">
-        <v>247</v>
+        <v>387</v>
       </c>
       <c r="C208" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D208" s="6" t="s">
         <v>215</v>
@@ -7646,14 +7647,14 @@
       <c r="H208" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I208" s="18"/>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I208" s="3"/>
+    </row>
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="8" t="s">
         <v>192</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C209" s="16">
         <v>1</v>
@@ -7677,37 +7678,37 @@
     </row>
     <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B210" s="12" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="C210" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D210" s="6" t="s">
         <v>215</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="F210" s="14" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G210" s="4">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="H210" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I210" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="I210" s="18"/>
     </row>
     <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="8" t="s">
         <v>194</v>
       </c>
       <c r="B211" s="12" t="s">
-        <v>395</v>
+        <v>195</v>
       </c>
       <c r="C211" s="16">
         <v>0</v>
@@ -7734,7 +7735,7 @@
         <v>194</v>
       </c>
       <c r="B212" s="12" t="s">
-        <v>196</v>
+        <v>395</v>
       </c>
       <c r="C212" s="16">
         <v>0</v>
@@ -7761,7 +7762,7 @@
         <v>194</v>
       </c>
       <c r="B213" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C213" s="16">
         <v>0</v>
@@ -7785,10 +7786,10 @@
     </row>
     <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B214" s="12" t="s">
-        <v>328</v>
+        <v>197</v>
       </c>
       <c r="C214" s="16">
         <v>0</v>
@@ -7806,7 +7807,7 @@
         <v>46</v>
       </c>
       <c r="H214" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I214" s="3"/>
     </row>
@@ -7815,7 +7816,7 @@
         <v>198</v>
       </c>
       <c r="B215" s="12" t="s">
-        <v>199</v>
+        <v>328</v>
       </c>
       <c r="C215" s="16">
         <v>0</v>
@@ -7842,7 +7843,7 @@
         <v>198</v>
       </c>
       <c r="B216" s="12" t="s">
-        <v>329</v>
+        <v>199</v>
       </c>
       <c r="C216" s="16">
         <v>0</v>
@@ -7869,7 +7870,7 @@
         <v>198</v>
       </c>
       <c r="B217" s="12" t="s">
-        <v>200</v>
+        <v>329</v>
       </c>
       <c r="C217" s="16">
         <v>0</v>
@@ -7891,21 +7892,21 @@
       </c>
       <c r="I217" s="3"/>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B218" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C218" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D218" s="6" t="s">
         <v>215</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F218" s="14" t="s">
         <v>211</v>
@@ -7914,47 +7915,45 @@
         <v>46</v>
       </c>
       <c r="H218" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I218" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I218" s="3"/>
+    </row>
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B219" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C219" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D219" s="6" t="s">
         <v>215</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F219" s="14" t="s">
         <v>211</v>
       </c>
       <c r="G219" s="4">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="H219" s="13" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I219" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="8" t="s">
         <v>203</v>
       </c>
       <c r="B220" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C220" s="16">
         <v>2</v>
@@ -7975,18 +7974,18 @@
         <v>10</v>
       </c>
       <c r="I220" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="8" t="s">
         <v>203</v>
       </c>
       <c r="B221" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C221" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D221" s="6" t="s">
         <v>215</v>
@@ -8003,17 +8002,19 @@
       <c r="H221" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I221" s="18"/>
+      <c r="I221" s="18" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="8" t="s">
         <v>203</v>
       </c>
       <c r="B222" s="12" t="s">
-        <v>327</v>
+        <v>206</v>
       </c>
       <c r="C222" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D222" s="6" t="s">
         <v>215</v>
@@ -8030,29 +8031,55 @@
       <c r="H222" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I222" s="3"/>
+      <c r="I222" s="18"/>
     </row>
     <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="8"/>
+      <c r="A223" s="8" t="s">
+        <v>203</v>
+      </c>
       <c r="B223" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="C223" s="16">
+        <v>0</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E223" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="F223" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="G223" s="4">
+        <v>28</v>
+      </c>
+      <c r="H223" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I223" s="3"/>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" s="8"/>
+      <c r="B224" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C223" s="16"/>
-      <c r="D223" s="6" t="s">
+      <c r="C224" s="16">
+        <v>1</v>
+      </c>
+      <c r="D224" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="E223" s="6"/>
-      <c r="F223" s="14"/>
-      <c r="G223" s="4"/>
-      <c r="H223" s="13" t="s">
+      <c r="E224" s="6"/>
+      <c r="F224" s="14"/>
+      <c r="G224" s="4"/>
+      <c r="H224" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I223" s="3" t="s">
+      <c r="I224" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C224" s="15"/>
     </row>
     <row r="225" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C225" s="15"/>
@@ -8120,8 +8147,11 @@
     <row r="246" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C246" s="15"/>
     </row>
+    <row r="247" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C247" s="15"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C223">
+  <conditionalFormatting sqref="C2:C224">
     <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -8162,7 +8192,7 @@
       <formula>RIGHT(B2,8)="AMARILLO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D58 D59:E223">
+  <conditionalFormatting sqref="D2:D58 D59:E224">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"KINSMART"</formula>
     </cfRule>
@@ -8170,7 +8200,7 @@
       <formula>"OEM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I221">
+  <conditionalFormatting sqref="I2:I222">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$J$2</formula>
     </cfRule>

--- a/kingcar.xlsx
+++ b/kingcar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8707865-4E6B-484B-A1C2-A1783805889C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF06AA2-ED2C-4670-976E-9861C24ADFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="412">
   <si>
     <t>CODIGO</t>
   </si>
@@ -62,9 +62,6 @@
     <t>https://video.aliexpress-media.com/play/u/ae_sg_item/3000001417501/p/1/e/6/t/10301/1100062134029.mp4?from=chrome</t>
   </si>
   <si>
-    <t>https://ae01.alicdn.com/kf/Sf31d501a8f4545d5b081de575a3c7faaT.jpg?width=800&amp;height=800&amp;hash=1600</t>
-  </si>
-  <si>
     <t>https://www.kinsmart.com/upload/products/original/757841750897.KT5343-website.jpg</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>https://www.kinsmart.com/upload/products/original/543051209558.KT5408-website.jpg</t>
   </si>
   <si>
-    <t>https://id-test-11.slatic.net/p/4cd0492d2c5dbf1e2b87803df52b9e7a.jpg</t>
-  </si>
-  <si>
     <t>https://www.kinsmart.com/upload/products/original/144380851312.KT5059FB-website.jpg</t>
   </si>
   <si>
@@ -134,18 +128,12 @@
     <t>https://www.kinsmart.com/upload/products/original/620609511569.KT5437-website.jpg</t>
   </si>
   <si>
-    <t>https://img.joomcdn.net/374db6a4f9fe77f89e083dc6d0df48949c023e6e_original.jpeg</t>
-  </si>
-  <si>
     <t>https://www.kinsmart.com/upload/products/original/705091311972.KT5440-website.jpg</t>
   </si>
   <si>
     <t>https://video.aliexpress-media.com/play/u/ae_sg_item/3000908115251/p/1/e/6/t/10301/5000136000819.mp4?from=chrome</t>
   </si>
   <si>
-    <t>https://ae01.alicdn.com/kf/Secd3067ea3f74efda8298c3356c98e81y.jpg</t>
-  </si>
-  <si>
     <t>https://www.kinsmart.com/upload/products/original/469534383796.KT5039-website.jpg</t>
   </si>
   <si>
@@ -716,9 +704,6 @@
     <t>https://video.aliexpress-media.com/play/u/ae_sg_item/3000909360447/p/1/e/6/t/10301/5000141454647.mp4</t>
   </si>
   <si>
-    <t>https://video.aliexpress-media.com/play/u/ae_sg_item/2215483985827/p/1/e/6/t/10301/1100196404795.mp4</t>
-  </si>
-  <si>
     <t>Auto de metal Rayo McQueen 6cm ROJO</t>
   </si>
   <si>
@@ -752,15 +737,9 @@
     <t>https://http2.mlstatic.com/D_NQ_NP_791879-MLU71266333911_082023-O.jpg</t>
   </si>
   <si>
-    <t>https://ae01.alicdn.com/kf/Sf158e6ce530a4cfb9e74bdd4fe91eeeej.jpg</t>
-  </si>
-  <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_692551-MLA81274679282_122024-O.webp</t>
   </si>
   <si>
-    <t>1/32 Metal fundido a presión de 5'', puertas que se abren, acción de retroceso, Luces y Sonido</t>
-  </si>
-  <si>
     <t>https://video.aliexpress-media.com/play/u/ae_sg_item/3000909936020/p/1/e/6/t/10301/5000223022150.mp4</t>
   </si>
   <si>
@@ -1260,6 +1239,36 @@
   </si>
   <si>
     <t>McLaren 720S MORADO</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S95d4dfe752924e0bb60d386d64f75a00C.jpg</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_778132-MLU70919401899_082023-O.webp</t>
+  </si>
+  <si>
+    <t>https://gv-vod-cdn.aliexpress-media.com/80ffc57ef0293a3a/ae_sg_item/6bnNBFIJIqDIZFzfl4y_1100037706480_mp4_264_hd.mp4</t>
+  </si>
+  <si>
+    <t>Jeep Wrangler Rubicon 1941 VERDE</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/H28cc5620de4448f9af28ad9f86cea813i.jpg</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/Hffba945082714585a57d492f81736147q.jpg</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/Hbb07097372ac47f6a76a63af8adfd3a7L.jpg</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/H49123db4a3854704825ac691ace0f2c9n.jpg</t>
+  </si>
+  <si>
+    <t>https://www.agustimestre.com/95182-medium_default/moto-vespa-roja-118.jpg</t>
+  </si>
+  <si>
+    <t>https://media.falabella.com/falabellaPE/146772235_02/w=1500,h=1500,fit=pad</t>
   </si>
 </sst>
 </file>
@@ -1270,7 +1279,7 @@
     <numFmt numFmtId="164" formatCode="_-&quot;S/&quot;\ * #,##0_-;\-&quot;S/&quot;\ * #,##0_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1361,6 +1370,13 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1407,7 +1423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1459,21 +1475,107 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC0066"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1717,26 +1819,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:I224" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24">
-  <autoFilter ref="A1:I224" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:I226" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37">
+  <autoFilter ref="A1:I226" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
     <filterColumn colId="3">
       <filters>
         <filter val="OEM"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A109:I224">
-    <sortCondition ref="B1:B224"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A109:I225">
+    <sortCondition ref="B1:B225"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="20"/>
-    <tableColumn id="12" xr3:uid="{66A45CF8-5F60-4ED6-8CB2-B0408A04D95D}" name="MODELO" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="33"/>
+    <tableColumn id="12" xr3:uid="{66A45CF8-5F60-4ED6-8CB2-B0408A04D95D}" name="MODELO" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="29"/>
     <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2030,10 +2132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I247"/>
+  <dimension ref="A1:I248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C225" sqref="C225"/>
+      <selection activeCell="E225" sqref="E225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2046,7 +2148,7 @@
     <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" style="9" customWidth="1"/>
     <col min="8" max="8" width="89.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" style="22" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2063,7 +2165,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>4</v>
@@ -2074,2964 +2176,2964 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C2" s="16">
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G2" s="4">
         <v>46</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>77</v>
+        <v>394</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C3" s="16">
         <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G3" s="4">
         <v>46</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="I3" s="20"/>
+        <v>394</v>
+      </c>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C4" s="16">
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G4" s="4">
         <v>46</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="I4" s="20"/>
+        <v>394</v>
+      </c>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C5" s="16">
         <v>2</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G5" s="4">
         <v>46</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C6" s="16">
         <v>0</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G6" s="4">
         <v>46</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C7" s="16">
         <v>1</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G7" s="4">
         <v>46</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C8" s="16">
         <v>0</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G8" s="4">
         <v>46</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C9" s="16">
         <v>0</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G9" s="4">
         <v>46</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C10" s="16">
         <v>0</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G10" s="4">
         <v>28</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C11" s="16">
         <v>0</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G11" s="4">
         <v>28</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C12" s="16">
         <v>2</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G12" s="4">
         <v>28</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C13" s="16">
         <v>1</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G13" s="4">
         <v>28</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C14" s="16">
         <v>1</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G14" s="4">
         <v>28</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C15" s="16">
         <v>0</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G15" s="4">
         <v>28</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C16" s="16">
         <v>0</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G16" s="4">
         <v>28</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C17" s="16">
         <v>0</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G17" s="4">
         <v>28</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C18" s="16">
         <v>0</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G18" s="4">
         <v>28</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C19" s="16">
         <v>1</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G19" s="4">
         <v>28</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C20" s="16">
         <v>1</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G20" s="4">
         <v>46</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C21" s="16">
         <v>1</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G21" s="4">
         <v>46</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C22" s="16">
         <v>0</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G22" s="4">
         <v>46</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="C23" s="16">
         <v>2</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G23" s="4">
         <v>46</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C24" s="16">
         <v>0</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G24" s="4">
         <v>28</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C25" s="16">
         <v>0</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G25" s="4">
         <v>28</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C26" s="16">
         <v>0</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G26" s="4">
         <v>28</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C27" s="16">
         <v>1</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G27" s="4">
         <v>28</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I27" s="18"/>
     </row>
     <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C28" s="16">
         <v>1</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G28" s="4">
         <v>37</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C29" s="16">
         <v>1</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G29" s="4">
         <v>37</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C30" s="16">
         <v>0</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G30" s="4">
         <v>37</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C31" s="16">
         <v>0</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G31" s="4">
         <v>37</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C32" s="16">
         <v>0</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G32" s="4">
         <v>46</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C33" s="16">
         <v>0</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G33" s="4">
         <v>46</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C34" s="16">
         <v>1</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G34" s="4">
         <v>46</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>104</v>
-      </c>
       <c r="C35" s="16">
         <v>0</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G35" s="4">
         <v>46</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C36" s="16">
         <v>1</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G36" s="4">
         <v>37</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C37" s="16">
         <v>0</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G37" s="4">
         <v>37</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C38" s="16">
         <v>0</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G38" s="4">
         <v>37</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C39" s="16">
         <v>0</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G39" s="4">
         <v>37</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C40" s="16">
         <v>1</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G40" s="4">
         <v>37</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C41" s="16">
         <v>0</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G41" s="4">
         <v>37</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I41" s="3"/>
     </row>
     <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C42" s="16">
         <v>1</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G42" s="4">
         <v>37</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C43" s="16">
         <v>0</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G43" s="4">
         <v>46</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="I43" s="3"/>
     </row>
     <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C44" s="16">
         <v>0</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G44" s="4">
         <v>46</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="I44" s="3"/>
     </row>
     <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C45" s="16">
         <v>0</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G45" s="4">
         <v>46</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="I45" s="3"/>
     </row>
     <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C46" s="16">
         <v>0</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G46" s="4">
         <v>46</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="I46" s="3"/>
     </row>
     <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C47" s="16">
         <v>2</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G47" s="4">
         <v>28</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I47" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C48" s="16">
         <v>0</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G48" s="4">
         <v>28</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I48" s="3"/>
     </row>
     <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C49" s="16">
         <v>0</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G49" s="4">
         <v>28</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I49" s="3"/>
     </row>
     <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B50" s="12" t="s">
-        <v>114</v>
-      </c>
       <c r="C50" s="16">
         <v>0</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G50" s="4">
         <v>28</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I50" s="3"/>
     </row>
     <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C51" s="16">
         <v>0</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G51" s="4">
         <v>28</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I51" s="3"/>
     </row>
     <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C52" s="16">
         <v>1</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G52" s="4">
         <v>28</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I52" s="20" t="s">
-        <v>57</v>
+        <v>52</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C53" s="16">
         <v>0</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G53" s="4">
         <v>28</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I53" s="3"/>
     </row>
     <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="12" t="s">
-        <v>119</v>
-      </c>
       <c r="C54" s="16">
         <v>0</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G54" s="4">
         <v>28</v>
       </c>
       <c r="H54" s="14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I54" s="3"/>
     </row>
     <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C55" s="16">
         <v>1</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G55" s="4">
         <v>46</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C56" s="16">
         <v>1</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G56" s="4">
         <v>46</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I56" s="18"/>
     </row>
     <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C57" s="16">
         <v>1</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G57" s="4">
         <v>46</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I57" s="18"/>
     </row>
     <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C58" s="16">
         <v>1</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G58" s="4">
         <v>46</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I58" s="18"/>
     </row>
     <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C59" s="16">
         <v>0</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G59" s="4">
         <v>37</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I59" s="3"/>
     </row>
     <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C60" s="16">
         <v>1</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G60" s="4">
         <v>37</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I60" s="18"/>
     </row>
     <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C61" s="16">
         <v>0</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G61" s="4">
         <v>37</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I61" s="3"/>
     </row>
     <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C62" s="16">
         <v>0</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G62" s="4">
         <v>37</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I62" s="3"/>
     </row>
     <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C63" s="16">
         <v>0</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G63" s="4">
         <v>28</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I63" s="3"/>
     </row>
     <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C64" s="16">
         <v>0</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G64" s="4">
         <v>28</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I64" s="3"/>
     </row>
     <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C65" s="16">
         <v>0</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G65" s="4">
         <v>28</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I65" s="5"/>
     </row>
     <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B66" s="12" t="s">
         <v>122</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>126</v>
       </c>
       <c r="C66" s="16">
         <v>1</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G66" s="4">
         <v>28</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I66" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="I66" s="20" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C67" s="16">
         <v>0</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G67" s="4">
         <v>46</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I67" s="3"/>
     </row>
     <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C68" s="16">
         <v>0</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G68" s="4">
         <v>46</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I68" s="3"/>
     </row>
     <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C69" s="16">
         <v>0</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G69" s="4">
         <v>46</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I69" s="3"/>
     </row>
     <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C70" s="16">
         <v>0</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G70" s="4">
         <v>46</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I70" s="3"/>
     </row>
     <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C71" s="16">
         <v>0</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G71" s="4">
         <v>46</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I71" s="3"/>
     </row>
     <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C72" s="16">
         <v>0</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G72" s="4">
         <v>46</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I72" s="3"/>
     </row>
     <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C73" s="16">
         <v>0</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G73" s="4">
         <v>46</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I73" s="3"/>
     </row>
     <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C74" s="16">
         <v>0</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G74" s="4">
         <v>46</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I74" s="3"/>
     </row>
     <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C75" s="16">
         <v>1</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G75" s="4">
         <v>37</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I75" s="18"/>
     </row>
     <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C76" s="16">
         <v>0</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G76" s="4">
         <v>37</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I76" s="3"/>
     </row>
     <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C77" s="16">
         <v>0</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G77" s="4">
         <v>37</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I77" s="3"/>
     </row>
     <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C78" s="16">
         <v>0</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G78" s="4">
         <v>37</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I78" s="3"/>
     </row>
     <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C79" s="16">
         <v>0</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G79" s="4">
         <v>37</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I79" s="3"/>
     </row>
     <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C80" s="16">
         <v>0</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G80" s="4">
         <v>37</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I80" s="3"/>
     </row>
     <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C81" s="16">
         <v>0</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G81" s="4">
         <v>37</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I81" s="3"/>
     </row>
     <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C82" s="16">
         <v>1</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G82" s="4">
         <v>37</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C83" s="16">
         <v>0</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G83" s="4">
         <v>46</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="I83" s="3"/>
     </row>
     <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C84" s="16">
         <v>0</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G84" s="4">
         <v>46</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="I84" s="3"/>
     </row>
     <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C85" s="16">
         <v>0</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G85" s="4">
         <v>46</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="I85" s="3"/>
     </row>
     <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C86" s="16">
         <v>0</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G86" s="4">
         <v>46</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="I86" s="3"/>
     </row>
     <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C87" s="16">
         <v>1</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G87" s="4">
         <v>28</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I87" s="18"/>
     </row>
     <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C88" s="16">
         <v>1</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G88" s="4">
         <v>28</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I88" s="18"/>
     </row>
     <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C89" s="16">
         <v>0</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G89" s="4">
         <v>28</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I89" s="3"/>
     </row>
     <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C90" s="16">
         <v>0</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G90" s="4">
         <v>28</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I90" s="3"/>
     </row>
     <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C91" s="16">
         <v>2</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G91" s="4">
         <v>28</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I91" s="18"/>
     </row>
     <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C92" s="16">
         <v>1</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G92" s="4">
         <v>28</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I92" s="18"/>
     </row>
     <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C93" s="16">
         <v>1</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G93" s="4">
         <v>28</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I93" s="18"/>
     </row>
     <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C94" s="16">
         <v>2</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G94" s="4">
         <v>28</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I94" s="18"/>
     </row>
     <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C95" s="16">
         <v>1</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G95" s="4">
         <v>46</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I95" s="18"/>
     </row>
     <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C96" s="16">
         <v>1</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G96" s="4">
         <v>46</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I96" s="18"/>
     </row>
     <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C97" s="16">
         <v>1</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G97" s="4">
         <v>46</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I97" s="18"/>
     </row>
     <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C98" s="16">
         <v>1</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G98" s="4">
         <v>46</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I98" s="18"/>
     </row>
     <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C99" s="16">
         <v>1</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G99" s="4">
         <v>46</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="I99" s="18" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C100" s="16">
         <v>0</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G100" s="4">
         <v>46</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I100" s="3"/>
     </row>
     <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C101" s="16">
         <v>0</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G101" s="4">
         <v>46</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I101" s="3"/>
     </row>
     <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C102" s="16">
         <v>0</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G102" s="4">
         <v>46</v>
       </c>
       <c r="H102" s="13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I102" s="3"/>
     </row>
     <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C103" s="16">
         <v>0</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G103" s="4">
         <v>46</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="I103" s="3"/>
     </row>
     <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C104" s="16">
         <v>0</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F104" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G104" s="4">
         <v>37</v>
       </c>
       <c r="H104" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I104" s="3"/>
     </row>
     <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C105" s="16">
         <v>1</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G105" s="4">
         <v>37</v>
       </c>
       <c r="H105" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I105" s="18"/>
     </row>
     <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C106" s="16">
         <v>0</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F106" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G106" s="4">
         <v>37</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I106" s="3"/>
     </row>
     <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C107" s="16">
         <v>0</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F107" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G107" s="4">
         <v>37</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I107" s="3"/>
     </row>
     <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C108" s="16">
         <v>0</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F108" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G108" s="4">
         <v>46</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="I108" s="3"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="12" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C109" s="16">
         <v>1</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E109" s="6"/>
       <c r="F109" s="14"/>
       <c r="G109" s="4"/>
       <c r="H109" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="I109" s="3"/>
+        <v>232</v>
+      </c>
+      <c r="I109" s="8"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="12" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C110" s="16">
         <v>1</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="14"/>
@@ -5039,2592 +5141,2590 @@
         <v>19</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="I110" s="3"/>
+        <v>233</v>
+      </c>
+      <c r="I110" s="8"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="12" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C111" s="16">
         <v>3</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E111" s="6"/>
       <c r="F111" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G111" s="4">
         <v>15</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="I111" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
+      </c>
+      <c r="I111" s="23" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="12" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C112" s="16">
         <v>1</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G112" s="4">
         <v>15</v>
       </c>
       <c r="H112" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="I112" s="23" t="s">
         <v>222</v>
-      </c>
-      <c r="I112" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="12" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C113" s="16">
         <v>2</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G113" s="4">
         <v>15</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="I113" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
+      </c>
+      <c r="I113" s="23" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="12" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C114" s="16">
         <v>1</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G114" s="4">
         <v>15</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="I114" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
+      </c>
+      <c r="I114" s="23" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="12" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C115" s="16">
         <v>1</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E115" s="6"/>
       <c r="F115" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G115" s="4">
         <v>15</v>
       </c>
       <c r="H115" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="I115" s="7" t="s">
-        <v>226</v>
+        <v>217</v>
+      </c>
+      <c r="I115" s="23" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="12" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C116" s="16">
         <v>2</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G116" s="4">
         <v>15</v>
       </c>
       <c r="H116" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="I116" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
+      </c>
+      <c r="I116" s="23" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="B117" s="12" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C117" s="16">
         <v>1</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E117" s="6"/>
       <c r="F117" s="14"/>
       <c r="G117" s="4"/>
       <c r="H117" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="I117" s="3"/>
+        <v>402</v>
+      </c>
+      <c r="I117" s="8"/>
     </row>
     <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C118" s="16">
         <v>0</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F118" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G118" s="4">
         <v>46</v>
       </c>
       <c r="H118" s="13" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="I118" s="3"/>
     </row>
     <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C119" s="16">
         <v>0</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G119" s="4">
         <v>46</v>
       </c>
       <c r="H119" s="13" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="I119" s="3"/>
     </row>
     <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C120" s="16">
         <v>0</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F120" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G120" s="4">
         <v>46</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="I120" s="3"/>
     </row>
     <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C121" s="16">
         <v>0</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F121" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G121" s="4">
         <v>46</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="I121" s="1"/>
     </row>
     <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C122" s="16">
         <v>0</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F122" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G122" s="4">
         <v>46</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="I122" s="1"/>
     </row>
     <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C123" s="16">
         <v>0</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G123" s="4">
         <v>46</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="I123" s="1"/>
     </row>
     <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C124" s="16">
         <v>0</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F124" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G124" s="4">
         <v>46</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="I124" s="1"/>
     </row>
     <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C125" s="16">
         <v>0</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F125" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G125" s="4">
         <v>46</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="I125" s="1"/>
     </row>
     <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C126" s="16">
         <v>0</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F126" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G126" s="4">
         <v>46</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="I126" s="1"/>
     </row>
     <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C127" s="16">
         <v>0</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F127" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G127" s="4">
         <v>46</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="I127" s="1"/>
     </row>
     <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C128" s="16">
         <v>0</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F128" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G128" s="4">
         <v>46</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="I128" s="1"/>
     </row>
     <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C129" s="16">
         <v>0</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F129" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G129" s="4">
         <v>46</v>
       </c>
       <c r="H129" s="13" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="I129" s="3"/>
     </row>
     <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C130" s="16">
         <v>0</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F130" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G130" s="4">
         <v>46</v>
       </c>
       <c r="H130" s="13" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="I130" s="3"/>
     </row>
     <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C131" s="16">
         <v>0</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G131" s="4">
         <v>46</v>
       </c>
       <c r="H131" s="13" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="I131" s="3"/>
     </row>
     <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C132" s="16">
         <v>0</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F132" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G132" s="4">
         <v>46</v>
       </c>
       <c r="H132" s="13" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="I132" s="3"/>
     </row>
     <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C133" s="16">
         <v>0</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G133" s="4">
         <v>46</v>
       </c>
       <c r="H133" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I133" s="3"/>
     </row>
     <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C134" s="16">
         <v>0</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F134" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G134" s="4">
         <v>46</v>
       </c>
       <c r="H134" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I134" s="3"/>
     </row>
     <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C135" s="16">
         <v>0</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F135" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G135" s="4">
         <v>46</v>
       </c>
       <c r="H135" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I135" s="3"/>
     </row>
     <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B136" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B136" s="12" t="s">
-        <v>149</v>
-      </c>
       <c r="C136" s="16">
         <v>0</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G136" s="4">
         <v>46</v>
       </c>
       <c r="H136" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I136" s="3"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
-      <c r="B137" s="12" t="s">
-        <v>155</v>
+      <c r="B137" s="21" t="s">
+        <v>151</v>
       </c>
       <c r="C137" s="16">
         <v>1</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E137" s="6"/>
-      <c r="F137" s="14" t="s">
-        <v>241</v>
-      </c>
+      <c r="F137" s="14"/>
       <c r="G137" s="4"/>
       <c r="H137" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="I137" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
+      </c>
+      <c r="I137" s="23" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C138" s="16">
         <v>0</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F138" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G138" s="4">
         <v>37</v>
       </c>
       <c r="H138" s="13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I138" s="3"/>
     </row>
     <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C139" s="16">
         <v>1</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G139" s="4">
         <v>37</v>
       </c>
       <c r="H139" s="13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I139" s="18"/>
     </row>
     <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C140" s="16">
         <v>0</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F140" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G140" s="4">
         <v>37</v>
       </c>
       <c r="H140" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I140" s="3"/>
     </row>
     <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B141" s="12" t="s">
         <v>150</v>
-      </c>
-      <c r="B141" s="12" t="s">
-        <v>154</v>
       </c>
       <c r="C141" s="16">
         <v>1</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F141" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G141" s="4">
         <v>37</v>
       </c>
       <c r="H141" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I141" s="20" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="I141" s="19" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C142" s="16">
         <v>0</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F142" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G142" s="4">
         <v>46</v>
       </c>
       <c r="H142" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I142" s="7"/>
     </row>
     <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C143" s="16">
         <v>0</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G143" s="4">
         <v>46</v>
       </c>
       <c r="H143" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I143" s="7"/>
     </row>
     <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C144" s="16">
         <v>0</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G144" s="4">
         <v>46</v>
       </c>
       <c r="H144" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I144" s="7"/>
     </row>
     <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C145" s="16">
         <v>0</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G145" s="4">
         <v>46</v>
       </c>
       <c r="H145" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I145" s="7"/>
     </row>
     <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C146" s="16">
         <v>0</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G146" s="4">
         <v>46</v>
       </c>
       <c r="H146" s="13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I146" s="5"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
-      <c r="B147" s="12" t="s">
-        <v>161</v>
+      <c r="B147" s="21" t="s">
+        <v>157</v>
       </c>
       <c r="C147" s="16">
         <v>1</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E147" s="6"/>
       <c r="F147" s="14"/>
       <c r="G147" s="4"/>
       <c r="H147" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I147" s="3" t="s">
-        <v>35</v>
+        <v>403</v>
+      </c>
+      <c r="I147" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C148" s="16">
         <v>0</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G148" s="4">
         <v>46</v>
       </c>
       <c r="H148" s="13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I148" s="5"/>
     </row>
     <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C149" s="16">
         <v>0</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G149" s="4">
         <v>46</v>
       </c>
       <c r="H149" s="13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I149" s="5"/>
     </row>
     <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C150" s="16">
         <v>1</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F150" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G150" s="4">
         <v>46</v>
       </c>
       <c r="H150" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I150" s="21"/>
+        <v>34</v>
+      </c>
+      <c r="I150" s="20"/>
     </row>
     <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C151" s="16">
         <v>0</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F151" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G151" s="4">
         <v>28</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I151" s="5"/>
     </row>
     <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C152" s="16">
         <v>0</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F152" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G152" s="4">
         <v>28</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I152" s="5"/>
     </row>
     <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C153" s="16">
         <v>0</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F153" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G153" s="4">
         <v>28</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I153" s="5"/>
     </row>
     <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C154" s="16">
         <v>1</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F154" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G154" s="4">
         <v>28</v>
       </c>
       <c r="H154" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I154" s="21"/>
+        <v>33</v>
+      </c>
+      <c r="I154" s="20"/>
     </row>
     <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C155" s="16">
         <v>0</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F155" s="14" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G155" s="4">
         <v>28</v>
       </c>
       <c r="H155" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I155" s="3"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
       <c r="B156" s="12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C156" s="16">
         <v>1</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E156" s="6"/>
       <c r="F156" s="14" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G156" s="4"/>
       <c r="H156" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I156" s="7" t="s">
-        <v>227</v>
+        <v>407</v>
+      </c>
+      <c r="I156" s="23" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="8"/>
       <c r="B157" s="12" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C157" s="16">
         <v>1</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E157" s="6"/>
       <c r="F157" s="14" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G157" s="4"/>
       <c r="H157" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I157" s="7"/>
+        <v>408</v>
+      </c>
+      <c r="I157" s="23" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="8"/>
       <c r="B158" s="12" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C158" s="16">
         <v>1</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E158" s="6"/>
       <c r="F158" s="14" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G158" s="4"/>
       <c r="H158" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I158" s="7"/>
+        <v>406</v>
+      </c>
+      <c r="I158" s="23" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C159" s="16">
         <v>0</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F159" s="14" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G159" s="4">
         <v>28</v>
       </c>
       <c r="H159" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I159" s="3"/>
     </row>
     <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C160" s="16">
         <v>1</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F160" s="14" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G160" s="4">
         <v>28</v>
       </c>
       <c r="H160" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I160" s="18"/>
     </row>
     <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C161" s="16">
         <v>1</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F161" s="14" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G161" s="4">
         <v>28</v>
       </c>
       <c r="H161" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I161" s="18"/>
     </row>
     <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C162" s="16">
         <v>0</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F162" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G162" s="4">
         <v>46</v>
       </c>
       <c r="H162" s="14" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I162" s="7"/>
     </row>
     <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C163" s="16">
         <v>1</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F163" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G163" s="4">
         <v>46</v>
       </c>
       <c r="H163" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="I163" s="20"/>
+        <v>242</v>
+      </c>
+      <c r="I163" s="19"/>
     </row>
     <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C164" s="16">
         <v>1</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F164" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G164" s="4">
         <v>46</v>
       </c>
       <c r="H164" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="I164" s="20"/>
+        <v>242</v>
+      </c>
+      <c r="I164" s="19"/>
     </row>
     <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C165" s="16">
         <v>1</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F165" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G165" s="4">
         <v>46</v>
       </c>
       <c r="H165" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="I165" s="20"/>
+        <v>242</v>
+      </c>
+      <c r="I165" s="19"/>
     </row>
     <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C166" s="16">
         <v>0</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F166" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G166" s="4">
         <v>37</v>
       </c>
       <c r="H166" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I166" s="7"/>
     </row>
     <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C167" s="16">
         <v>1</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F167" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G167" s="4">
         <v>37</v>
       </c>
       <c r="H167" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I167" s="20"/>
+        <v>30</v>
+      </c>
+      <c r="I167" s="19"/>
     </row>
     <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C168" s="16">
         <v>0</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F168" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G168" s="4">
         <v>37</v>
       </c>
       <c r="H168" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I168" s="7"/>
     </row>
     <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C169" s="16">
         <v>0</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F169" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G169" s="4">
         <v>37</v>
       </c>
       <c r="H169" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I169" s="7"/>
     </row>
     <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C170" s="16">
         <v>0</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F170" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G170" s="4">
         <v>28</v>
       </c>
       <c r="H170" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I170" s="3"/>
     </row>
     <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B171" s="17" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C171" s="16">
         <v>1</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F171" s="14" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="G171" s="4">
         <v>28</v>
       </c>
       <c r="H171" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I171" s="18"/>
     </row>
     <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C172" s="16">
         <v>1</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F172" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G172" s="4">
         <v>28</v>
       </c>
       <c r="H172" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I172" s="18"/>
     </row>
     <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C173" s="16">
         <v>1</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F173" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G173" s="4">
         <v>28</v>
       </c>
       <c r="H173" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I173" s="18"/>
     </row>
     <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C174" s="16">
         <v>0</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F174" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G174" s="4">
         <v>46</v>
       </c>
       <c r="H174" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I174" s="3"/>
     </row>
     <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B175" s="12" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C175" s="16">
         <v>0</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F175" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G175" s="4">
         <v>46</v>
       </c>
       <c r="H175" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I175" s="3"/>
     </row>
     <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C176" s="16">
         <v>0</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F176" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G176" s="4">
         <v>46</v>
       </c>
       <c r="H176" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I176" s="3"/>
     </row>
     <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C177" s="16">
         <v>0</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F177" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G177" s="4">
         <v>46</v>
       </c>
       <c r="H177" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I177" s="3"/>
     </row>
     <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B178" s="12" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C178" s="16">
         <v>0</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F178" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G178" s="4">
         <v>46</v>
       </c>
       <c r="H178" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I178" s="3"/>
     </row>
     <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C179" s="16">
         <v>0</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F179" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G179" s="4">
         <v>46</v>
       </c>
       <c r="H179" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I179" s="3"/>
     </row>
     <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C180" s="16">
         <v>0</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F180" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G180" s="4">
         <v>46</v>
       </c>
       <c r="H180" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I180" s="3"/>
     </row>
     <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B181" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B181" s="12" t="s">
-        <v>175</v>
-      </c>
       <c r="C181" s="16">
         <v>0</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F181" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G181" s="4">
         <v>46</v>
       </c>
       <c r="H181" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I181" s="3"/>
     </row>
     <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C182" s="16">
         <v>0</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F182" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G182" s="4">
         <v>46</v>
       </c>
       <c r="H182" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I182" s="7"/>
     </row>
     <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C183" s="16">
         <v>0</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F183" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G183" s="4">
         <v>46</v>
       </c>
       <c r="H183" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I183" s="3"/>
     </row>
     <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C184" s="16">
         <v>2</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F184" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G184" s="4">
         <v>46</v>
       </c>
       <c r="H184" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I184" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B185" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="B185" s="12" t="s">
-        <v>180</v>
-      </c>
       <c r="C185" s="16">
         <v>0</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F185" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G185" s="4">
         <v>46</v>
       </c>
       <c r="H185" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I185" s="3"/>
     </row>
     <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C186" s="16">
         <v>0</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F186" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G186" s="4">
         <v>46</v>
       </c>
       <c r="H186" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I186" s="3"/>
     </row>
     <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C187" s="16">
         <v>0</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F187" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G187" s="4">
         <v>46</v>
       </c>
       <c r="H187" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I187" s="3"/>
     </row>
     <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C188" s="16">
         <v>0</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F188" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G188" s="4">
         <v>46</v>
       </c>
       <c r="H188" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I188" s="3"/>
     </row>
     <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C189" s="16">
         <v>0</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F189" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G189" s="4">
         <v>46</v>
       </c>
       <c r="H189" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I189" s="3"/>
     </row>
     <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B190" s="12" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C190" s="16">
         <v>1</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F190" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G190" s="4">
         <v>46</v>
       </c>
       <c r="H190" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I190" s="18"/>
     </row>
     <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C191" s="16">
         <v>1</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F191" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G191" s="4">
         <v>46</v>
       </c>
       <c r="H191" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I191" s="18"/>
     </row>
     <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C192" s="16">
         <v>0</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F192" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G192" s="4">
         <v>46</v>
       </c>
       <c r="H192" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I192" s="3"/>
     </row>
     <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C193" s="16">
         <v>0</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F193" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G193" s="4">
         <v>46</v>
       </c>
       <c r="H193" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I193" s="3"/>
     </row>
     <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B194" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="C194" s="16">
+        <v>0</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E194" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="F194" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="G194" s="4">
+        <v>46</v>
+      </c>
+      <c r="H194" s="13" t="s">
         <v>356</v>
-      </c>
-      <c r="B194" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="C194" s="16">
-        <v>0</v>
-      </c>
-      <c r="D194" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E194" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="F194" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="G194" s="4">
-        <v>46</v>
-      </c>
-      <c r="H194" s="13" t="s">
-        <v>363</v>
       </c>
       <c r="I194" s="3"/>
     </row>
     <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B195" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="C195" s="16">
+        <v>0</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E195" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="F195" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="G195" s="4">
+        <v>46</v>
+      </c>
+      <c r="H195" s="13" t="s">
         <v>356</v>
-      </c>
-      <c r="B195" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="C195" s="16">
-        <v>0</v>
-      </c>
-      <c r="D195" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E195" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="F195" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="G195" s="4">
-        <v>46</v>
-      </c>
-      <c r="H195" s="13" t="s">
-        <v>363</v>
       </c>
       <c r="I195" s="3"/>
     </row>
     <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B196" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="C196" s="16">
+        <v>0</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E196" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="F196" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="G196" s="4">
+        <v>46</v>
+      </c>
+      <c r="H196" s="13" t="s">
         <v>356</v>
-      </c>
-      <c r="B196" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="C196" s="16">
-        <v>0</v>
-      </c>
-      <c r="D196" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E196" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="F196" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="G196" s="4">
-        <v>46</v>
-      </c>
-      <c r="H196" s="13" t="s">
-        <v>363</v>
       </c>
       <c r="I196" s="3"/>
     </row>
     <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B197" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="C197" s="16">
+        <v>0</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E197" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="F197" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="G197" s="4">
+        <v>46</v>
+      </c>
+      <c r="H197" s="13" t="s">
         <v>356</v>
-      </c>
-      <c r="B197" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="C197" s="16">
-        <v>0</v>
-      </c>
-      <c r="D197" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E197" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="F197" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="G197" s="4">
-        <v>46</v>
-      </c>
-      <c r="H197" s="13" t="s">
-        <v>363</v>
       </c>
       <c r="I197" s="3"/>
     </row>
     <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C198" s="16">
         <v>1</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F198" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G198" s="4">
         <v>37</v>
       </c>
       <c r="H198" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I198" s="18" t="s">
         <v>22</v>
-      </c>
-      <c r="I198" s="18" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C199" s="16">
         <v>1</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F199" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G199" s="4">
         <v>37</v>
       </c>
       <c r="H199" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I199" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C200" s="16">
         <v>0</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F200" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G200" s="4">
         <v>37</v>
       </c>
       <c r="H200" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I200" s="3"/>
     </row>
     <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B201" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="B201" s="12" t="s">
-        <v>187</v>
       </c>
       <c r="C201" s="16">
         <v>1</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F201" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G201" s="4">
         <v>37</v>
       </c>
       <c r="H201" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I201" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B202" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C202" s="16">
         <v>1</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F202" s="14" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G202" s="4">
         <v>46</v>
       </c>
       <c r="H202" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I202" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B203" s="12" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C203" s="16">
         <v>0</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F203" s="14" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G203" s="4">
         <v>46</v>
       </c>
       <c r="H203" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I203" s="3"/>
     </row>
     <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B204" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C204" s="16">
         <v>0</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F204" s="14" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G204" s="4">
         <v>46</v>
       </c>
       <c r="H204" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I204" s="3"/>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="8"/>
       <c r="B205" s="12" t="s">
-        <v>193</v>
+        <v>405</v>
       </c>
       <c r="C205" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E205" s="6"/>
       <c r="F205" s="14" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G205" s="4"/>
-      <c r="H205" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I205" s="3"/>
-    </row>
-    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B206" s="12" t="s">
-        <v>191</v>
+      <c r="H205" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="I205" s="23" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" s="8"/>
+      <c r="B206" s="21" t="s">
+        <v>189</v>
       </c>
       <c r="C206" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D206" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E206" s="6"/>
+      <c r="F206" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="E206" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="F206" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="G206" s="4">
-        <v>46</v>
-      </c>
+      <c r="G206" s="4"/>
       <c r="H206" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I206" s="3"/>
+        <v>410</v>
+      </c>
+      <c r="I206" s="8"/>
     </row>
     <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="8" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B207" s="12" t="s">
-        <v>394</v>
+        <v>187</v>
       </c>
       <c r="C207" s="16">
         <v>0</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F207" s="14" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G207" s="4">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="H207" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I207" s="3"/>
     </row>
     <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B208" s="12" t="s">
         <v>387</v>
@@ -7633,202 +7733,202 @@
         <v>0</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F208" s="14" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G208" s="4">
         <v>28</v>
       </c>
       <c r="H208" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I208" s="3"/>
     </row>
     <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>247</v>
+        <v>380</v>
       </c>
       <c r="C209" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F209" s="14" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G209" s="4">
         <v>28</v>
       </c>
       <c r="H209" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I209" s="18"/>
+        <v>16</v>
+      </c>
+      <c r="I209" s="3"/>
     </row>
     <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B210" s="12" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C210" s="16">
         <v>1</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F210" s="14" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G210" s="4">
         <v>28</v>
       </c>
       <c r="H210" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I210" s="18"/>
     </row>
     <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="8" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B211" s="12" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="C211" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F211" s="14" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G211" s="4">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="H211" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I211" s="3"/>
+      <c r="I211" s="18"/>
     </row>
     <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B212" s="12" t="s">
-        <v>395</v>
+        <v>191</v>
       </c>
       <c r="C212" s="16">
         <v>0</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F212" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G212" s="4">
         <v>46</v>
       </c>
       <c r="H212" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I212" s="3"/>
     </row>
     <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B213" s="12" t="s">
-        <v>196</v>
+        <v>388</v>
       </c>
       <c r="C213" s="16">
         <v>0</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F213" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G213" s="4">
         <v>46</v>
       </c>
       <c r="H213" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I213" s="3"/>
     </row>
     <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B214" s="12" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C214" s="16">
         <v>0</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F214" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G214" s="4">
         <v>46</v>
       </c>
       <c r="H214" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I214" s="3"/>
     </row>
     <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="8" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B215" s="12" t="s">
-        <v>328</v>
+        <v>193</v>
       </c>
       <c r="C215" s="16">
         <v>0</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F215" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G215" s="4">
         <v>46</v>
@@ -7840,103 +7940,103 @@
     </row>
     <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B216" s="12" t="s">
-        <v>199</v>
+        <v>321</v>
       </c>
       <c r="C216" s="16">
         <v>0</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F216" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G216" s="4">
         <v>46</v>
       </c>
       <c r="H216" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I216" s="3"/>
     </row>
     <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B217" s="12" t="s">
-        <v>329</v>
+        <v>195</v>
       </c>
       <c r="C217" s="16">
         <v>0</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F217" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G217" s="4">
         <v>46</v>
       </c>
       <c r="H217" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I217" s="3"/>
     </row>
     <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B218" s="12" t="s">
-        <v>200</v>
+        <v>322</v>
       </c>
       <c r="C218" s="16">
         <v>0</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F218" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G218" s="4">
         <v>46</v>
       </c>
       <c r="H218" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I218" s="3"/>
     </row>
     <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="8" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B219" s="12" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C219" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="F219" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G219" s="4">
         <v>46</v>
@@ -7944,34 +8044,32 @@
       <c r="H219" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I219" s="18" t="s">
-        <v>13</v>
-      </c>
+      <c r="I219" s="3"/>
     </row>
     <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="8" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B220" s="12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C220" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F220" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G220" s="4">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="H220" s="13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I220" s="18" t="s">
         <v>12</v>
@@ -7979,28 +8077,28 @@
     </row>
     <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B221" s="12" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C221" s="16">
         <v>2</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F221" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G221" s="4">
         <v>28</v>
       </c>
       <c r="H221" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I221" s="18" t="s">
         <v>11</v>
@@ -8008,125 +8106,158 @@
     </row>
     <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B222" s="12" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C222" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F222" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G222" s="4">
         <v>28</v>
       </c>
       <c r="H222" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I222" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I222" s="18"/>
     </row>
     <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B223" s="12" t="s">
-        <v>327</v>
+        <v>202</v>
       </c>
       <c r="C223" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F223" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G223" s="4">
         <v>28</v>
       </c>
       <c r="H223" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I223" s="3"/>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A224" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="I223" s="18"/>
+    </row>
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="8" t="s">
+        <v>199</v>
+      </c>
       <c r="B224" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C224" s="16">
+        <v>0</v>
+      </c>
+      <c r="D224" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E224" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="F224" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="C224" s="16">
-        <v>1</v>
-      </c>
-      <c r="D224" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="E224" s="6"/>
-      <c r="F224" s="14"/>
-      <c r="G224" s="4"/>
+      <c r="G224" s="4">
+        <v>28</v>
+      </c>
       <c r="H224" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I224" s="3" t="s">
+      <c r="I224" s="3"/>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" s="8"/>
+      <c r="B225" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="C225" s="16">
+        <v>1</v>
+      </c>
+      <c r="D225" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E225" s="6"/>
+      <c r="F225" s="14"/>
+      <c r="G225" s="4"/>
+      <c r="H225" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="I225" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C225" s="15"/>
-    </row>
-    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C226" s="15"/>
-    </row>
-    <row r="227" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" s="9"/>
+      <c r="B226" s="9"/>
+      <c r="C226" s="25"/>
+      <c r="D226" s="26"/>
+      <c r="E226" s="6"/>
+      <c r="F226" s="27"/>
+      <c r="G226" s="28"/>
+      <c r="H226" s="8"/>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C227" s="15"/>
     </row>
-    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C228" s="15"/>
     </row>
-    <row r="229" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C229" s="15"/>
     </row>
-    <row r="230" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C230" s="15"/>
     </row>
-    <row r="231" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C231" s="15"/>
     </row>
-    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C232" s="15"/>
     </row>
-    <row r="233" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C233" s="15"/>
     </row>
-    <row r="234" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C234" s="15"/>
     </row>
-    <row r="235" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C235" s="15"/>
     </row>
-    <row r="236" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C236" s="15"/>
     </row>
-    <row r="237" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C237" s="15"/>
     </row>
-    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C238" s="15"/>
     </row>
-    <row r="239" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C239" s="15"/>
     </row>
-    <row r="240" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C240" s="15"/>
     </row>
     <row r="241" spans="3:3" x14ac:dyDescent="0.25">
@@ -8150,58 +8281,61 @@
     <row r="247" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C247" s="15"/>
     </row>
+    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C248" s="15"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C224">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+  <conditionalFormatting sqref="C2:C226">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="27" priority="5">
       <formula>RIGHT(B2,6)="ROSADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="6">
+    <cfRule type="expression" dxfId="26" priority="6">
       <formula>RIGHT(B2,6)="GUINDO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="7">
+    <cfRule type="expression" dxfId="25" priority="7">
       <formula>RIGHT(B2,5)="VERDE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="8">
+    <cfRule type="expression" dxfId="24" priority="8">
       <formula>RIGHT(B2,7)="NARANJA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="23" priority="9">
       <formula>RIGHT(B2,5)="PLATA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="22" priority="10">
       <formula>RIGHT(B2,4)="GRIS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="21" priority="11">
       <formula>RIGHT(B2,7)="CELESTE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="12">
+    <cfRule type="expression" dxfId="20" priority="12">
       <formula>RIGHT(B2,6)="BLANCO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="13">
+    <cfRule type="expression" dxfId="19" priority="13">
       <formula>RIGHT(B2,4)="ROJO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="14">
+    <cfRule type="expression" dxfId="18" priority="14">
       <formula>RIGHT(B2,5)="NEGRO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="15">
+    <cfRule type="expression" dxfId="17" priority="15">
       <formula>RIGHT(B2,4)="AZUL"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="16">
+    <cfRule type="expression" dxfId="16" priority="16">
       <formula>RIGHT(B2,8)="AMARILLO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D58 D59:E224">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="D2:D58 D59:E225">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>"KINSMART"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>"OEM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I222">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="I2:I223">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/kingcar.xlsx
+++ b/kingcar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF06AA2-ED2C-4670-976E-9861C24ADFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C4CCD7-7780-4218-B840-AAA2D4C33AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1279,7 +1279,7 @@
     <numFmt numFmtId="164" formatCode="_-&quot;S/&quot;\ * #,##0_-;\-&quot;S/&quot;\ * #,##0_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1370,13 +1370,6 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1423,7 +1416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1475,16 +1468,13 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1493,19 +1483,41 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="40">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFC000"/>
@@ -1573,36 +1585,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1819,12 +1801,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:I226" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37">
-  <autoFilter ref="A1:I226" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:I225" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37">
+  <autoFilter ref="A1:I225" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
     <filterColumn colId="3">
       <filters>
         <filter val="OEM"/>
       </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A109:I225">
@@ -2132,10 +2117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I248"/>
+  <dimension ref="A1:I247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E225" sqref="E225"/>
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2148,7 +2133,7 @@
     <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" style="9" customWidth="1"/>
     <col min="8" max="8" width="89.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" style="24" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2176,7 +2161,7 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="19" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2205,7 +2190,7 @@
       <c r="H2" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="20" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2234,7 +2219,7 @@
       <c r="H3" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="I3" s="19"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2261,7 +2246,7 @@
       <c r="H4" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="I4" s="19"/>
+      <c r="I4" s="20"/>
     </row>
     <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -3583,7 +3568,7 @@
       <c r="H52" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I52" s="19" t="s">
+      <c r="I52" s="20" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3963,7 +3948,7 @@
       <c r="H66" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I66" s="20" t="s">
+      <c r="I66" s="21" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5105,7 +5090,7 @@
       </c>
       <c r="I108" s="3"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="12" t="s">
         <v>224</v>
@@ -5118,13 +5103,15 @@
       </c>
       <c r="E109" s="6"/>
       <c r="F109" s="14"/>
-      <c r="G109" s="4"/>
+      <c r="G109" s="4">
+        <v>19</v>
+      </c>
       <c r="H109" s="8" t="s">
         <v>232</v>
       </c>
       <c r="I109" s="8"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="12" t="s">
         <v>223</v>
@@ -5145,7 +5132,7 @@
       </c>
       <c r="I110" s="8"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="12" t="s">
         <v>227</v>
@@ -5166,11 +5153,11 @@
       <c r="H111" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="I111" s="23" t="s">
+      <c r="I111" s="22" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="12" t="s">
         <v>228</v>
@@ -5191,11 +5178,11 @@
       <c r="H112" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="I112" s="23" t="s">
+      <c r="I112" s="22" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="12" t="s">
         <v>230</v>
@@ -5216,11 +5203,11 @@
       <c r="H113" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="I113" s="23" t="s">
+      <c r="I113" s="22" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="12" t="s">
         <v>229</v>
@@ -5241,11 +5228,11 @@
       <c r="H114" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="I114" s="23" t="s">
+      <c r="I114" s="22" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="12" t="s">
         <v>226</v>
@@ -5266,11 +5253,11 @@
       <c r="H115" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="I115" s="23" t="s">
+      <c r="I115" s="22" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="12" t="s">
         <v>231</v>
@@ -5291,7 +5278,7 @@
       <c r="H116" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="I116" s="23" t="s">
+      <c r="I116" s="22" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5308,7 +5295,9 @@
       </c>
       <c r="E117" s="6"/>
       <c r="F117" s="14"/>
-      <c r="G117" s="4"/>
+      <c r="G117" s="4">
+        <v>48</v>
+      </c>
       <c r="H117" s="8" t="s">
         <v>402</v>
       </c>
@@ -5827,9 +5816,9 @@
       </c>
       <c r="I136" s="3"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
-      <c r="B137" s="21" t="s">
+      <c r="B137" s="12" t="s">
         <v>151</v>
       </c>
       <c r="C137" s="16">
@@ -5840,11 +5829,13 @@
       </c>
       <c r="E137" s="6"/>
       <c r="F137" s="14"/>
-      <c r="G137" s="4"/>
+      <c r="G137" s="4">
+        <v>42</v>
+      </c>
       <c r="H137" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="I137" s="23" t="s">
+      <c r="I137" s="22" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5954,7 +5945,7 @@
       <c r="H141" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I141" s="19" t="s">
+      <c r="I141" s="20" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6093,9 +6084,9 @@
       </c>
       <c r="I146" s="5"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
-      <c r="B147" s="21" t="s">
+      <c r="B147" s="12" t="s">
         <v>157</v>
       </c>
       <c r="C147" s="16">
@@ -6106,7 +6097,9 @@
       </c>
       <c r="E147" s="6"/>
       <c r="F147" s="14"/>
-      <c r="G147" s="4"/>
+      <c r="G147" s="4">
+        <v>62</v>
+      </c>
       <c r="H147" s="8" t="s">
         <v>403</v>
       </c>
@@ -6193,7 +6186,7 @@
       <c r="H150" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I150" s="20"/>
+      <c r="I150" s="21"/>
     </row>
     <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
@@ -6301,7 +6294,7 @@
       <c r="H154" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I154" s="20"/>
+      <c r="I154" s="21"/>
     </row>
     <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
@@ -6330,7 +6323,7 @@
       </c>
       <c r="I155" s="3"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
       <c r="B156" s="12" t="s">
         <v>160</v>
@@ -6345,15 +6338,17 @@
       <c r="F156" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="G156" s="4"/>
+      <c r="G156" s="4">
+        <v>55</v>
+      </c>
       <c r="H156" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="I156" s="23" t="s">
+      <c r="I156" s="22" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="8"/>
       <c r="B157" s="12" t="s">
         <v>271</v>
@@ -6368,15 +6363,17 @@
       <c r="F157" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="G157" s="4"/>
+      <c r="G157" s="4">
+        <v>55</v>
+      </c>
       <c r="H157" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="I157" s="23" t="s">
+      <c r="I157" s="22" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="8"/>
       <c r="B158" s="12" t="s">
         <v>270</v>
@@ -6391,11 +6388,13 @@
       <c r="F158" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="G158" s="4"/>
+      <c r="G158" s="4">
+        <v>55</v>
+      </c>
       <c r="H158" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="I158" s="23" t="s">
+      <c r="I158" s="22" t="s">
         <v>404</v>
       </c>
     </row>
@@ -6532,7 +6531,7 @@
       <c r="H163" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="I163" s="19"/>
+      <c r="I163" s="20"/>
     </row>
     <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
@@ -6559,7 +6558,7 @@
       <c r="H164" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="I164" s="19"/>
+      <c r="I164" s="20"/>
     </row>
     <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
@@ -6586,7 +6585,7 @@
       <c r="H165" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="I165" s="19"/>
+      <c r="I165" s="20"/>
     </row>
     <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
@@ -6640,7 +6639,7 @@
       <c r="H167" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I167" s="19"/>
+      <c r="I167" s="20"/>
     </row>
     <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
@@ -7651,7 +7650,7 @@
       </c>
       <c r="I204" s="3"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="8"/>
       <c r="B205" s="12" t="s">
         <v>405</v>
@@ -7666,17 +7665,19 @@
       <c r="F205" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="G205" s="4"/>
+      <c r="G205" s="4">
+        <v>55</v>
+      </c>
       <c r="H205" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="I205" s="23" t="s">
+      <c r="I205" s="22" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="8"/>
-      <c r="B206" s="21" t="s">
+      <c r="B206" s="12" t="s">
         <v>189</v>
       </c>
       <c r="C206" s="16">
@@ -7689,7 +7690,9 @@
       <c r="F206" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="G206" s="4"/>
+      <c r="G206" s="4">
+        <v>19</v>
+      </c>
       <c r="H206" s="13" t="s">
         <v>410</v>
       </c>
@@ -8189,7 +8192,7 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="8"/>
-      <c r="B225" s="21" t="s">
+      <c r="B225" s="12" t="s">
         <v>203</v>
       </c>
       <c r="C225" s="16">
@@ -8200,7 +8203,9 @@
       </c>
       <c r="E225" s="6"/>
       <c r="F225" s="14"/>
-      <c r="G225" s="4"/>
+      <c r="G225" s="4">
+        <v>37</v>
+      </c>
       <c r="H225" s="13" t="s">
         <v>411</v>
       </c>
@@ -8209,14 +8214,7 @@
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A226" s="9"/>
-      <c r="B226" s="9"/>
-      <c r="C226" s="25"/>
-      <c r="D226" s="26"/>
-      <c r="E226" s="6"/>
-      <c r="F226" s="27"/>
-      <c r="G226" s="28"/>
-      <c r="H226" s="8"/>
+      <c r="C226" s="15"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C227" s="15"/>
@@ -8281,61 +8279,58 @@
     <row r="247" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C247" s="15"/>
     </row>
-    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C248" s="15"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C226">
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
+  <conditionalFormatting sqref="C2:C225">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="5">
+    <cfRule type="expression" dxfId="14" priority="5">
       <formula>RIGHT(B2,6)="ROSADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="6">
+    <cfRule type="expression" dxfId="13" priority="6">
       <formula>RIGHT(B2,6)="GUINDO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="7">
+    <cfRule type="expression" dxfId="12" priority="7">
       <formula>RIGHT(B2,5)="VERDE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="8">
+    <cfRule type="expression" dxfId="11" priority="8">
       <formula>RIGHT(B2,7)="NARANJA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="9">
+    <cfRule type="expression" dxfId="10" priority="9">
       <formula>RIGHT(B2,5)="PLATA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>RIGHT(B2,4)="GRIS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="11">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>RIGHT(B2,7)="CELESTE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="12">
+    <cfRule type="expression" dxfId="7" priority="12">
       <formula>RIGHT(B2,6)="BLANCO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="13">
+    <cfRule type="expression" dxfId="6" priority="13">
       <formula>RIGHT(B2,4)="ROJO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="14">
+    <cfRule type="expression" dxfId="5" priority="14">
       <formula>RIGHT(B2,5)="NEGRO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="15">
+    <cfRule type="expression" dxfId="4" priority="15">
       <formula>RIGHT(B2,4)="AZUL"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="3" priority="16">
       <formula>RIGHT(B2,8)="AMARILLO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D58 D59:E225">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"KINSMART"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"OEM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I223">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
   </conditionalFormatting>
